--- a/app/designerFiles/app/config/tables/survey/forms/survey/survey.xlsx
+++ b/app/designerFiles/app/config/tables/survey/forms/survey/survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="21840" windowWidth="38640" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -70,6 +70,12 @@
       <i val="1"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="17">
@@ -534,25 +540,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V701"/>
+  <dimension ref="A1:V747"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
+      <selection activeCell="F501" sqref="F501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="2" width="11.5703125"/>
-    <col customWidth="1" max="6" min="6" style="2" width="21.140625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="16.42578125"/>
-    <col customWidth="1" max="8" min="8" style="2" width="11.5703125"/>
+    <col customWidth="1" max="5" min="1" style="2" width="11.5546875"/>
+    <col customWidth="1" max="6" min="6" style="2" width="21.109375"/>
+    <col customWidth="1" max="7" min="7" style="2" width="16.44140625"/>
+    <col customWidth="1" max="8" min="8" style="2" width="11.5546875"/>
     <col customWidth="1" max="9" min="9" style="2" width="29"/>
-    <col customWidth="1" max="13" min="10" style="2" width="11.5703125"/>
-    <col customWidth="1" max="14" min="14" style="1" width="95.85546875"/>
-    <col customWidth="1" max="1025" min="15" style="2" width="11.5703125"/>
+    <col customWidth="1" max="13" min="10" style="2" width="11.5546875"/>
+    <col customWidth="1" max="14" min="14" style="1" width="95.88671875"/>
+    <col customWidth="1" max="1025" min="15" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="17.65" r="1" s="2">
+    <row customHeight="1" ht="13.2" r="1" s="2">
       <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
@@ -684,7 +690,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="3" s="2">
+    <row customHeight="1" ht="17.7" r="3" s="2">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -728,7 +734,7 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="2">
+    <row customHeight="1" ht="13.2" r="4" s="2">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -764,7 +770,7 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="5" s="2">
+    <row customHeight="1" ht="17.7" r="5" s="2">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -788,7 +794,7 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="6" s="2">
+    <row customHeight="1" ht="17.7" r="6" s="2">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -830,7 +836,7 @@
       </c>
       <c r="V6" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="7" s="2">
+    <row customHeight="1" ht="17.7" r="7" s="2">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -866,7 +872,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="8" s="2">
+    <row customHeight="1" ht="17.7" r="8" s="2">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -902,7 +908,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="9" s="2">
+    <row customHeight="1" ht="17.7" r="9" s="2">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -938,7 +944,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="10" s="2">
+    <row customHeight="1" ht="17.7" r="10" s="2">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -974,7 +980,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="11" s="2">
+    <row customHeight="1" ht="17.7" r="11" s="2">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -1010,7 +1016,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="12" s="2">
+    <row customHeight="1" ht="13.2" r="12" s="2">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -1046,7 +1052,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="13" s="2">
+    <row customHeight="1" ht="17.7" r="13" s="2">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -1082,7 +1088,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="14" s="2">
+    <row customHeight="1" ht="17.7" r="14" s="2">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -1122,7 +1128,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="15" s="2">
+    <row customHeight="1" ht="17.7" r="15" s="2">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -1230,7 +1236,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="18" s="2">
+    <row customHeight="1" ht="17.7" r="18" s="2">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -1266,7 +1272,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="19" s="2">
+    <row customHeight="1" ht="13.2" r="19" s="2">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -1302,7 +1308,7 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.65" r="20" s="7">
+    <row customFormat="1" customHeight="1" ht="17.7" r="20" s="7">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -1326,7 +1332,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="21" s="2">
+    <row customHeight="1" ht="17.7" r="21" s="2">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -1366,7 +1372,7 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="22" s="2">
+    <row customHeight="1" ht="17.7" r="22" s="2">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -1402,7 +1408,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="23" s="2">
+    <row customHeight="1" ht="17.7" r="23" s="2">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -1442,7 +1448,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="24" s="2">
+    <row customHeight="1" ht="17.7" r="24" s="2">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -1478,7 +1484,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="25" s="2">
+    <row customHeight="1" ht="17.7" r="25" s="2">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -1518,7 +1524,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="29.65" r="26" s="2">
+    <row customHeight="1" ht="29.7" r="26" s="2">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -1554,7 +1560,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="31.7" r="27" s="2">
+    <row customHeight="1" ht="31.65" r="27" s="2">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -1578,7 +1584,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="28" s="2">
+    <row customHeight="1" ht="13.2" r="28" s="2">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -1602,7 +1608,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="29" s="2">
+    <row customHeight="1" ht="17.7" r="29" s="2">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -1648,7 +1654,7 @@
       </c>
       <c r="V29" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="30" s="2">
+    <row customHeight="1" ht="17.7" r="30" s="2">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -1684,7 +1690,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="31" s="2">
+    <row customHeight="1" ht="17.7" r="31" s="2">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -1708,7 +1714,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="32" s="2">
+    <row customHeight="1" ht="17.7" r="32" s="2">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="8" t="inlineStr">
@@ -1740,7 +1746,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="33" s="2">
+    <row customHeight="1" ht="17.7" r="33" s="2">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -1764,7 +1770,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="34" s="2">
+    <row customHeight="1" ht="17.7" r="34" s="2">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
@@ -1788,7 +1794,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="35" s="2">
+    <row customHeight="1" ht="13.2" r="35" s="2">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
@@ -1812,7 +1818,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="36" s="2">
+    <row customHeight="1" ht="13.2" r="36" s="2">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
@@ -1840,7 +1846,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="37" s="2">
+    <row customHeight="1" ht="17.7" r="37" s="2">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
@@ -1884,7 +1890,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="38" s="2">
+    <row customHeight="1" ht="17.7" r="38" s="2">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
@@ -2020,7 +2026,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="39" s="2">
+    <row customHeight="1" ht="17.7" r="39" s="2">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
@@ -2048,7 +2054,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="40" s="2">
+    <row customHeight="1" ht="17.7" r="40" s="2">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
@@ -2084,7 +2090,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="41" s="2">
+    <row customHeight="1" ht="17.7" r="41" s="2">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -2108,7 +2114,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.65" r="42" s="5">
+    <row customFormat="1" customHeight="1" ht="17.7" r="42" s="5">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
@@ -2468,7 +2474,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="52" s="2">
+    <row customHeight="1" ht="17.7" r="52" s="2">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
@@ -2504,7 +2510,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="53" s="2">
+    <row customHeight="1" ht="17.7" r="53" s="2">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
@@ -2536,7 +2542,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="54" s="2">
+    <row customHeight="1" ht="17.7" r="54" s="2">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
@@ -2572,7 +2578,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.65" r="55" s="5">
+    <row customFormat="1" customHeight="1" ht="17.7" r="55" s="5">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
@@ -2608,7 +2614,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="56" s="2">
+    <row customHeight="1" ht="17.7" r="56" s="2">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
@@ -2636,7 +2642,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="57" s="2">
+    <row customHeight="1" ht="17.7" r="57" s="2">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
@@ -2664,7 +2670,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="58" s="2">
+    <row customHeight="1" ht="17.7" r="58" s="2">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
@@ -2696,7 +2702,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="59" s="2">
+    <row customHeight="1" ht="13.2" r="59" s="2">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
@@ -2736,7 +2742,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="60" s="2">
+    <row customHeight="1" ht="13.2" r="60" s="2">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
@@ -2772,7 +2778,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="61" s="2">
+    <row customHeight="1" ht="13.2" r="61" s="2">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="5" t="inlineStr">
@@ -2804,7 +2810,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="62" s="2">
+    <row customHeight="1" ht="13.2" r="62" s="2">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -2840,7 +2846,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="63" s="2">
+    <row customHeight="1" ht="13.2" r="63" s="2">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -2876,7 +2882,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="64" s="2">
+    <row customHeight="1" ht="13.2" r="64" s="2">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
@@ -2904,7 +2910,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="65" s="2">
+    <row customHeight="1" ht="13.2" r="65" s="2">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
@@ -2932,7 +2938,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="66" s="2">
+    <row customHeight="1" ht="17.7" r="66" s="2">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
@@ -2964,7 +2970,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="67" s="2">
+    <row customHeight="1" ht="17.7" r="67" s="2">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
@@ -3004,7 +3010,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="68" s="2">
+    <row customHeight="1" ht="17.7" r="68" s="2">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
@@ -3040,7 +3046,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="69" s="2">
+    <row customHeight="1" ht="17.7" r="69" s="2">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
@@ -3072,7 +3078,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="70" s="2">
+    <row customHeight="1" ht="17.7" r="70" s="2">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
@@ -3108,7 +3114,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="71" s="2">
+    <row customHeight="1" ht="17.7" r="71" s="2">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
@@ -3144,7 +3150,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="72" s="2">
+    <row customHeight="1" ht="17.7" r="72" s="2">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
@@ -3172,7 +3178,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="73" s="2">
+    <row customHeight="1" ht="17.7" r="73" s="2">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
@@ -3200,7 +3206,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="74" s="2">
+    <row customHeight="1" ht="17.7" r="74" s="2">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
@@ -3232,7 +3238,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="75" s="2">
+    <row customHeight="1" ht="17.7" r="75" s="2">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
@@ -3272,7 +3278,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="76" s="2">
+    <row customHeight="1" ht="17.7" r="76" s="2">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
@@ -3308,7 +3314,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="77" s="2">
+    <row customHeight="1" ht="17.7" r="77" s="2">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
@@ -3348,7 +3354,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="78" s="2">
+    <row customHeight="1" ht="17.7" r="78" s="2">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
@@ -3384,7 +3390,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="79" s="2">
+    <row customHeight="1" ht="17.7" r="79" s="2">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="5" t="inlineStr">
@@ -3416,7 +3422,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="80" s="2">
+    <row customHeight="1" ht="17.7" r="80" s="2">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
@@ -3452,7 +3458,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="81" s="2">
+    <row customHeight="1" ht="17.7" r="81" s="2">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
@@ -3488,7 +3494,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="82" s="2">
+    <row customHeight="1" ht="17.7" r="82" s="2">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
@@ -3516,7 +3522,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="83" s="2">
+    <row customHeight="1" ht="17.7" r="83" s="2">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
@@ -3544,7 +3550,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="84" s="2">
+    <row customHeight="1" ht="13.2" r="84" s="2">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
@@ -3592,7 +3598,7 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="86" s="2">
+    <row customHeight="1" ht="17.7" r="86" s="2">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
@@ -3616,7 +3622,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="87" s="2">
+    <row customHeight="1" ht="13.2" r="87" s="2">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
@@ -3640,7 +3646,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="88" s="2">
+    <row customHeight="1" ht="17.7" r="88" s="2">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
@@ -3664,7 +3670,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="89" s="2">
+    <row customHeight="1" ht="17.7" r="89" s="2">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
@@ -3788,7 +3794,7 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="93" s="2">
+    <row customHeight="1" ht="17.7" r="93" s="2">
       <c r="A93" s="10" t="inlineStr"/>
       <c r="B93" s="10" t="inlineStr"/>
       <c r="C93" s="10" t="inlineStr">
@@ -3828,7 +3834,7 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="94" s="2">
+    <row customHeight="1" ht="17.7" r="94" s="2">
       <c r="A94" s="10" t="inlineStr"/>
       <c r="B94" s="10" t="inlineStr"/>
       <c r="C94" s="10" t="inlineStr"/>
@@ -3868,7 +3874,7 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="95" s="2">
+    <row customHeight="1" ht="17.7" r="95" s="2">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
@@ -3904,7 +3910,7 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="96" s="2">
+    <row customHeight="1" ht="13.2" r="96" s="2">
       <c r="A96" s="10" t="inlineStr"/>
       <c r="B96" s="11" t="inlineStr"/>
       <c r="C96" s="11" t="inlineStr">
@@ -3936,7 +3942,7 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="97" s="2">
+    <row customHeight="1" ht="13.2" r="97" s="2">
       <c r="A97" s="10" t="inlineStr"/>
       <c r="B97" s="11" t="inlineStr"/>
       <c r="C97" s="11" t="inlineStr"/>
@@ -3972,7 +3978,7 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="98" s="2">
+    <row customHeight="1" ht="13.2" r="98" s="2">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
@@ -4008,7 +4014,7 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="99" s="2">
+    <row customHeight="1" ht="17.7" r="99" s="2">
       <c r="A99" s="10" t="inlineStr"/>
       <c r="B99" s="11" t="inlineStr"/>
       <c r="C99" s="11" t="inlineStr">
@@ -4036,7 +4042,7 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="100" s="2">
+    <row customHeight="1" ht="17.7" r="100" s="2">
       <c r="A100" s="10" t="inlineStr"/>
       <c r="B100" s="10" t="inlineStr"/>
       <c r="C100" s="10" t="inlineStr"/>
@@ -4076,7 +4082,7 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="101" s="2">
+    <row customHeight="1" ht="17.7" r="101" s="2">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
@@ -4112,7 +4118,7 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="102" s="2">
+    <row customHeight="1" ht="17.7" r="102" s="2">
       <c r="A102" s="10" t="inlineStr"/>
       <c r="B102" s="11" t="inlineStr"/>
       <c r="C102" s="11" t="inlineStr">
@@ -4144,7 +4150,7 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="103" s="2">
+    <row customHeight="1" ht="17.7" r="103" s="2">
       <c r="A103" s="10" t="inlineStr"/>
       <c r="B103" s="11" t="inlineStr"/>
       <c r="C103" s="11" t="inlineStr"/>
@@ -4180,7 +4186,7 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="104" s="2">
+    <row customHeight="1" ht="17.7" r="104" s="2">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
@@ -4216,7 +4222,7 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="105" s="2">
+    <row customHeight="1" ht="17.7" r="105" s="2">
       <c r="A105" s="10" t="inlineStr"/>
       <c r="B105" s="11" t="inlineStr"/>
       <c r="C105" s="11" t="inlineStr">
@@ -4244,7 +4250,7 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="106" s="2">
+    <row customHeight="1" ht="17.7" r="106" s="2">
       <c r="A106" s="10" t="inlineStr"/>
       <c r="B106" s="10" t="inlineStr"/>
       <c r="C106" s="10" t="inlineStr"/>
@@ -4284,7 +4290,7 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="107" s="2">
+    <row customHeight="1" ht="17.7" r="107" s="2">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
@@ -4320,7 +4326,7 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="108" s="2">
+    <row customHeight="1" ht="17.7" r="108" s="2">
       <c r="A108" s="10" t="inlineStr"/>
       <c r="B108" s="11" t="inlineStr"/>
       <c r="C108" s="11" t="inlineStr">
@@ -4352,7 +4358,7 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="109" s="2">
+    <row customHeight="1" ht="17.7" r="109" s="2">
       <c r="A109" s="10" t="inlineStr"/>
       <c r="B109" s="11" t="inlineStr"/>
       <c r="C109" s="11" t="inlineStr"/>
@@ -4392,7 +4398,7 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="110" s="2">
+    <row customHeight="1" ht="17.7" r="110" s="2">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
@@ -4428,7 +4434,7 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="111" s="2">
+    <row customHeight="1" ht="17.7" r="111" s="2">
       <c r="A111" s="10" t="inlineStr"/>
       <c r="B111" s="11" t="inlineStr"/>
       <c r="C111" s="12" t="inlineStr">
@@ -4460,7 +4466,7 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="112" s="2">
+    <row customHeight="1" ht="13.2" r="112" s="2">
       <c r="A112" s="10" t="inlineStr"/>
       <c r="B112" s="11" t="inlineStr"/>
       <c r="C112" s="12" t="inlineStr"/>
@@ -4496,7 +4502,7 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="113" s="2">
+    <row customHeight="1" ht="13.2" r="113" s="2">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
@@ -4532,7 +4538,7 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.65" r="114" s="13">
+    <row customFormat="1" customHeight="1" ht="17.7" r="114" s="13">
       <c r="A114" s="10" t="inlineStr"/>
       <c r="B114" s="11" t="inlineStr"/>
       <c r="C114" s="12" t="inlineStr">
@@ -4560,7 +4566,7 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="115" s="2">
+    <row customHeight="1" ht="17.7" r="115" s="2">
       <c r="A115" s="10" t="inlineStr"/>
       <c r="B115" s="11" t="inlineStr"/>
       <c r="C115" s="11" t="inlineStr">
@@ -4588,7 +4594,7 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="116" s="2">
+    <row customHeight="1" ht="13.2" r="116" s="2">
       <c r="A116" s="10" t="inlineStr"/>
       <c r="B116" s="10" t="inlineStr"/>
       <c r="C116" s="10" t="inlineStr">
@@ -4616,7 +4622,7 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="117" s="2">
+    <row customHeight="1" ht="17.7" r="117" s="2">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
@@ -4640,7 +4646,7 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="118" s="2">
+    <row customHeight="1" ht="17.7" r="118" s="2">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
@@ -4680,7 +4686,7 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="119" s="2">
+    <row customHeight="1" ht="17.7" r="119" s="2">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
@@ -4716,7 +4722,7 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="120" s="2">
+    <row customHeight="1" ht="17.7" r="120" s="2">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
@@ -4756,7 +4762,7 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="121" s="2">
+    <row customHeight="1" ht="17.7" r="121" s="2">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
@@ -4792,7 +4798,7 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="122" s="2">
+    <row customHeight="1" ht="17.7" r="122" s="2">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
@@ -4816,7 +4822,7 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="123" s="2">
+    <row customHeight="1" ht="17.7" r="123" s="2">
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
@@ -4856,7 +4862,7 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="124" s="2">
+    <row customHeight="1" ht="17.7" r="124" s="2">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
@@ -4892,7 +4898,7 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="125" s="2">
+    <row customHeight="1" ht="17.7" r="125" s="2">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
@@ -4924,7 +4930,7 @@
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="126" s="2">
+    <row customHeight="1" ht="17.7" r="126" s="2">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
@@ -4960,7 +4966,7 @@
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="127" s="2">
+    <row customHeight="1" ht="17.7" r="127" s="2">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
@@ -4996,7 +5002,7 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="128" s="2">
+    <row customHeight="1" ht="17.7" r="128" s="2">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
@@ -5024,7 +5030,7 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="129" s="2">
+    <row customHeight="1" ht="17.7" r="129" s="2">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
@@ -5056,7 +5062,7 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="130" s="2">
+    <row customHeight="1" ht="17.7" r="130" s="2">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
@@ -5092,7 +5098,7 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="131" s="2">
+    <row customHeight="1" ht="17.7" r="131" s="2">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
@@ -5128,7 +5134,7 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="132" s="2">
+    <row customHeight="1" ht="17.7" r="132" s="2">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
@@ -5156,7 +5162,7 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="133" s="2">
+    <row customHeight="1" ht="17.7" r="133" s="2">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
@@ -5192,7 +5198,7 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="134" s="2">
+    <row customHeight="1" ht="17.7" r="134" s="2">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
@@ -5228,7 +5234,7 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="135" s="2">
+    <row customHeight="1" ht="17.7" r="135" s="2">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
@@ -5252,7 +5258,7 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="136" s="2">
+    <row customHeight="1" ht="17.7" r="136" s="2">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
@@ -5276,7 +5282,7 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="137" s="2">
+    <row customHeight="1" ht="17.7" r="137" s="2">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
@@ -5300,7 +5306,7 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="138" s="2">
+    <row customHeight="1" ht="17.7" r="138" s="2">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
@@ -5344,7 +5350,7 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="139" s="2">
+    <row customHeight="1" ht="17.7" r="139" s="2">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
@@ -5380,7 +5386,7 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="140" s="2">
+    <row customHeight="1" ht="17.7" r="140" s="2">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
@@ -5412,7 +5418,7 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="141" s="2">
+    <row customHeight="1" ht="17.7" r="141" s="2">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
@@ -5448,7 +5454,7 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="142" s="2">
+    <row customHeight="1" ht="17.7" r="142" s="2">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
@@ -5484,7 +5490,7 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="143" s="2">
+    <row customHeight="1" ht="17.7" r="143" s="2">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
@@ -5512,7 +5518,7 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="144" s="2">
+    <row customHeight="1" ht="17.7" r="144" s="2">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
@@ -5552,7 +5558,7 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="145" s="2">
+    <row customHeight="1" ht="17.7" r="145" s="2">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
@@ -5588,7 +5594,7 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="146" s="2">
+    <row customHeight="1" ht="17.7" r="146" s="2">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
@@ -5620,7 +5626,7 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="147" s="2">
+    <row customHeight="1" ht="17.7" r="147" s="2">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
@@ -5648,7 +5654,7 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="148" s="2">
+    <row customHeight="1" ht="17.7" r="148" s="2">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
@@ -5684,7 +5690,7 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="149" s="2">
+    <row customHeight="1" ht="17.7" r="149" s="2">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
@@ -5728,7 +5734,7 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="150" s="2">
+    <row customHeight="1" ht="17.7" r="150" s="2">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
@@ -5772,7 +5778,7 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="151" s="2">
+    <row customHeight="1" ht="17.7" r="151" s="2">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
@@ -5816,7 +5822,7 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="152" s="2">
+    <row customHeight="1" ht="17.7" r="152" s="2">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
@@ -5844,7 +5850,7 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="153" s="2">
+    <row customHeight="1" ht="17.7" r="153" s="2">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
@@ -5880,7 +5886,7 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="154" s="2">
+    <row customHeight="1" ht="17.7" r="154" s="2">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
@@ -5916,7 +5922,7 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="155" s="2">
+    <row customHeight="1" ht="17.7" r="155" s="2">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
@@ -5952,7 +5958,7 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="156" s="2">
+    <row customHeight="1" ht="17.7" r="156" s="2">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
@@ -5980,7 +5986,7 @@
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="157" s="2">
+    <row customHeight="1" ht="17.7" r="157" s="2">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
@@ -6004,7 +6010,7 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="158" s="2">
+    <row customHeight="1" ht="17.7" r="158" s="2">
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
@@ -6028,7 +6034,7 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="159" s="2">
+    <row customHeight="1" ht="17.7" r="159" s="2">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
@@ -6060,7 +6066,7 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="160" s="2">
+    <row customHeight="1" ht="13.2" r="160" s="2">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
@@ -6100,7 +6106,7 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="161" s="2">
+    <row customHeight="1" ht="13.2" r="161" s="2">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
@@ -6136,7 +6142,7 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="162" s="2">
+    <row customHeight="1" ht="13.2" r="162" s="2">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
@@ -6160,7 +6166,7 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="163" s="2">
+    <row customHeight="1" ht="13.2" r="163" s="2">
       <c r="A163" s="13" t="inlineStr"/>
       <c r="B163" s="13" t="inlineStr"/>
       <c r="C163" s="15" t="inlineStr">
@@ -6196,7 +6202,7 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="164" s="2">
+    <row customHeight="1" ht="17.7" r="164" s="2">
       <c r="A164" s="13" t="inlineStr"/>
       <c r="B164" s="13" t="inlineStr"/>
       <c r="C164" s="15" t="inlineStr"/>
@@ -6236,7 +6242,7 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="165" s="2">
+    <row customHeight="1" ht="13.2" r="165" s="2">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
@@ -6272,7 +6278,7 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="166" s="2">
+    <row customHeight="1" ht="13.2" r="166" s="2">
       <c r="A166" s="13" t="inlineStr"/>
       <c r="B166" s="16" t="inlineStr"/>
       <c r="C166" s="17" t="inlineStr">
@@ -6304,7 +6310,7 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.65" r="167" s="13">
+    <row customFormat="1" customHeight="1" ht="17.7" r="167" s="13">
       <c r="A167" s="13" t="inlineStr"/>
       <c r="B167" s="16" t="inlineStr"/>
       <c r="C167" s="17" t="inlineStr"/>
@@ -6340,7 +6346,7 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="168" s="2">
+    <row customHeight="1" ht="13.2" r="168" s="2">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
@@ -6376,7 +6382,7 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="169" s="2">
+    <row customHeight="1" ht="17.7" r="169" s="2">
       <c r="A169" s="13" t="inlineStr"/>
       <c r="B169" s="16" t="inlineStr"/>
       <c r="C169" s="17" t="inlineStr">
@@ -6404,7 +6410,7 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="170" s="2">
+    <row customHeight="1" ht="13.2" r="170" s="2">
       <c r="A170" s="13" t="inlineStr"/>
       <c r="B170" s="13" t="inlineStr"/>
       <c r="C170" s="15" t="inlineStr"/>
@@ -6444,7 +6450,7 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="171" s="2">
+    <row customHeight="1" ht="17.7" r="171" s="2">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
@@ -6480,7 +6486,7 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="172" s="2">
+    <row customHeight="1" ht="17.7" r="172" s="2">
       <c r="A172" s="13" t="inlineStr"/>
       <c r="B172" s="16" t="inlineStr"/>
       <c r="C172" s="17" t="inlineStr">
@@ -6512,7 +6518,7 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="173" s="2">
+    <row customHeight="1" ht="17.7" r="173" s="2">
       <c r="A173" s="13" t="inlineStr"/>
       <c r="B173" s="16" t="inlineStr"/>
       <c r="C173" s="17" t="inlineStr"/>
@@ -6548,7 +6554,7 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="174" s="2">
+    <row customHeight="1" ht="17.7" r="174" s="2">
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
@@ -6584,7 +6590,7 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="175" s="2">
+    <row customHeight="1" ht="17.7" r="175" s="2">
       <c r="A175" s="13" t="inlineStr"/>
       <c r="B175" s="16" t="inlineStr"/>
       <c r="C175" s="17" t="inlineStr">
@@ -6612,7 +6618,7 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="176" s="2">
+    <row customHeight="1" ht="17.7" r="176" s="2">
       <c r="A176" s="13" t="inlineStr"/>
       <c r="B176" s="13" t="inlineStr"/>
       <c r="C176" s="15" t="inlineStr"/>
@@ -6652,7 +6658,7 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="177" s="2">
+    <row customHeight="1" ht="17.7" r="177" s="2">
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
@@ -6688,7 +6694,7 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="178" s="2">
+    <row customHeight="1" ht="17.7" r="178" s="2">
       <c r="A178" s="13" t="inlineStr"/>
       <c r="B178" s="16" t="inlineStr"/>
       <c r="C178" s="17" t="inlineStr">
@@ -6720,7 +6726,7 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="179" s="2">
+    <row customHeight="1" ht="17.7" r="179" s="2">
       <c r="A179" s="13" t="inlineStr"/>
       <c r="B179" s="16" t="inlineStr"/>
       <c r="C179" s="17" t="inlineStr"/>
@@ -6756,7 +6762,7 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="180" s="2">
+    <row customHeight="1" ht="17.7" r="180" s="2">
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
@@ -6792,7 +6798,7 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="181" s="2">
+    <row customHeight="1" ht="17.7" r="181" s="2">
       <c r="A181" s="13" t="inlineStr"/>
       <c r="B181" s="16" t="inlineStr"/>
       <c r="C181" s="17" t="inlineStr">
@@ -6820,7 +6826,7 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="182" s="2">
+    <row customHeight="1" ht="17.7" r="182" s="2">
       <c r="A182" s="13" t="inlineStr"/>
       <c r="B182" s="13" t="inlineStr"/>
       <c r="C182" s="15" t="inlineStr"/>
@@ -6860,7 +6866,7 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="183" s="2">
+    <row customHeight="1" ht="17.7" r="183" s="2">
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
@@ -6896,7 +6902,7 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="184" s="2">
+    <row customHeight="1" ht="17.7" r="184" s="2">
       <c r="A184" s="13" t="inlineStr"/>
       <c r="B184" s="16" t="inlineStr"/>
       <c r="C184" s="17" t="inlineStr">
@@ -6928,7 +6934,7 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="185" s="2">
+    <row customHeight="1" ht="17.7" r="185" s="2">
       <c r="A185" s="13" t="inlineStr"/>
       <c r="B185" s="16" t="inlineStr"/>
       <c r="C185" s="17" t="inlineStr"/>
@@ -6968,7 +6974,7 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="186" s="2">
+    <row customHeight="1" ht="17.7" r="186" s="2">
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
@@ -7004,7 +7010,7 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="187" s="2">
+    <row customHeight="1" ht="17.7" r="187" s="2">
       <c r="A187" s="13" t="inlineStr"/>
       <c r="B187" s="16" t="inlineStr"/>
       <c r="C187" s="18" t="inlineStr">
@@ -7036,7 +7042,7 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="188" s="2">
+    <row customHeight="1" ht="17.7" r="188" s="2">
       <c r="A188" s="13" t="inlineStr"/>
       <c r="B188" s="16" t="inlineStr"/>
       <c r="C188" s="18" t="inlineStr"/>
@@ -7072,7 +7078,7 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="189" s="2">
+    <row customHeight="1" ht="17.7" r="189" s="2">
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
@@ -7108,7 +7114,7 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="190" s="2">
+    <row customHeight="1" ht="17.7" r="190" s="2">
       <c r="A190" s="13" t="inlineStr"/>
       <c r="B190" s="16" t="inlineStr"/>
       <c r="C190" s="18" t="inlineStr">
@@ -7136,7 +7142,7 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="191" s="2">
+    <row customHeight="1" ht="17.7" r="191" s="2">
       <c r="A191" s="13" t="inlineStr"/>
       <c r="B191" s="16" t="inlineStr"/>
       <c r="C191" s="17" t="inlineStr">
@@ -7164,7 +7170,7 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="192" s="2">
+    <row customHeight="1" ht="17.7" r="192" s="2">
       <c r="A192" s="13" t="inlineStr"/>
       <c r="B192" s="13" t="inlineStr"/>
       <c r="C192" s="15" t="inlineStr"/>
@@ -7204,7 +7210,7 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="193" s="2">
+    <row customHeight="1" ht="17.7" r="193" s="2">
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
@@ -7240,7 +7246,7 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="194" s="2">
+    <row customHeight="1" ht="17.7" r="194" s="2">
       <c r="A194" s="13" t="inlineStr"/>
       <c r="B194" s="16" t="inlineStr"/>
       <c r="C194" s="17" t="inlineStr">
@@ -7272,7 +7278,7 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="195" s="2">
+    <row customHeight="1" ht="17.7" r="195" s="2">
       <c r="A195" s="13" t="inlineStr"/>
       <c r="B195" s="16" t="inlineStr"/>
       <c r="C195" s="17" t="inlineStr"/>
@@ -7312,7 +7318,7 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="196" s="2">
+    <row customHeight="1" ht="17.7" r="196" s="2">
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
@@ -7348,7 +7354,7 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="197" s="2">
+    <row customHeight="1" ht="17.7" r="197" s="2">
       <c r="A197" s="13" t="inlineStr"/>
       <c r="B197" s="16" t="inlineStr"/>
       <c r="C197" s="18" t="inlineStr">
@@ -7380,7 +7386,7 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="198" s="2">
+    <row customHeight="1" ht="17.7" r="198" s="2">
       <c r="A198" s="13" t="inlineStr"/>
       <c r="B198" s="16" t="inlineStr"/>
       <c r="C198" s="18" t="inlineStr"/>
@@ -7416,7 +7422,7 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="199" s="2">
+    <row customHeight="1" ht="17.7" r="199" s="2">
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
@@ -7452,7 +7458,7 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="200" s="2">
+    <row customHeight="1" ht="17.7" r="200" s="2">
       <c r="A200" s="13" t="inlineStr"/>
       <c r="B200" s="16" t="inlineStr"/>
       <c r="C200" s="18" t="inlineStr">
@@ -7480,7 +7486,7 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="201" s="2">
+    <row customHeight="1" ht="17.7" r="201" s="2">
       <c r="A201" s="13" t="inlineStr"/>
       <c r="B201" s="16" t="inlineStr"/>
       <c r="C201" s="17" t="inlineStr">
@@ -7508,7 +7514,7 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="202" s="2">
+    <row customHeight="1" ht="17.7" r="202" s="2">
       <c r="A202" s="13" t="inlineStr"/>
       <c r="B202" s="13" t="inlineStr"/>
       <c r="C202" s="15" t="inlineStr"/>
@@ -7548,7 +7554,7 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="203" s="2">
+    <row customHeight="1" ht="17.7" r="203" s="2">
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
@@ -7584,7 +7590,7 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="204" s="2">
+    <row customHeight="1" ht="17.7" r="204" s="2">
       <c r="A204" s="13" t="inlineStr"/>
       <c r="B204" s="13" t="inlineStr"/>
       <c r="C204" s="15" t="inlineStr"/>
@@ -7624,7 +7630,7 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="205" s="2">
+    <row customHeight="1" ht="17.7" r="205" s="2">
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
@@ -7660,7 +7666,7 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="206" s="2">
+    <row customHeight="1" ht="17.7" r="206" s="2">
       <c r="A206" s="13" t="inlineStr"/>
       <c r="B206" s="16" t="inlineStr"/>
       <c r="C206" s="17" t="inlineStr">
@@ -7692,7 +7698,7 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="207" s="2">
+    <row customHeight="1" ht="17.7" r="207" s="2">
       <c r="A207" s="13" t="inlineStr"/>
       <c r="B207" s="16" t="inlineStr"/>
       <c r="C207" s="17" t="inlineStr"/>
@@ -7732,7 +7738,7 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="208" s="2">
+    <row customHeight="1" ht="17.7" r="208" s="2">
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
@@ -7768,7 +7774,7 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="209" s="2">
+    <row customHeight="1" ht="17.7" r="209" s="2">
       <c r="A209" s="13" t="inlineStr"/>
       <c r="B209" s="16" t="inlineStr"/>
       <c r="C209" s="18" t="inlineStr">
@@ -7800,7 +7806,7 @@
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="210" s="2">
+    <row customHeight="1" ht="17.7" r="210" s="2">
       <c r="A210" s="13" t="inlineStr"/>
       <c r="B210" s="16" t="inlineStr"/>
       <c r="C210" s="18" t="inlineStr"/>
@@ -7836,7 +7842,7 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="211" s="2">
+    <row customHeight="1" ht="17.7" r="211" s="2">
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
@@ -7872,7 +7878,7 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="212" s="2">
+    <row customHeight="1" ht="17.7" r="212" s="2">
       <c r="A212" s="13" t="inlineStr"/>
       <c r="B212" s="16" t="inlineStr"/>
       <c r="C212" s="18" t="inlineStr">
@@ -7900,7 +7906,7 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="213" s="2">
+    <row customHeight="1" ht="17.7" r="213" s="2">
       <c r="A213" s="13" t="inlineStr"/>
       <c r="B213" s="16" t="inlineStr"/>
       <c r="C213" s="17" t="inlineStr">
@@ -7928,7 +7934,7 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="214" s="2">
+    <row customHeight="1" ht="17.7" r="214" s="2">
       <c r="A214" s="13" t="inlineStr"/>
       <c r="B214" s="13" t="inlineStr"/>
       <c r="C214" s="15" t="inlineStr"/>
@@ -7968,7 +7974,7 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="215" s="2">
+    <row customHeight="1" ht="17.7" r="215" s="2">
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
@@ -8004,7 +8010,7 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="216" s="2">
+    <row customHeight="1" ht="17.7" r="216" s="2">
       <c r="A216" s="13" t="inlineStr"/>
       <c r="B216" s="16" t="inlineStr"/>
       <c r="C216" s="17" t="inlineStr">
@@ -8036,7 +8042,7 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="217" s="2">
+    <row customHeight="1" ht="17.7" r="217" s="2">
       <c r="A217" s="13" t="inlineStr"/>
       <c r="B217" s="16" t="inlineStr"/>
       <c r="C217" s="17" t="inlineStr"/>
@@ -8076,7 +8082,7 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="218" s="2">
+    <row customHeight="1" ht="17.7" r="218" s="2">
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
@@ -8112,7 +8118,7 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="219" s="2">
+    <row customHeight="1" ht="17.7" r="219" s="2">
       <c r="A219" s="13" t="inlineStr"/>
       <c r="B219" s="16" t="inlineStr"/>
       <c r="C219" s="18" t="inlineStr">
@@ -8144,7 +8150,7 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="220" s="2">
+    <row customHeight="1" ht="17.7" r="220" s="2">
       <c r="A220" s="13" t="inlineStr"/>
       <c r="B220" s="16" t="inlineStr"/>
       <c r="C220" s="18" t="inlineStr"/>
@@ -8180,7 +8186,7 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="221" s="2">
+    <row customHeight="1" ht="17.7" r="221" s="2">
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
@@ -8216,7 +8222,7 @@
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="222" s="2">
+    <row customHeight="1" ht="17.7" r="222" s="2">
       <c r="A222" s="13" t="inlineStr"/>
       <c r="B222" s="16" t="inlineStr"/>
       <c r="C222" s="18" t="inlineStr">
@@ -8244,7 +8250,7 @@
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="223" s="2">
+    <row customHeight="1" ht="17.7" r="223" s="2">
       <c r="A223" s="13" t="inlineStr"/>
       <c r="B223" s="16" t="inlineStr"/>
       <c r="C223" s="17" t="inlineStr">
@@ -8272,7 +8278,7 @@
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="224" s="2">
+    <row customHeight="1" ht="17.7" r="224" s="2">
       <c r="A224" s="13" t="inlineStr"/>
       <c r="B224" s="13" t="inlineStr"/>
       <c r="C224" s="15" t="inlineStr">
@@ -8300,7 +8306,7 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="225" s="2">
+    <row customHeight="1" ht="17.7" r="225" s="2">
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr"/>
@@ -8324,7 +8330,7 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="226" s="2">
+    <row customHeight="1" ht="17.7" r="226" s="2">
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
@@ -8348,7 +8354,7 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="227" s="2">
+    <row customHeight="1" ht="17.7" r="227" s="2">
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
@@ -8372,7 +8378,7 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="228" s="2">
+    <row customHeight="1" ht="17.7" r="228" s="2">
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
@@ -8396,7 +8402,7 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="229" s="2">
+    <row customHeight="1" ht="17.7" r="229" s="2">
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr"/>
@@ -8436,7 +8442,7 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="230" s="2">
+    <row customHeight="1" ht="17.7" r="230" s="2">
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
@@ -8472,7 +8478,7 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="231" s="2">
+    <row customHeight="1" ht="17.7" r="231" s="2">
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
@@ -8496,7 +8502,7 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="232" s="2">
+    <row customHeight="1" ht="13.2" r="232" s="2">
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
@@ -8520,7 +8526,7 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="233" s="2">
+    <row customHeight="1" ht="13.2" r="233" s="2">
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
@@ -8552,7 +8558,7 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="234" s="2">
+    <row customHeight="1" ht="13.2" r="234" s="2">
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr"/>
@@ -8576,7 +8582,7 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="235" s="2">
+    <row customHeight="1" ht="17.7" r="235" s="2">
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
@@ -8616,7 +8622,7 @@
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="236" s="2">
+    <row customHeight="1" ht="13.2" r="236" s="2">
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
@@ -8652,7 +8658,7 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="237" s="2">
+    <row customHeight="1" ht="13.2" r="237" s="2">
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
@@ -8676,7 +8682,7 @@
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="238" s="2">
+    <row customHeight="1" ht="17.7" r="238" s="2">
       <c r="A238" s="19" t="inlineStr"/>
       <c r="B238" s="19" t="inlineStr"/>
       <c r="C238" s="19" t="inlineStr">
@@ -8708,7 +8714,7 @@
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="239" s="2">
+    <row customHeight="1" ht="17.7" r="239" s="2">
       <c r="A239" s="19" t="inlineStr"/>
       <c r="B239" s="19" t="inlineStr"/>
       <c r="C239" s="19" t="inlineStr"/>
@@ -8748,7 +8754,7 @@
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="240" s="2">
+    <row customHeight="1" ht="17.7" r="240" s="2">
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
@@ -8784,7 +8790,7 @@
       <c r="U240" t="inlineStr"/>
       <c r="V240" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="241" s="2">
+    <row customHeight="1" ht="17.7" r="241" s="2">
       <c r="A241" s="19" t="inlineStr"/>
       <c r="B241" s="19" t="inlineStr"/>
       <c r="C241" s="20" t="inlineStr">
@@ -8816,7 +8822,7 @@
       <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="242" s="2">
+    <row customHeight="1" ht="17.7" r="242" s="2">
       <c r="A242" s="19" t="inlineStr"/>
       <c r="B242" s="19" t="inlineStr"/>
       <c r="C242" s="20" t="inlineStr"/>
@@ -8852,7 +8858,7 @@
       <c r="U242" t="inlineStr"/>
       <c r="V242" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="243" s="2">
+    <row customHeight="1" ht="17.7" r="243" s="2">
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr"/>
@@ -8888,7 +8894,7 @@
       <c r="U243" t="inlineStr"/>
       <c r="V243" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="244" s="2">
+    <row customHeight="1" ht="17.7" r="244" s="2">
       <c r="A244" s="19" t="inlineStr"/>
       <c r="B244" s="19" t="inlineStr"/>
       <c r="C244" s="20" t="inlineStr">
@@ -8916,7 +8922,7 @@
       <c r="U244" t="inlineStr"/>
       <c r="V244" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="245" s="2">
+    <row customHeight="1" ht="17.7" r="245" s="2">
       <c r="A245" s="19" t="inlineStr"/>
       <c r="B245" s="19" t="inlineStr"/>
       <c r="C245" s="21" t="inlineStr">
@@ -8948,7 +8954,7 @@
       <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="246" s="2">
+    <row customHeight="1" ht="17.7" r="246" s="2">
       <c r="A246" s="19" t="inlineStr"/>
       <c r="B246" s="19" t="inlineStr"/>
       <c r="C246" s="21" t="inlineStr"/>
@@ -8984,7 +8990,7 @@
       <c r="U246" t="inlineStr"/>
       <c r="V246" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="247" s="2">
+    <row customHeight="1" ht="17.7" r="247" s="2">
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr"/>
@@ -9020,7 +9026,7 @@
       <c r="U247" t="inlineStr"/>
       <c r="V247" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="248" s="2">
+    <row customHeight="1" ht="17.7" r="248" s="2">
       <c r="A248" s="19" t="inlineStr"/>
       <c r="B248" s="19" t="inlineStr"/>
       <c r="C248" s="21" t="inlineStr">
@@ -9048,7 +9054,7 @@
       <c r="U248" t="inlineStr"/>
       <c r="V248" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="249" s="2">
+    <row customHeight="1" ht="17.7" r="249" s="2">
       <c r="A249" s="19" t="inlineStr"/>
       <c r="B249" s="19" t="inlineStr"/>
       <c r="C249" s="20" t="inlineStr">
@@ -9080,7 +9086,7 @@
       <c r="U249" t="inlineStr"/>
       <c r="V249" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="250" s="2">
+    <row customHeight="1" ht="17.7" r="250" s="2">
       <c r="A250" s="19" t="inlineStr"/>
       <c r="B250" s="19" t="inlineStr"/>
       <c r="C250" s="20" t="inlineStr"/>
@@ -9116,7 +9122,7 @@
       <c r="U250" t="inlineStr"/>
       <c r="V250" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="251" s="2">
+    <row customHeight="1" ht="17.7" r="251" s="2">
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
@@ -9152,7 +9158,7 @@
       <c r="U251" t="inlineStr"/>
       <c r="V251" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="252" s="2">
+    <row customHeight="1" ht="17.7" r="252" s="2">
       <c r="A252" s="19" t="inlineStr"/>
       <c r="B252" s="19" t="inlineStr"/>
       <c r="C252" s="20" t="inlineStr">
@@ -9180,7 +9186,7 @@
       <c r="U252" t="inlineStr"/>
       <c r="V252" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="253" s="2">
+    <row customHeight="1" ht="17.7" r="253" s="2">
       <c r="A253" s="19" t="inlineStr"/>
       <c r="B253" s="19" t="inlineStr"/>
       <c r="C253" s="21" t="inlineStr">
@@ -9212,7 +9218,7 @@
       <c r="U253" t="inlineStr"/>
       <c r="V253" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="254" s="2">
+    <row customHeight="1" ht="17.7" r="254" s="2">
       <c r="A254" s="19" t="inlineStr"/>
       <c r="B254" s="19" t="inlineStr"/>
       <c r="C254" s="21" t="inlineStr"/>
@@ -9248,7 +9254,7 @@
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="255" s="2">
+    <row customHeight="1" ht="17.7" r="255" s="2">
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr"/>
@@ -9284,7 +9290,7 @@
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="256" s="2">
+    <row customHeight="1" ht="17.7" r="256" s="2">
       <c r="A256" s="19" t="inlineStr"/>
       <c r="B256" s="19" t="inlineStr"/>
       <c r="C256" s="21" t="inlineStr">
@@ -9312,7 +9318,7 @@
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="257" s="2">
+    <row customHeight="1" ht="17.7" r="257" s="2">
       <c r="A257" s="19" t="inlineStr"/>
       <c r="B257" s="19" t="inlineStr"/>
       <c r="C257" s="19" t="inlineStr"/>
@@ -9352,7 +9358,7 @@
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="258" s="2">
+    <row customHeight="1" ht="17.7" r="258" s="2">
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr"/>
@@ -9388,7 +9394,7 @@
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="259" s="2">
+    <row customHeight="1" ht="17.7" r="259" s="2">
       <c r="A259" s="19" t="inlineStr"/>
       <c r="B259" s="19" t="inlineStr"/>
       <c r="C259" s="19" t="inlineStr"/>
@@ -9424,7 +9430,7 @@
       <c r="U259" t="inlineStr"/>
       <c r="V259" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="260" s="2">
+    <row customHeight="1" ht="17.7" r="260" s="2">
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr"/>
@@ -9460,7 +9466,7 @@
       <c r="U260" t="inlineStr"/>
       <c r="V260" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="261" s="2">
+    <row customHeight="1" ht="17.7" r="261" s="2">
       <c r="A261" s="19" t="inlineStr"/>
       <c r="B261" s="19" t="inlineStr"/>
       <c r="C261" s="19" t="inlineStr"/>
@@ -9500,7 +9506,7 @@
       <c r="U261" t="inlineStr"/>
       <c r="V261" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="262" s="2">
+    <row customHeight="1" ht="17.7" r="262" s="2">
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
@@ -9536,7 +9542,7 @@
       <c r="U262" t="inlineStr"/>
       <c r="V262" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="263" s="2">
+    <row customHeight="1" ht="17.7" r="263" s="2">
       <c r="A263" s="19" t="inlineStr"/>
       <c r="B263" s="19" t="inlineStr"/>
       <c r="C263" s="19" t="inlineStr"/>
@@ -9576,7 +9582,7 @@
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="264" s="2">
+    <row customHeight="1" ht="17.7" r="264" s="2">
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr"/>
@@ -9612,7 +9618,7 @@
       <c r="U264" t="inlineStr"/>
       <c r="V264" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="265" s="2">
+    <row customHeight="1" ht="17.7" r="265" s="2">
       <c r="A265" s="19" t="inlineStr"/>
       <c r="B265" s="19" t="inlineStr"/>
       <c r="C265" s="20" t="inlineStr">
@@ -9644,7 +9650,7 @@
       <c r="U265" t="inlineStr"/>
       <c r="V265" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="266" s="2">
+    <row customHeight="1" ht="17.7" r="266" s="2">
       <c r="A266" s="19" t="inlineStr"/>
       <c r="B266" s="19" t="inlineStr"/>
       <c r="C266" s="20" t="inlineStr"/>
@@ -9684,7 +9690,7 @@
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="267" s="2">
+    <row customHeight="1" ht="17.7" r="267" s="2">
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
@@ -9720,7 +9726,7 @@
       <c r="U267" t="inlineStr"/>
       <c r="V267" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="268" s="2">
+    <row customHeight="1" ht="17.7" r="268" s="2">
       <c r="A268" s="19" t="inlineStr"/>
       <c r="B268" s="19" t="inlineStr"/>
       <c r="C268" s="20" t="inlineStr">
@@ -9748,7 +9754,7 @@
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="269" s="2">
+    <row customHeight="1" ht="17.7" r="269" s="2">
       <c r="A269" s="19" t="inlineStr"/>
       <c r="B269" s="19" t="inlineStr"/>
       <c r="C269" s="19" t="inlineStr"/>
@@ -9772,7 +9778,7 @@
       <c r="U269" t="inlineStr"/>
       <c r="V269" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="270" s="2">
+    <row customHeight="1" ht="17.7" r="270" s="2">
       <c r="A270" s="19" t="inlineStr"/>
       <c r="B270" s="19" t="inlineStr"/>
       <c r="C270" s="19" t="inlineStr"/>
@@ -9812,7 +9818,7 @@
       <c r="U270" t="inlineStr"/>
       <c r="V270" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="271" s="2">
+    <row customHeight="1" ht="17.7" r="271" s="2">
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
@@ -9848,7 +9854,7 @@
       <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="272" s="2">
+    <row customHeight="1" ht="17.7" r="272" s="2">
       <c r="A272" s="19" t="inlineStr"/>
       <c r="B272" s="19" t="inlineStr"/>
       <c r="C272" s="21" t="inlineStr">
@@ -9880,7 +9886,7 @@
       <c r="U272" t="inlineStr"/>
       <c r="V272" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.65" r="273" s="2">
+    <row customHeight="1" ht="17.7" r="273" s="2">
       <c r="A273" s="19" t="inlineStr"/>
       <c r="B273" s="19" t="inlineStr"/>
       <c r="C273" s="21" t="inlineStr"/>
@@ -12592,7 +12598,7 @@
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="351" s="2">
+    <row customHeight="1" ht="13.2" r="351" s="2">
       <c r="A351" s="22" t="inlineStr"/>
       <c r="B351" s="17" t="inlineStr"/>
       <c r="C351" s="18" t="inlineStr">
@@ -12624,7 +12630,7 @@
       <c r="U351" t="inlineStr"/>
       <c r="V351" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="352" s="2">
+    <row customHeight="1" ht="13.2" r="352" s="2">
       <c r="A352" s="22" t="inlineStr"/>
       <c r="B352" s="17" t="inlineStr"/>
       <c r="C352" s="18" t="inlineStr"/>
@@ -12660,7 +12666,7 @@
       <c r="U352" t="inlineStr"/>
       <c r="V352" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="353" s="2">
+    <row customHeight="1" ht="13.2" r="353" s="2">
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
@@ -12696,7 +12702,7 @@
       <c r="U353" t="inlineStr"/>
       <c r="V353" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="354" s="2">
+    <row customHeight="1" ht="13.2" r="354" s="2">
       <c r="A354" s="22" t="inlineStr"/>
       <c r="B354" s="17" t="inlineStr"/>
       <c r="C354" s="18" t="inlineStr">
@@ -12724,7 +12730,7 @@
       <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="355" s="2">
+    <row customHeight="1" ht="13.2" r="355" s="2">
       <c r="A355" s="22" t="inlineStr"/>
       <c r="B355" s="17" t="inlineStr"/>
       <c r="C355" s="22" t="inlineStr">
@@ -12828,7 +12834,7 @@
       <c r="U357" t="inlineStr"/>
       <c r="V357" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="358" s="2">
+    <row customHeight="1" ht="13.2" r="358" s="2">
       <c r="A358" s="22" t="inlineStr"/>
       <c r="B358" s="17" t="inlineStr"/>
       <c r="C358" s="22" t="inlineStr">
@@ -13444,7 +13450,7 @@
       <c r="U375" t="inlineStr"/>
       <c r="V375" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="376" s="2">
+    <row customHeight="1" ht="13.2" r="376" s="2">
       <c r="A376" s="22" t="inlineStr"/>
       <c r="B376" s="17" t="inlineStr"/>
       <c r="C376" s="17" t="inlineStr"/>
@@ -13848,7 +13854,7 @@
       <c r="U386" t="inlineStr"/>
       <c r="V386" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="387" s="2">
+    <row customHeight="1" ht="13.2" r="387" s="2">
       <c r="A387" s="22" t="inlineStr"/>
       <c r="B387" s="17" t="inlineStr"/>
       <c r="C387" s="22" t="inlineStr"/>
@@ -14048,7 +14054,7 @@
       <c r="U392" t="inlineStr"/>
       <c r="V392" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="393" s="2">
+    <row customHeight="1" ht="13.2" r="393" s="2">
       <c r="A393" s="22" t="inlineStr"/>
       <c r="B393" s="17" t="inlineStr"/>
       <c r="C393" s="18" t="inlineStr">
@@ -14304,7 +14310,7 @@
       <c r="U399" t="inlineStr"/>
       <c r="V399" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="400" s="2">
+    <row customHeight="1" ht="13.2" r="400" s="2">
       <c r="A400" s="22" t="inlineStr"/>
       <c r="B400" s="17" t="inlineStr"/>
       <c r="C400" s="25" t="inlineStr"/>
@@ -14340,7 +14346,7 @@
       <c r="U400" t="inlineStr"/>
       <c r="V400" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="401" s="2">
+    <row customHeight="1" ht="13.2" r="401" s="2">
       <c r="A401" t="inlineStr"/>
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr"/>
@@ -14512,7 +14518,7 @@
       <c r="U405" t="inlineStr"/>
       <c r="V405" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="406" s="2">
+    <row customHeight="1" ht="13.2" r="406" s="2">
       <c r="A406" s="22" t="inlineStr"/>
       <c r="B406" s="17" t="inlineStr"/>
       <c r="C406" s="18" t="inlineStr"/>
@@ -14780,7 +14786,7 @@
       <c r="U412" t="inlineStr"/>
       <c r="V412" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="413" s="2">
+    <row customHeight="1" ht="13.2" r="413" s="2">
       <c r="A413" t="inlineStr"/>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr"/>
@@ -14816,7 +14822,7 @@
       <c r="U413" t="inlineStr"/>
       <c r="V413" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="414" s="2">
+    <row customHeight="1" ht="13.2" r="414" s="2">
       <c r="A414" s="22" t="inlineStr"/>
       <c r="B414" s="17" t="inlineStr"/>
       <c r="C414" s="18" t="inlineStr"/>
@@ -14984,7 +14990,7 @@
       <c r="U418" t="inlineStr"/>
       <c r="V418" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="419" s="2">
+    <row customHeight="1" ht="13.2" r="419" s="2">
       <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
@@ -15020,7 +15026,7 @@
       <c r="U419" t="inlineStr"/>
       <c r="V419" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="420" s="2">
+    <row customHeight="1" ht="13.2" r="420" s="2">
       <c r="A420" s="22" t="inlineStr"/>
       <c r="B420" s="17" t="inlineStr"/>
       <c r="C420" s="25" t="inlineStr">
@@ -15060,7 +15066,7 @@
       <c r="U420" t="inlineStr"/>
       <c r="V420" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="421" s="2">
+    <row customHeight="1" ht="13.2" r="421" s="2">
       <c r="A421" s="22" t="inlineStr"/>
       <c r="B421" s="17" t="inlineStr"/>
       <c r="C421" s="25" t="inlineStr"/>
@@ -15172,7 +15178,7 @@
       <c r="U423" t="inlineStr"/>
       <c r="V423" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="424" s="2">
+    <row customHeight="1" ht="13.2" r="424" s="2">
       <c r="A424" t="inlineStr"/>
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr"/>
@@ -15560,7 +15566,7 @@
       <c r="U434" t="inlineStr"/>
       <c r="V434" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="435" s="2">
+    <row customHeight="1" ht="13.2" r="435" s="2">
       <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr"/>
@@ -15596,7 +15602,7 @@
       <c r="U435" t="inlineStr"/>
       <c r="V435" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="436" s="2">
+    <row customHeight="1" ht="13.2" r="436" s="2">
       <c r="A436" s="22" t="inlineStr"/>
       <c r="B436" s="17" t="inlineStr"/>
       <c r="C436" s="18" t="inlineStr">
@@ -15628,7 +15634,7 @@
       <c r="U436" t="inlineStr"/>
       <c r="V436" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="437" s="2">
+    <row customHeight="1" ht="13.2" r="437" s="2">
       <c r="A437" s="22" t="inlineStr"/>
       <c r="B437" s="17" t="inlineStr"/>
       <c r="C437" s="18" t="inlineStr"/>
@@ -16264,7 +16270,7 @@
       <c r="U455" t="inlineStr"/>
       <c r="V455" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="456" s="2">
+    <row customHeight="1" ht="13.2" r="456" s="2">
       <c r="A456" s="22" t="inlineStr"/>
       <c r="B456" s="17" t="inlineStr"/>
       <c r="C456" s="17" t="inlineStr">
@@ -16292,7 +16298,7 @@
       <c r="U456" t="inlineStr"/>
       <c r="V456" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="457" s="2">
+    <row customHeight="1" ht="13.2" r="457" s="2">
       <c r="A457" s="22" t="inlineStr"/>
       <c r="B457" s="17" t="inlineStr"/>
       <c r="C457" s="18" t="inlineStr">
@@ -16400,7 +16406,7 @@
       <c r="U459" t="inlineStr"/>
       <c r="V459" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="460" s="2">
+    <row customHeight="1" ht="13.2" r="460" s="2">
       <c r="A460" s="22" t="inlineStr"/>
       <c r="B460" s="17" t="inlineStr"/>
       <c r="C460" s="18" t="inlineStr">
@@ -16900,7 +16906,7 @@
       <c r="U474" t="inlineStr"/>
       <c r="V474" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="475" s="2">
+    <row customHeight="1" ht="13.2" r="475" s="2">
       <c r="A475" s="22" t="inlineStr"/>
       <c r="B475" s="17" t="inlineStr"/>
       <c r="C475" s="18" t="inlineStr">
@@ -23906,22 +23912,10 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>log_0</t>
-        </is>
-      </c>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr"/>
-      <c r="I682" t="inlineStr">
-        <is>
-          <t>data('log').substring(0,60000) == '' ? ' ' : data('log').substring(0,60000)</t>
-        </is>
-      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr"/>
@@ -23942,22 +23936,10 @@
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>log_1</t>
-        </is>
-      </c>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr"/>
-      <c r="I683" t="inlineStr">
-        <is>
-          <t>data('log').substring(60000,120000) == '' ? ' ' : data('log').substring(60000,120000)</t>
-        </is>
-      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr"/>
@@ -23978,22 +23960,10 @@
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>log_2</t>
-        </is>
-      </c>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr"/>
-      <c r="I684" t="inlineStr">
-        <is>
-          <t>data('log').substring(120000,180000) == '' ? ' ' : data('log').substring(120000,180000)</t>
-        </is>
-      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr"/>
@@ -24014,22 +23984,10 @@
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>log_3</t>
-        </is>
-      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr"/>
-      <c r="I685" t="inlineStr">
-        <is>
-          <t>data('log').substring(180000,240000) == '' ? ' ' : data('log').substring(180000,240000)</t>
-        </is>
-      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr"/>
@@ -24047,25 +24005,19 @@
     <row r="686">
       <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr"/>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>0</v>
+      </c>
       <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>log_4</t>
-        </is>
-      </c>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr"/>
-      <c r="I686" t="inlineStr">
-        <is>
-          <t>data('log').substring(240000,300000) == '' ? ' ' : data('log').substring(240000,300000)</t>
-        </is>
-      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr"/>
@@ -24088,20 +24040,16 @@
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>log_5</t>
+          <t>extra_question1</t>
         </is>
       </c>
       <c r="H687" t="inlineStr"/>
-      <c r="I687" t="inlineStr">
-        <is>
-          <t>data('log').substring(300000,360000) == '' ? ' ' : data('log').substring(300000,360000)</t>
-        </is>
-      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr"/>
@@ -24129,13 +24077,13 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>log_6</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>data('log').substring(360000,420000) == '' ? ' ' : data('log').substring(360000,420000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question1',data('extra_question1')]]))</t>
         </is>
       </c>
       <c r="J688" t="inlineStr"/>
@@ -24160,20 +24108,16 @@
       <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>log_7</t>
+          <t>extra_question2</t>
         </is>
       </c>
       <c r="H689" t="inlineStr"/>
-      <c r="I689" t="inlineStr">
-        <is>
-          <t>data('log').substring(420000,480000) == '' ? ' ' : data('log').substring(420000,480000)</t>
-        </is>
-      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr"/>
@@ -24201,13 +24145,13 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>log_8</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>data('log').substring(480000,540000) == '' ? ' ' : data('log').substring(480000,540000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question2',data('extra_question2')]]))</t>
         </is>
       </c>
       <c r="J690" t="inlineStr"/>
@@ -24232,20 +24176,16 @@
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>log_9</t>
+          <t>extra_question3</t>
         </is>
       </c>
       <c r="H691" t="inlineStr"/>
-      <c r="I691" t="inlineStr">
-        <is>
-          <t>data('log').substring(540000,600000) == '' ? ' ' : data('log').substring(540000,600000)</t>
-        </is>
-      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr"/>
@@ -24273,13 +24213,13 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>log_10</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>data('log').substring(600000,660000) == '' ? ' ' : data('log').substring(600000,660000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question3',data('extra_question3')]]))</t>
         </is>
       </c>
       <c r="J692" t="inlineStr"/>
@@ -24304,20 +24244,16 @@
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>log_11</t>
+          <t>extra_question4</t>
         </is>
       </c>
       <c r="H693" t="inlineStr"/>
-      <c r="I693" t="inlineStr">
-        <is>
-          <t>data('log').substring(660000,720000) == '' ? ' ' : data('log').substring(660000,720000)</t>
-        </is>
-      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr"/>
@@ -24345,13 +24281,13 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>log_12</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H694" t="inlineStr"/>
       <c r="I694" t="inlineStr">
         <is>
-          <t>data('log').substring(720000,780000) == '' ? ' ' : data('log').substring(720000,780000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question4',data('extra_question4')]]))</t>
         </is>
       </c>
       <c r="J694" t="inlineStr"/>
@@ -24376,20 +24312,16 @@
       <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>log_13</t>
+          <t>extra_question5</t>
         </is>
       </c>
       <c r="H695" t="inlineStr"/>
-      <c r="I695" t="inlineStr">
-        <is>
-          <t>data('log').substring(780000,840000) == '' ? ' ' : data('log').substring(780000,840000)</t>
-        </is>
-      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr"/>
@@ -24417,13 +24349,13 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>log_14</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>data('log').substring(840000,900000) == '' ? ' ' : data('log').substring(840000,900000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question5',data('extra_question5')]]))</t>
         </is>
       </c>
       <c r="J696" t="inlineStr"/>
@@ -24448,20 +24380,16 @@
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>log_15</t>
+          <t>extra_question6</t>
         </is>
       </c>
       <c r="H697" t="inlineStr"/>
-      <c r="I697" t="inlineStr">
-        <is>
-          <t>data('log').substring(900000,960000) == '' ? ' ' : data('log').substring(900000,960000)</t>
-        </is>
-      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr"/>
@@ -24489,13 +24417,13 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>log_16</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>data('log').substring(960000,1020000) == '' ? ' ' : data('log').substring(960000,1020000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question6',data('extra_question6')]]))</t>
         </is>
       </c>
       <c r="J698" t="inlineStr"/>
@@ -24520,20 +24448,16 @@
       <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>log_17</t>
+          <t>extra_question7</t>
         </is>
       </c>
       <c r="H699" t="inlineStr"/>
-      <c r="I699" t="inlineStr">
-        <is>
-          <t>data('log').substring(1020000,1080000) == '' ? ' ' : data('log').substring(1020000,1080000)</t>
-        </is>
-      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr"/>
@@ -24561,13 +24485,13 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>log_18</t>
+          <t>log</t>
         </is>
       </c>
       <c r="H700" t="inlineStr"/>
       <c r="I700" t="inlineStr">
         <is>
-          <t>data('log').substring(1080000,1140000) == '' ? ' ' : data('log').substring(1080000,1140000)</t>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question7',data('extra_question7')]]))</t>
         </is>
       </c>
       <c r="J700" t="inlineStr"/>
@@ -24592,20 +24516,16 @@
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr">
         <is>
-          <t>assign</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>log_19</t>
+          <t>extra_question8</t>
         </is>
       </c>
       <c r="H701" t="inlineStr"/>
-      <c r="I701" t="inlineStr">
-        <is>
-          <t>data('log').substring(1140000,1200000) == '' ? ' ' : data('log').substring(1140000,1200000)</t>
-        </is>
-      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr"/>
@@ -24620,34 +24540,1606 @@
       <c r="U701" t="inlineStr"/>
       <c r="V701" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="12.75" r="1048549" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048550" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048551" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048552" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048553" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048554" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048555" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048556" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048557" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048558" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048559" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048560" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048561" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048562" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048563" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048564" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048565" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048566" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048567" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048568" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048569" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048570" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048571" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048572" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048573" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048574" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048575" s="2"/>
-    <row customHeight="1" ht="12.75" r="1048576" s="2"/>
+    <row r="702">
+      <c r="A702" t="inlineStr"/>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question8',data('extra_question8')]]))</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr"/>
+      <c r="N702" t="inlineStr"/>
+      <c r="O702" t="inlineStr"/>
+      <c r="P702" t="inlineStr"/>
+      <c r="Q702" t="inlineStr"/>
+      <c r="R702" t="inlineStr"/>
+      <c r="S702" t="inlineStr"/>
+      <c r="T702" t="inlineStr"/>
+      <c r="U702" t="inlineStr"/>
+      <c r="V702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr"/>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>extra_question9</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+      <c r="M703" t="inlineStr"/>
+      <c r="N703" t="inlineStr"/>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="inlineStr"/>
+      <c r="Q703" t="inlineStr"/>
+      <c r="R703" t="inlineStr"/>
+      <c r="S703" t="inlineStr"/>
+      <c r="T703" t="inlineStr"/>
+      <c r="U703" t="inlineStr"/>
+      <c r="V703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr"/>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question9',data('extra_question9')]]))</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr"/>
+      <c r="N704" t="inlineStr"/>
+      <c r="O704" t="inlineStr"/>
+      <c r="P704" t="inlineStr"/>
+      <c r="Q704" t="inlineStr"/>
+      <c r="R704" t="inlineStr"/>
+      <c r="S704" t="inlineStr"/>
+      <c r="T704" t="inlineStr"/>
+      <c r="U704" t="inlineStr"/>
+      <c r="V704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>extra_question10</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr"/>
+      <c r="N705" t="inlineStr"/>
+      <c r="O705" t="inlineStr"/>
+      <c r="P705" t="inlineStr"/>
+      <c r="Q705" t="inlineStr"/>
+      <c r="R705" t="inlineStr"/>
+      <c r="S705" t="inlineStr"/>
+      <c r="T705" t="inlineStr"/>
+      <c r="U705" t="inlineStr"/>
+      <c r="V705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question10',data('extra_question10')]]))</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
+      <c r="N706" t="inlineStr"/>
+      <c r="O706" t="inlineStr"/>
+      <c r="P706" t="inlineStr"/>
+      <c r="Q706" t="inlineStr"/>
+      <c r="R706" t="inlineStr"/>
+      <c r="S706" t="inlineStr"/>
+      <c r="T706" t="inlineStr"/>
+      <c r="U706" t="inlineStr"/>
+      <c r="V706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>extra_question11</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr"/>
+      <c r="N707" t="inlineStr"/>
+      <c r="O707" t="inlineStr"/>
+      <c r="P707" t="inlineStr"/>
+      <c r="Q707" t="inlineStr"/>
+      <c r="R707" t="inlineStr"/>
+      <c r="S707" t="inlineStr"/>
+      <c r="T707" t="inlineStr"/>
+      <c r="U707" t="inlineStr"/>
+      <c r="V707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr"/>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question11',data('extra_question11')]]))</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
+      <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="inlineStr"/>
+      <c r="S708" t="inlineStr"/>
+      <c r="T708" t="inlineStr"/>
+      <c r="U708" t="inlineStr"/>
+      <c r="V708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr"/>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>extra_question12</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr"/>
+      <c r="N709" t="inlineStr"/>
+      <c r="O709" t="inlineStr"/>
+      <c r="P709" t="inlineStr"/>
+      <c r="Q709" t="inlineStr"/>
+      <c r="R709" t="inlineStr"/>
+      <c r="S709" t="inlineStr"/>
+      <c r="T709" t="inlineStr"/>
+      <c r="U709" t="inlineStr"/>
+      <c r="V709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question12',data('extra_question12')]]))</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
+      <c r="N710" t="inlineStr"/>
+      <c r="O710" t="inlineStr"/>
+      <c r="P710" t="inlineStr"/>
+      <c r="Q710" t="inlineStr"/>
+      <c r="R710" t="inlineStr"/>
+      <c r="S710" t="inlineStr"/>
+      <c r="T710" t="inlineStr"/>
+      <c r="U710" t="inlineStr"/>
+      <c r="V710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>extra_question13</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr"/>
+      <c r="N711" t="inlineStr"/>
+      <c r="O711" t="inlineStr"/>
+      <c r="P711" t="inlineStr"/>
+      <c r="Q711" t="inlineStr"/>
+      <c r="R711" t="inlineStr"/>
+      <c r="S711" t="inlineStr"/>
+      <c r="T711" t="inlineStr"/>
+      <c r="U711" t="inlineStr"/>
+      <c r="V711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question13',data('extra_question13')]]))</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
+      <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr"/>
+      <c r="P712" t="inlineStr"/>
+      <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="inlineStr"/>
+      <c r="S712" t="inlineStr"/>
+      <c r="T712" t="inlineStr"/>
+      <c r="U712" t="inlineStr"/>
+      <c r="V712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>extra_question14</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr"/>
+      <c r="N713" t="inlineStr"/>
+      <c r="O713" t="inlineStr"/>
+      <c r="P713" t="inlineStr"/>
+      <c r="Q713" t="inlineStr"/>
+      <c r="R713" t="inlineStr"/>
+      <c r="S713" t="inlineStr"/>
+      <c r="T713" t="inlineStr"/>
+      <c r="U713" t="inlineStr"/>
+      <c r="V713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question14',data('extra_question14')]]))</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
+      <c r="N714" t="inlineStr"/>
+      <c r="O714" t="inlineStr"/>
+      <c r="P714" t="inlineStr"/>
+      <c r="Q714" t="inlineStr"/>
+      <c r="R714" t="inlineStr"/>
+      <c r="S714" t="inlineStr"/>
+      <c r="T714" t="inlineStr"/>
+      <c r="U714" t="inlineStr"/>
+      <c r="V714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="inlineStr"/>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>extra_question15</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+      <c r="M715" t="inlineStr"/>
+      <c r="N715" t="inlineStr"/>
+      <c r="O715" t="inlineStr"/>
+      <c r="P715" t="inlineStr"/>
+      <c r="Q715" t="inlineStr"/>
+      <c r="R715" t="inlineStr"/>
+      <c r="S715" t="inlineStr"/>
+      <c r="T715" t="inlineStr"/>
+      <c r="U715" t="inlineStr"/>
+      <c r="V715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question15',data('extra_question15')]]))</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
+      <c r="N716" t="inlineStr"/>
+      <c r="O716" t="inlineStr"/>
+      <c r="P716" t="inlineStr"/>
+      <c r="Q716" t="inlineStr"/>
+      <c r="R716" t="inlineStr"/>
+      <c r="S716" t="inlineStr"/>
+      <c r="T716" t="inlineStr"/>
+      <c r="U716" t="inlineStr"/>
+      <c r="V716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>extra_question16</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
+      <c r="N717" t="inlineStr"/>
+      <c r="O717" t="inlineStr"/>
+      <c r="P717" t="inlineStr"/>
+      <c r="Q717" t="inlineStr"/>
+      <c r="R717" t="inlineStr"/>
+      <c r="S717" t="inlineStr"/>
+      <c r="T717" t="inlineStr"/>
+      <c r="U717" t="inlineStr"/>
+      <c r="V717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr"/>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question16',data('extra_question16')]]))</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+      <c r="M718" t="inlineStr"/>
+      <c r="N718" t="inlineStr"/>
+      <c r="O718" t="inlineStr"/>
+      <c r="P718" t="inlineStr"/>
+      <c r="Q718" t="inlineStr"/>
+      <c r="R718" t="inlineStr"/>
+      <c r="S718" t="inlineStr"/>
+      <c r="T718" t="inlineStr"/>
+      <c r="U718" t="inlineStr"/>
+      <c r="V718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>extra_question17</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+      <c r="M719" t="inlineStr"/>
+      <c r="N719" t="inlineStr"/>
+      <c r="O719" t="inlineStr"/>
+      <c r="P719" t="inlineStr"/>
+      <c r="Q719" t="inlineStr"/>
+      <c r="R719" t="inlineStr"/>
+      <c r="S719" t="inlineStr"/>
+      <c r="T719" t="inlineStr"/>
+      <c r="U719" t="inlineStr"/>
+      <c r="V719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question17',data('extra_question17')]]))</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr"/>
+      <c r="N720" t="inlineStr"/>
+      <c r="O720" t="inlineStr"/>
+      <c r="P720" t="inlineStr"/>
+      <c r="Q720" t="inlineStr"/>
+      <c r="R720" t="inlineStr"/>
+      <c r="S720" t="inlineStr"/>
+      <c r="T720" t="inlineStr"/>
+      <c r="U720" t="inlineStr"/>
+      <c r="V720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>extra_question18</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr"/>
+      <c r="N721" t="inlineStr"/>
+      <c r="O721" t="inlineStr"/>
+      <c r="P721" t="inlineStr"/>
+      <c r="Q721" t="inlineStr"/>
+      <c r="R721" t="inlineStr"/>
+      <c r="S721" t="inlineStr"/>
+      <c r="T721" t="inlineStr"/>
+      <c r="U721" t="inlineStr"/>
+      <c r="V721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="inlineStr"/>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question18',data('extra_question18')]]))</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
+      <c r="N722" t="inlineStr"/>
+      <c r="O722" t="inlineStr"/>
+      <c r="P722" t="inlineStr"/>
+      <c r="Q722" t="inlineStr"/>
+      <c r="R722" t="inlineStr"/>
+      <c r="S722" t="inlineStr"/>
+      <c r="T722" t="inlineStr"/>
+      <c r="U722" t="inlineStr"/>
+      <c r="V722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr"/>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>extra_question19</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
+      <c r="N723" t="inlineStr"/>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="inlineStr"/>
+      <c r="Q723" t="inlineStr"/>
+      <c r="R723" t="inlineStr"/>
+      <c r="S723" t="inlineStr"/>
+      <c r="T723" t="inlineStr"/>
+      <c r="U723" t="inlineStr"/>
+      <c r="V723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question19',data('extra_question19')]]))</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr"/>
+      <c r="N724" t="inlineStr"/>
+      <c r="O724" t="inlineStr"/>
+      <c r="P724" t="inlineStr"/>
+      <c r="Q724" t="inlineStr"/>
+      <c r="R724" t="inlineStr"/>
+      <c r="S724" t="inlineStr"/>
+      <c r="T724" t="inlineStr"/>
+      <c r="U724" t="inlineStr"/>
+      <c r="V724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>extra_question20</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
+      <c r="N725" t="inlineStr"/>
+      <c r="O725" t="inlineStr"/>
+      <c r="P725" t="inlineStr"/>
+      <c r="Q725" t="inlineStr"/>
+      <c r="R725" t="inlineStr"/>
+      <c r="S725" t="inlineStr"/>
+      <c r="T725" t="inlineStr"/>
+      <c r="U725" t="inlineStr"/>
+      <c r="V725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>JSON.stringify(((data('log')==null)?[]:JSON.parse(data('log'))).concat([[now().toUTCString(),'extra_question20',data('extra_question20')]]))</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
+      <c r="N726" t="inlineStr"/>
+      <c r="O726" t="inlineStr"/>
+      <c r="P726" t="inlineStr"/>
+      <c r="Q726" t="inlineStr"/>
+      <c r="R726" t="inlineStr"/>
+      <c r="S726" t="inlineStr"/>
+      <c r="T726" t="inlineStr"/>
+      <c r="U726" t="inlineStr"/>
+      <c r="V726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>end if</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
+      <c r="N727" t="inlineStr"/>
+      <c r="O727" t="inlineStr"/>
+      <c r="P727" t="inlineStr"/>
+      <c r="Q727" t="inlineStr"/>
+      <c r="R727" t="inlineStr"/>
+      <c r="S727" t="inlineStr"/>
+      <c r="T727" t="inlineStr"/>
+      <c r="U727" t="inlineStr"/>
+      <c r="V727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>log_0</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>data('log').substring(0,60000) == '' ? ' ' : data('log').substring(0,60000)</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
+      <c r="N728" t="inlineStr"/>
+      <c r="O728" t="inlineStr"/>
+      <c r="P728" t="inlineStr"/>
+      <c r="Q728" t="inlineStr"/>
+      <c r="R728" t="inlineStr"/>
+      <c r="S728" t="inlineStr"/>
+      <c r="T728" t="inlineStr"/>
+      <c r="U728" t="inlineStr"/>
+      <c r="V728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>log_1</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>data('log').substring(60000,120000) == '' ? ' ' : data('log').substring(60000,120000)</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
+      <c r="N729" t="inlineStr"/>
+      <c r="O729" t="inlineStr"/>
+      <c r="P729" t="inlineStr"/>
+      <c r="Q729" t="inlineStr"/>
+      <c r="R729" t="inlineStr"/>
+      <c r="S729" t="inlineStr"/>
+      <c r="T729" t="inlineStr"/>
+      <c r="U729" t="inlineStr"/>
+      <c r="V729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>log_2</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>data('log').substring(120000,180000) == '' ? ' ' : data('log').substring(120000,180000)</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
+      <c r="N730" t="inlineStr"/>
+      <c r="O730" t="inlineStr"/>
+      <c r="P730" t="inlineStr"/>
+      <c r="Q730" t="inlineStr"/>
+      <c r="R730" t="inlineStr"/>
+      <c r="S730" t="inlineStr"/>
+      <c r="T730" t="inlineStr"/>
+      <c r="U730" t="inlineStr"/>
+      <c r="V730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>log_3</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>data('log').substring(180000,240000) == '' ? ' ' : data('log').substring(180000,240000)</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
+      <c r="N731" t="inlineStr"/>
+      <c r="O731" t="inlineStr"/>
+      <c r="P731" t="inlineStr"/>
+      <c r="Q731" t="inlineStr"/>
+      <c r="R731" t="inlineStr"/>
+      <c r="S731" t="inlineStr"/>
+      <c r="T731" t="inlineStr"/>
+      <c r="U731" t="inlineStr"/>
+      <c r="V731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>log_4</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>data('log').substring(240000,300000) == '' ? ' ' : data('log').substring(240000,300000)</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr"/>
+      <c r="N732" t="inlineStr"/>
+      <c r="O732" t="inlineStr"/>
+      <c r="P732" t="inlineStr"/>
+      <c r="Q732" t="inlineStr"/>
+      <c r="R732" t="inlineStr"/>
+      <c r="S732" t="inlineStr"/>
+      <c r="T732" t="inlineStr"/>
+      <c r="U732" t="inlineStr"/>
+      <c r="V732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>log_5</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>data('log').substring(300000,360000) == '' ? ' ' : data('log').substring(300000,360000)</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr"/>
+      <c r="N733" t="inlineStr"/>
+      <c r="O733" t="inlineStr"/>
+      <c r="P733" t="inlineStr"/>
+      <c r="Q733" t="inlineStr"/>
+      <c r="R733" t="inlineStr"/>
+      <c r="S733" t="inlineStr"/>
+      <c r="T733" t="inlineStr"/>
+      <c r="U733" t="inlineStr"/>
+      <c r="V733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>log_6</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>data('log').substring(360000,420000) == '' ? ' ' : data('log').substring(360000,420000)</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
+      <c r="N734" t="inlineStr"/>
+      <c r="O734" t="inlineStr"/>
+      <c r="P734" t="inlineStr"/>
+      <c r="Q734" t="inlineStr"/>
+      <c r="R734" t="inlineStr"/>
+      <c r="S734" t="inlineStr"/>
+      <c r="T734" t="inlineStr"/>
+      <c r="U734" t="inlineStr"/>
+      <c r="V734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr"/>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>log_7</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>data('log').substring(420000,480000) == '' ? ' ' : data('log').substring(420000,480000)</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="inlineStr"/>
+      <c r="M735" t="inlineStr"/>
+      <c r="N735" t="inlineStr"/>
+      <c r="O735" t="inlineStr"/>
+      <c r="P735" t="inlineStr"/>
+      <c r="Q735" t="inlineStr"/>
+      <c r="R735" t="inlineStr"/>
+      <c r="S735" t="inlineStr"/>
+      <c r="T735" t="inlineStr"/>
+      <c r="U735" t="inlineStr"/>
+      <c r="V735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>log_8</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>data('log').substring(480000,540000) == '' ? ' ' : data('log').substring(480000,540000)</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
+      <c r="M736" t="inlineStr"/>
+      <c r="N736" t="inlineStr"/>
+      <c r="O736" t="inlineStr"/>
+      <c r="P736" t="inlineStr"/>
+      <c r="Q736" t="inlineStr"/>
+      <c r="R736" t="inlineStr"/>
+      <c r="S736" t="inlineStr"/>
+      <c r="T736" t="inlineStr"/>
+      <c r="U736" t="inlineStr"/>
+      <c r="V736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>log_9</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>data('log').substring(540000,600000) == '' ? ' ' : data('log').substring(540000,600000)</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
+      <c r="N737" t="inlineStr"/>
+      <c r="O737" t="inlineStr"/>
+      <c r="P737" t="inlineStr"/>
+      <c r="Q737" t="inlineStr"/>
+      <c r="R737" t="inlineStr"/>
+      <c r="S737" t="inlineStr"/>
+      <c r="T737" t="inlineStr"/>
+      <c r="U737" t="inlineStr"/>
+      <c r="V737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>log_10</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>data('log').substring(600000,660000) == '' ? ' ' : data('log').substring(600000,660000)</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
+      <c r="N738" t="inlineStr"/>
+      <c r="O738" t="inlineStr"/>
+      <c r="P738" t="inlineStr"/>
+      <c r="Q738" t="inlineStr"/>
+      <c r="R738" t="inlineStr"/>
+      <c r="S738" t="inlineStr"/>
+      <c r="T738" t="inlineStr"/>
+      <c r="U738" t="inlineStr"/>
+      <c r="V738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>log_11</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>data('log').substring(660000,720000) == '' ? ' ' : data('log').substring(660000,720000)</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+      <c r="M739" t="inlineStr"/>
+      <c r="N739" t="inlineStr"/>
+      <c r="O739" t="inlineStr"/>
+      <c r="P739" t="inlineStr"/>
+      <c r="Q739" t="inlineStr"/>
+      <c r="R739" t="inlineStr"/>
+      <c r="S739" t="inlineStr"/>
+      <c r="T739" t="inlineStr"/>
+      <c r="U739" t="inlineStr"/>
+      <c r="V739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="inlineStr"/>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>log_12</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>data('log').substring(720000,780000) == '' ? ' ' : data('log').substring(720000,780000)</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
+      <c r="N740" t="inlineStr"/>
+      <c r="O740" t="inlineStr"/>
+      <c r="P740" t="inlineStr"/>
+      <c r="Q740" t="inlineStr"/>
+      <c r="R740" t="inlineStr"/>
+      <c r="S740" t="inlineStr"/>
+      <c r="T740" t="inlineStr"/>
+      <c r="U740" t="inlineStr"/>
+      <c r="V740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>log_13</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>data('log').substring(780000,840000) == '' ? ' ' : data('log').substring(780000,840000)</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+      <c r="M741" t="inlineStr"/>
+      <c r="N741" t="inlineStr"/>
+      <c r="O741" t="inlineStr"/>
+      <c r="P741" t="inlineStr"/>
+      <c r="Q741" t="inlineStr"/>
+      <c r="R741" t="inlineStr"/>
+      <c r="S741" t="inlineStr"/>
+      <c r="T741" t="inlineStr"/>
+      <c r="U741" t="inlineStr"/>
+      <c r="V741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>log_14</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>data('log').substring(840000,900000) == '' ? ' ' : data('log').substring(840000,900000)</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+      <c r="M742" t="inlineStr"/>
+      <c r="N742" t="inlineStr"/>
+      <c r="O742" t="inlineStr"/>
+      <c r="P742" t="inlineStr"/>
+      <c r="Q742" t="inlineStr"/>
+      <c r="R742" t="inlineStr"/>
+      <c r="S742" t="inlineStr"/>
+      <c r="T742" t="inlineStr"/>
+      <c r="U742" t="inlineStr"/>
+      <c r="V742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>log_15</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>data('log').substring(900000,960000) == '' ? ' ' : data('log').substring(900000,960000)</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+      <c r="M743" t="inlineStr"/>
+      <c r="N743" t="inlineStr"/>
+      <c r="O743" t="inlineStr"/>
+      <c r="P743" t="inlineStr"/>
+      <c r="Q743" t="inlineStr"/>
+      <c r="R743" t="inlineStr"/>
+      <c r="S743" t="inlineStr"/>
+      <c r="T743" t="inlineStr"/>
+      <c r="U743" t="inlineStr"/>
+      <c r="V743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr"/>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>log_16</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>data('log').substring(960000,1020000) == '' ? ' ' : data('log').substring(960000,1020000)</t>
+        </is>
+      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+      <c r="M744" t="inlineStr"/>
+      <c r="N744" t="inlineStr"/>
+      <c r="O744" t="inlineStr"/>
+      <c r="P744" t="inlineStr"/>
+      <c r="Q744" t="inlineStr"/>
+      <c r="R744" t="inlineStr"/>
+      <c r="S744" t="inlineStr"/>
+      <c r="T744" t="inlineStr"/>
+      <c r="U744" t="inlineStr"/>
+      <c r="V744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr"/>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>log_17</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>data('log').substring(1020000,1080000) == '' ? ' ' : data('log').substring(1020000,1080000)</t>
+        </is>
+      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
+      <c r="N745" t="inlineStr"/>
+      <c r="O745" t="inlineStr"/>
+      <c r="P745" t="inlineStr"/>
+      <c r="Q745" t="inlineStr"/>
+      <c r="R745" t="inlineStr"/>
+      <c r="S745" t="inlineStr"/>
+      <c r="T745" t="inlineStr"/>
+      <c r="U745" t="inlineStr"/>
+      <c r="V745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr"/>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>log_18</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>data('log').substring(1080000,1140000) == '' ? ' ' : data('log').substring(1080000,1140000)</t>
+        </is>
+      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
+      <c r="N746" t="inlineStr"/>
+      <c r="O746" t="inlineStr"/>
+      <c r="P746" t="inlineStr"/>
+      <c r="Q746" t="inlineStr"/>
+      <c r="R746" t="inlineStr"/>
+      <c r="S746" t="inlineStr"/>
+      <c r="T746" t="inlineStr"/>
+      <c r="U746" t="inlineStr"/>
+      <c r="V746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>log_19</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>data('log').substring(1140000,1200000) == '' ? ' ' : data('log').substring(1140000,1200000)</t>
+        </is>
+      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr"/>
+      <c r="N747" t="inlineStr"/>
+      <c r="O747" t="inlineStr"/>
+      <c r="P747" t="inlineStr"/>
+      <c r="Q747" t="inlineStr"/>
+      <c r="R747" t="inlineStr"/>
+      <c r="S747" t="inlineStr"/>
+      <c r="T747" t="inlineStr"/>
+      <c r="U747" t="inlineStr"/>
+      <c r="V747" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
@@ -24674,11 +26166,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="30.85546875"/>
+    <col customWidth="1" max="1" min="1" style="2" width="30.88671875"/>
     <col customWidth="1" max="2" min="2" style="2" width="20"/>
-    <col customWidth="1" max="1025" min="3" style="2" width="11.5703125"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24766,13 +26258,13 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
+    <sheetView workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.5703125"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25213,12 +26705,12 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="38"/>
-    <col customWidth="1" max="2" min="2" style="2" width="32.7109375"/>
+    <col customWidth="1" max="2" min="2" style="2" width="32.6640625"/>
     <col customWidth="1" max="3" min="3" style="2" width="33"/>
-    <col customWidth="1" max="1025" min="4" style="2" width="10.7109375"/>
+    <col customWidth="1" max="1025" min="4" style="2" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27703,7 +29195,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.9" r="206" s="26">
+    <row customFormat="1" customHeight="1" ht="14.4" r="206" s="26">
       <c r="A206" s="26" t="inlineStr">
         <is>
           <t>fear</t>
@@ -27720,7 +29212,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.9" r="207" s="26">
+    <row customFormat="1" customHeight="1" ht="14.4" r="207" s="26">
       <c r="A207" s="26" t="inlineStr">
         <is>
           <t>fear</t>

--- a/app/designerFiles/app/config/tables/survey/forms/survey/survey.xlsx
+++ b/app/designerFiles/app/config/tables/survey/forms/survey/survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="21840" windowWidth="38640" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -76,6 +76,12 @@
       <charset val="1"/>
       <family val="2"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="17">
@@ -202,9 +208,6 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -229,6 +232,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,23 +548,23 @@
   </sheetPr>
   <dimension ref="A1:V747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
-      <selection activeCell="F501" sqref="F501"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="2" width="11.5546875"/>
-    <col customWidth="1" max="6" min="6" style="2" width="21.109375"/>
-    <col customWidth="1" max="7" min="7" style="2" width="16.44140625"/>
-    <col customWidth="1" max="8" min="8" style="2" width="11.5546875"/>
+    <col customWidth="1" max="5" min="1" style="2" width="11.5703125"/>
+    <col customWidth="1" max="6" min="6" style="2" width="21.140625"/>
+    <col customWidth="1" max="7" min="7" style="2" width="16.42578125"/>
+    <col customWidth="1" max="8" min="8" style="2" width="11.5703125"/>
     <col customWidth="1" max="9" min="9" style="2" width="29"/>
-    <col customWidth="1" max="13" min="10" style="2" width="11.5546875"/>
-    <col customWidth="1" max="14" min="14" style="1" width="95.88671875"/>
-    <col customWidth="1" max="1025" min="15" style="2" width="11.5546875"/>
+    <col customWidth="1" max="13" min="10" style="2" width="11.5703125"/>
+    <col customWidth="1" max="14" min="14" style="1" width="95.85546875"/>
+    <col customWidth="1" max="1025" min="15" style="2" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.2" r="1" s="2">
+    <row customHeight="1" ht="12.75" r="1" s="2">
       <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
@@ -690,7 +696,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="3" s="2">
+    <row customHeight="1" ht="17.65" r="3" s="2">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -734,7 +740,7 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="4" s="2">
+    <row customHeight="1" ht="12.75" r="4" s="2">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -770,7 +776,7 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="5" s="2">
+    <row customHeight="1" ht="17.65" r="5" s="2">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -794,7 +800,7 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="6" s="2">
+    <row customHeight="1" ht="17.65" r="6" s="2">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -836,7 +842,7 @@
       </c>
       <c r="V6" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="7" s="2">
+    <row customHeight="1" ht="17.65" r="7" s="2">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -872,7 +878,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="8" s="2">
+    <row customHeight="1" ht="17.65" r="8" s="2">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -908,7 +914,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="9" s="2">
+    <row customHeight="1" ht="17.65" r="9" s="2">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -944,7 +950,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="10" s="2">
+    <row customHeight="1" ht="17.65" r="10" s="2">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -980,7 +986,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="11" s="2">
+    <row customHeight="1" ht="17.65" r="11" s="2">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -1016,7 +1022,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="12" s="2">
+    <row customHeight="1" ht="12.75" r="12" s="2">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -1052,7 +1058,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="13" s="2">
+    <row customHeight="1" ht="17.65" r="13" s="2">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -1088,7 +1094,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="14" s="2">
+    <row customHeight="1" ht="17.65" r="14" s="2">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -1128,7 +1134,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="15" s="2">
+    <row customHeight="1" ht="17.65" r="15" s="2">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -1236,7 +1242,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="18" s="2">
+    <row customHeight="1" ht="17.65" r="18" s="2">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -1272,7 +1278,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="19" s="2">
+    <row customHeight="1" ht="12.75" r="19" s="2">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -1308,7 +1314,7 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.7" r="20" s="7">
+    <row customFormat="1" customHeight="1" ht="17.65" r="20" s="7">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -1332,7 +1338,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="21" s="2">
+    <row customHeight="1" ht="17.65" r="21" s="2">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -1372,7 +1378,7 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="22" s="2">
+    <row customHeight="1" ht="17.65" r="22" s="2">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -1408,7 +1414,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="23" s="2">
+    <row customHeight="1" ht="17.65" r="23" s="2">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -1448,7 +1454,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="24" s="2">
+    <row customHeight="1" ht="17.65" r="24" s="2">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -1484,7 +1490,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="25" s="2">
+    <row customHeight="1" ht="17.65" r="25" s="2">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -1524,7 +1530,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="29.7" r="26" s="2">
+    <row customHeight="1" ht="29.65" r="26" s="2">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -1560,7 +1566,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="31.65" r="27" s="2">
+    <row customHeight="1" ht="31.7" r="27" s="2">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -1584,7 +1590,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="28" s="2">
+    <row customHeight="1" ht="12.75" r="28" s="2">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -1608,7 +1614,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="29" s="2">
+    <row customHeight="1" ht="17.65" r="29" s="2">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -1654,7 +1660,7 @@
       </c>
       <c r="V29" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="30" s="2">
+    <row customHeight="1" ht="17.65" r="30" s="2">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -1690,7 +1696,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="31" s="2">
+    <row customHeight="1" ht="17.65" r="31" s="2">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -1714,7 +1720,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="32" s="2">
+    <row customHeight="1" ht="17.65" r="32" s="2">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="8" t="inlineStr">
@@ -1746,7 +1752,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="33" s="2">
+    <row customHeight="1" ht="17.65" r="33" s="2">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -1770,7 +1776,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="34" s="2">
+    <row customHeight="1" ht="17.65" r="34" s="2">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
@@ -1794,7 +1800,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="35" s="2">
+    <row customHeight="1" ht="12.75" r="35" s="2">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
@@ -1818,7 +1824,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="36" s="2">
+    <row customHeight="1" ht="12.75" r="36" s="2">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
@@ -1846,7 +1852,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="37" s="2">
+    <row customHeight="1" ht="17.65" r="37" s="2">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
@@ -1890,7 +1896,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="38" s="2">
+    <row customHeight="1" ht="17.65" r="38" s="2">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
@@ -1902,113 +1908,9 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" s="9" t="inlineStr">
-        <is>
-          <t>2004 – 15\n
-2003 - 16
-2002 - 17
-2001 - 18
-2000 - 19
-1999 - 20
-1998 - 21
-1997 - 22
-1996 - 23
-1995 - 24
-1994 - 25
-1993 - 26
-1992 - 27
-1991 - 28
-1990 - 29
-1989 - 30
-1988 - 31
-1987 - 32
-1986 - 33
-1985 - 34
-1984 - 35
-1983 - 36
-1982 - 37
-1981 - 38
-1980 - 39
-1979 - 40
-1978 - 41
-1977 - 42
-1976 - 43
-1975 - 44
-1974 - 45
-1973 - 46
-1972 - 47
-1971 - 48
-1970 - 49
-1969 - 50
-1968 - 51
-1967 - 52
-1966 - 53
-1965 - 54
-1964 - 55
-1963 - 56
-1962 - 57
-1961 - 58
-1960 - 59
-1959 - 60
-1958 - 61
-1957 - 62
-1956 - 63
-1955 - 64
-1954 - 65
-1953 - 66
-1952 - 67
-1951 - 68
-1950 - 69
-1949 - 70
-1948 - 71
-1947 - 72
-1946 - 73
-1945 - 74
-1944 - 75
-1943 - 76
-1942 - 77
-1941 - 78
-1940 - 79
-1939 - 80
-1938 - 81
-1937 - 82
-1936 - 83
-1935 - 84
-1934 - 85
-1933 - 86
-1932 - 87
-1931 - 88
-1930 - 89
-1929 - 90
-1928 - 91
-1927 - 92
-1926 - 93
-1925 - 94
-1924 - 95
-1923 - 96
-1922 - 97
-1921 - 98
-1920 - 99
-1919 - 100
-1918 - 101
-1917 - 102
-1916 - 103
-1915 - 104
-1914 - 105
-1913 - 106
-1912 - 107
-1911 - 108
-1910 - 109
-1909 - 110
-1908 - 111
-1907 - 112
-1906 - 113
-1905 - 114
-1904 - 115
-1903 - 116
-1902 - 117
-1901 - 118
-1900 - 119</t>
+      <c r="H38" s="31" t="inlineStr">
+        <is>
+          <t>2004 – 15&lt;br&gt;2003 - 16&lt;br&gt;2002 - 17&lt;br&gt;2001 - 18&lt;br&gt;2000 - 19&lt;br&gt;1999 - 20&lt;br&gt;1998 - 21&lt;br&gt;1997 - 22&lt;br&gt;1996 - 23&lt;br&gt;1995 - 24&lt;br&gt;1994 - 25&lt;br&gt;1993 - 26&lt;br&gt;1992 – 27&lt;br&gt;1991 - 28&lt;br&gt;1990 - 29&lt;br&gt;1989 - 30&lt;br&gt;1988 - 31&lt;br&gt;1987 - 32&lt;br&gt;1986 - 33&lt;br&gt;1985 - 34&lt;br&gt;1984 - 35&lt;br&gt;1983 - 36&lt;br&gt;1982 - 37&lt;br&gt;1981 - 38&lt;br&gt;1980 - 39&lt;br&gt;1979 - 40&lt;br&gt;1978 - 41&lt;br&gt;1977 - 42&lt;br&gt;1976 - 43&lt;br&gt;1975 - 44&lt;br&gt;1974 - 45&lt;br&gt;1973 - 46&lt;br&gt;1972 - 47&lt;br&gt;1971 - 48&lt;br&gt;1970 - 49&lt;br&gt;1969 - 50&lt;br&gt;1968 - 51&lt;br&gt;1967 - 52&lt;br&gt;1966 - 53&lt;br&gt;1965 - 54&lt;br&gt;1964 - 55&lt;br&gt;1963 - 56&lt;br&gt;1962 - 57&lt;br&gt;1961 - 58&lt;br&gt;1960 - 59&lt;br&gt;1959 - 60&lt;br&gt;1958 - 61&lt;br&gt;1957 - 62&lt;br&gt;1956 - 63&lt;br&gt;1955 - 64&lt;br&gt;1954 - 65&lt;br&gt;1953 - 66&lt;br&gt;1952 - 67&lt;br&gt;1951 - 68&lt;br&gt;1950 - 69&lt;br&gt;1949 - 70&lt;br&gt;1948 - 71&lt;br&gt;1947 - 72&lt;br&gt;1946 - 73&lt;br&gt;1945 - 74&lt;br&gt;1944 - 75&lt;br&gt;1943 - 76&lt;br&gt;1942 - 77&lt;br&gt;1941 - 78&lt;br&gt;1940 - 79&lt;br&gt;1939 - 80&lt;br&gt;1938 - 81&lt;br&gt;1937 - 82&lt;br&gt;1936 - 83&lt;br&gt;1935 - 84&lt;br&gt;1934 - 85&lt;br&gt;1933 - 86&lt;br&gt;1932 - 87&lt;br&gt;1931 - 88&lt;br&gt;1930 - 89&lt;br&gt;1929 - 90&lt;br&gt;1928 - 91&lt;br&gt;1927 - 92&lt;br&gt;1926 - 93&lt;br&gt;1925 - 94&lt;br&gt;1924 - 95&lt;br&gt;1923 - 96&lt;br&gt;1922 - 97&lt;br&gt;1921 - 98&lt;br&gt;1920 - 99&lt;br&gt;1919 - 100&lt;br&gt;1918 - 101&lt;br&gt;1917 - 102&lt;br&gt;1916 - 103&lt;br&gt;1915 - 104&lt;br&gt;1914 - 105&lt;br&gt;1913 - 106&lt;br&gt;1912 - 107&lt;br&gt;1911 - 108&lt;br&gt;1910 - 109&lt;br&gt;1909 - 110&lt;br&gt;1908 - 111&lt;br&gt;1907 - 112&lt;br&gt;1906 - 113&lt;br&gt;1905 - 114&lt;br&gt;1904 - 115&lt;br&gt;1903 - 116&lt;br&gt;1902 - 117&lt;br&gt;1901 - 118&lt;br&gt;1900 - 119</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2026,7 +1928,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="39" s="2">
+    <row customHeight="1" ht="17.65" r="39" s="2">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
@@ -2054,7 +1956,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="40" s="2">
+    <row customHeight="1" ht="17.65" r="40" s="2">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
@@ -2090,7 +1992,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="41" s="2">
+    <row customHeight="1" ht="17.65" r="41" s="2">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -2114,7 +2016,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.7" r="42" s="5">
+    <row customFormat="1" customHeight="1" ht="17.65" r="42" s="5">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
@@ -2474,7 +2376,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="52" s="2">
+    <row customHeight="1" ht="17.65" r="52" s="2">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
@@ -2510,7 +2412,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="53" s="2">
+    <row customHeight="1" ht="17.65" r="53" s="2">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
@@ -2542,7 +2444,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="54" s="2">
+    <row customHeight="1" ht="17.65" r="54" s="2">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
@@ -2578,7 +2480,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.7" r="55" s="5">
+    <row customFormat="1" customHeight="1" ht="17.65" r="55" s="5">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
@@ -2614,7 +2516,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="56" s="2">
+    <row customHeight="1" ht="17.65" r="56" s="2">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
@@ -2642,7 +2544,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="57" s="2">
+    <row customHeight="1" ht="17.65" r="57" s="2">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
@@ -2670,7 +2572,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="58" s="2">
+    <row customHeight="1" ht="17.65" r="58" s="2">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
@@ -2702,7 +2604,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="59" s="2">
+    <row customHeight="1" ht="12.75" r="59" s="2">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
@@ -2742,7 +2644,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="60" s="2">
+    <row customHeight="1" ht="12.75" r="60" s="2">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
@@ -2778,7 +2680,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="61" s="2">
+    <row customHeight="1" ht="12.75" r="61" s="2">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="5" t="inlineStr">
@@ -2810,7 +2712,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="62" s="2">
+    <row customHeight="1" ht="12.75" r="62" s="2">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -2846,7 +2748,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="63" s="2">
+    <row customHeight="1" ht="12.75" r="63" s="2">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -2882,7 +2784,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="64" s="2">
+    <row customHeight="1" ht="12.75" r="64" s="2">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
@@ -2910,7 +2812,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="65" s="2">
+    <row customHeight="1" ht="12.75" r="65" s="2">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
@@ -2938,7 +2840,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="66" s="2">
+    <row customHeight="1" ht="17.65" r="66" s="2">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
@@ -2970,7 +2872,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="67" s="2">
+    <row customHeight="1" ht="17.65" r="67" s="2">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
@@ -3010,7 +2912,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="68" s="2">
+    <row customHeight="1" ht="17.65" r="68" s="2">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
@@ -3046,7 +2948,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="69" s="2">
+    <row customHeight="1" ht="17.65" r="69" s="2">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
@@ -3078,7 +2980,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="70" s="2">
+    <row customHeight="1" ht="17.65" r="70" s="2">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
@@ -3114,7 +3016,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="71" s="2">
+    <row customHeight="1" ht="17.65" r="71" s="2">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
@@ -3150,7 +3052,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="72" s="2">
+    <row customHeight="1" ht="17.65" r="72" s="2">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
@@ -3178,7 +3080,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="73" s="2">
+    <row customHeight="1" ht="17.65" r="73" s="2">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
@@ -3206,7 +3108,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="74" s="2">
+    <row customHeight="1" ht="17.65" r="74" s="2">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
@@ -3238,7 +3140,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="75" s="2">
+    <row customHeight="1" ht="17.65" r="75" s="2">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
@@ -3278,7 +3180,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="76" s="2">
+    <row customHeight="1" ht="17.65" r="76" s="2">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
@@ -3314,7 +3216,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="77" s="2">
+    <row customHeight="1" ht="17.65" r="77" s="2">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
@@ -3354,7 +3256,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="78" s="2">
+    <row customHeight="1" ht="17.65" r="78" s="2">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
@@ -3390,7 +3292,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="79" s="2">
+    <row customHeight="1" ht="17.65" r="79" s="2">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="5" t="inlineStr">
@@ -3422,7 +3324,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="80" s="2">
+    <row customHeight="1" ht="17.65" r="80" s="2">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
@@ -3458,7 +3360,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="81" s="2">
+    <row customHeight="1" ht="17.65" r="81" s="2">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
@@ -3494,7 +3396,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="82" s="2">
+    <row customHeight="1" ht="17.65" r="82" s="2">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
@@ -3522,7 +3424,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="83" s="2">
+    <row customHeight="1" ht="17.65" r="83" s="2">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
@@ -3550,7 +3452,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="84" s="2">
+    <row customHeight="1" ht="12.75" r="84" s="2">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
@@ -3598,7 +3500,7 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="86" s="2">
+    <row customHeight="1" ht="17.65" r="86" s="2">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
@@ -3622,7 +3524,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="87" s="2">
+    <row customHeight="1" ht="12.75" r="87" s="2">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
@@ -3646,7 +3548,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="88" s="2">
+    <row customHeight="1" ht="17.65" r="88" s="2">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
@@ -3670,7 +3572,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="89" s="2">
+    <row customHeight="1" ht="17.65" r="89" s="2">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
@@ -3794,10 +3696,10 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="93" s="2">
-      <c r="A93" s="10" t="inlineStr"/>
-      <c r="B93" s="10" t="inlineStr"/>
-      <c r="C93" s="10" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="93" s="2">
+      <c r="A93" s="9" t="inlineStr"/>
+      <c r="B93" s="9" t="inlineStr"/>
+      <c r="C93" s="9" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -3834,10 +3736,10 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="94" s="2">
-      <c r="A94" s="10" t="inlineStr"/>
-      <c r="B94" s="10" t="inlineStr"/>
-      <c r="C94" s="10" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="94" s="2">
+      <c r="A94" s="9" t="inlineStr"/>
+      <c r="B94" s="9" t="inlineStr"/>
+      <c r="C94" s="9" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
@@ -3874,7 +3776,7 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="95" s="2">
+    <row customHeight="1" ht="17.65" r="95" s="2">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
@@ -3910,10 +3812,10 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="96" s="2">
-      <c r="A96" s="10" t="inlineStr"/>
-      <c r="B96" s="11" t="inlineStr"/>
-      <c r="C96" s="11" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="96" s="2">
+      <c r="A96" s="9" t="inlineStr"/>
+      <c r="B96" s="10" t="inlineStr"/>
+      <c r="C96" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -3942,10 +3844,10 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="97" s="2">
-      <c r="A97" s="10" t="inlineStr"/>
-      <c r="B97" s="11" t="inlineStr"/>
-      <c r="C97" s="11" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="97" s="2">
+      <c r="A97" s="9" t="inlineStr"/>
+      <c r="B97" s="10" t="inlineStr"/>
+      <c r="C97" s="10" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
@@ -3978,7 +3880,7 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="98" s="2">
+    <row customHeight="1" ht="12.75" r="98" s="2">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
@@ -4014,10 +3916,10 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="99" s="2">
-      <c r="A99" s="10" t="inlineStr"/>
-      <c r="B99" s="11" t="inlineStr"/>
-      <c r="C99" s="11" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="99" s="2">
+      <c r="A99" s="9" t="inlineStr"/>
+      <c r="B99" s="10" t="inlineStr"/>
+      <c r="C99" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -4042,10 +3944,10 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="100" s="2">
-      <c r="A100" s="10" t="inlineStr"/>
-      <c r="B100" s="10" t="inlineStr"/>
-      <c r="C100" s="10" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="100" s="2">
+      <c r="A100" s="9" t="inlineStr"/>
+      <c r="B100" s="9" t="inlineStr"/>
+      <c r="C100" s="9" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
@@ -4082,7 +3984,7 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="101" s="2">
+    <row customHeight="1" ht="17.65" r="101" s="2">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
@@ -4118,10 +4020,10 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="102" s="2">
-      <c r="A102" s="10" t="inlineStr"/>
-      <c r="B102" s="11" t="inlineStr"/>
-      <c r="C102" s="11" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="102" s="2">
+      <c r="A102" s="9" t="inlineStr"/>
+      <c r="B102" s="10" t="inlineStr"/>
+      <c r="C102" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -4150,10 +4052,10 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="103" s="2">
-      <c r="A103" s="10" t="inlineStr"/>
-      <c r="B103" s="11" t="inlineStr"/>
-      <c r="C103" s="11" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="103" s="2">
+      <c r="A103" s="9" t="inlineStr"/>
+      <c r="B103" s="10" t="inlineStr"/>
+      <c r="C103" s="10" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
@@ -4186,7 +4088,7 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="104" s="2">
+    <row customHeight="1" ht="17.65" r="104" s="2">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
@@ -4222,10 +4124,10 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="105" s="2">
-      <c r="A105" s="10" t="inlineStr"/>
-      <c r="B105" s="11" t="inlineStr"/>
-      <c r="C105" s="11" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="105" s="2">
+      <c r="A105" s="9" t="inlineStr"/>
+      <c r="B105" s="10" t="inlineStr"/>
+      <c r="C105" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -4250,10 +4152,10 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="106" s="2">
-      <c r="A106" s="10" t="inlineStr"/>
-      <c r="B106" s="10" t="inlineStr"/>
-      <c r="C106" s="10" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="106" s="2">
+      <c r="A106" s="9" t="inlineStr"/>
+      <c r="B106" s="9" t="inlineStr"/>
+      <c r="C106" s="9" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
@@ -4290,7 +4192,7 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="107" s="2">
+    <row customHeight="1" ht="17.65" r="107" s="2">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
@@ -4326,10 +4228,10 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="108" s="2">
-      <c r="A108" s="10" t="inlineStr"/>
-      <c r="B108" s="11" t="inlineStr"/>
-      <c r="C108" s="11" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="108" s="2">
+      <c r="A108" s="9" t="inlineStr"/>
+      <c r="B108" s="10" t="inlineStr"/>
+      <c r="C108" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -4358,10 +4260,10 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="109" s="2">
-      <c r="A109" s="10" t="inlineStr"/>
-      <c r="B109" s="11" t="inlineStr"/>
-      <c r="C109" s="11" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="109" s="2">
+      <c r="A109" s="9" t="inlineStr"/>
+      <c r="B109" s="10" t="inlineStr"/>
+      <c r="C109" s="10" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
@@ -4398,7 +4300,7 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="110" s="2">
+    <row customHeight="1" ht="17.65" r="110" s="2">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
@@ -4434,10 +4336,10 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="111" s="2">
-      <c r="A111" s="10" t="inlineStr"/>
-      <c r="B111" s="11" t="inlineStr"/>
-      <c r="C111" s="12" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="111" s="2">
+      <c r="A111" s="9" t="inlineStr"/>
+      <c r="B111" s="10" t="inlineStr"/>
+      <c r="C111" s="11" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -4466,10 +4368,10 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="112" s="2">
-      <c r="A112" s="10" t="inlineStr"/>
-      <c r="B112" s="11" t="inlineStr"/>
-      <c r="C112" s="12" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="112" s="2">
+      <c r="A112" s="9" t="inlineStr"/>
+      <c r="B112" s="10" t="inlineStr"/>
+      <c r="C112" s="11" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
@@ -4502,7 +4404,7 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="113" s="2">
+    <row customHeight="1" ht="12.75" r="113" s="2">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
@@ -4538,10 +4440,10 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.7" r="114" s="13">
-      <c r="A114" s="10" t="inlineStr"/>
-      <c r="B114" s="11" t="inlineStr"/>
-      <c r="C114" s="12" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="17.65" r="114" s="12">
+      <c r="A114" s="9" t="inlineStr"/>
+      <c r="B114" s="10" t="inlineStr"/>
+      <c r="C114" s="11" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -4566,10 +4468,10 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="115" s="2">
-      <c r="A115" s="10" t="inlineStr"/>
-      <c r="B115" s="11" t="inlineStr"/>
-      <c r="C115" s="11" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="115" s="2">
+      <c r="A115" s="9" t="inlineStr"/>
+      <c r="B115" s="10" t="inlineStr"/>
+      <c r="C115" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -4594,10 +4496,10 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="116" s="2">
-      <c r="A116" s="10" t="inlineStr"/>
-      <c r="B116" s="10" t="inlineStr"/>
-      <c r="C116" s="10" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="116" s="2">
+      <c r="A116" s="9" t="inlineStr"/>
+      <c r="B116" s="9" t="inlineStr"/>
+      <c r="C116" s="9" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -4622,7 +4524,7 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="117" s="2">
+    <row customHeight="1" ht="17.65" r="117" s="2">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
@@ -4646,7 +4548,7 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="118" s="2">
+    <row customHeight="1" ht="17.65" r="118" s="2">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
@@ -4686,7 +4588,7 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="119" s="2">
+    <row customHeight="1" ht="17.65" r="119" s="2">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
@@ -4722,7 +4624,7 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="120" s="2">
+    <row customHeight="1" ht="17.65" r="120" s="2">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
@@ -4762,7 +4664,7 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="121" s="2">
+    <row customHeight="1" ht="17.65" r="121" s="2">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
@@ -4798,7 +4700,7 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="122" s="2">
+    <row customHeight="1" ht="17.65" r="122" s="2">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
@@ -4822,7 +4724,7 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="123" s="2">
+    <row customHeight="1" ht="17.65" r="123" s="2">
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
@@ -4862,7 +4764,7 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="124" s="2">
+    <row customHeight="1" ht="17.65" r="124" s="2">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
@@ -4898,7 +4800,7 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="125" s="2">
+    <row customHeight="1" ht="17.65" r="125" s="2">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
@@ -4930,7 +4832,7 @@
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="126" s="2">
+    <row customHeight="1" ht="17.65" r="126" s="2">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
@@ -4966,7 +4868,7 @@
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="127" s="2">
+    <row customHeight="1" ht="17.65" r="127" s="2">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
@@ -5002,7 +4904,7 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="128" s="2">
+    <row customHeight="1" ht="17.65" r="128" s="2">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
@@ -5030,7 +4932,7 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="129" s="2">
+    <row customHeight="1" ht="17.65" r="129" s="2">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
@@ -5062,7 +4964,7 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="130" s="2">
+    <row customHeight="1" ht="17.65" r="130" s="2">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
@@ -5098,7 +5000,7 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="131" s="2">
+    <row customHeight="1" ht="17.65" r="131" s="2">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
@@ -5134,7 +5036,7 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="132" s="2">
+    <row customHeight="1" ht="17.65" r="132" s="2">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
@@ -5162,7 +5064,7 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="133" s="2">
+    <row customHeight="1" ht="17.65" r="133" s="2">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
@@ -5198,7 +5100,7 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="134" s="2">
+    <row customHeight="1" ht="17.65" r="134" s="2">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
@@ -5234,7 +5136,7 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="135" s="2">
+    <row customHeight="1" ht="17.65" r="135" s="2">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
@@ -5258,7 +5160,7 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="136" s="2">
+    <row customHeight="1" ht="17.65" r="136" s="2">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
@@ -5282,7 +5184,7 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="137" s="2">
+    <row customHeight="1" ht="17.65" r="137" s="2">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
@@ -5306,7 +5208,7 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="138" s="2">
+    <row customHeight="1" ht="17.65" r="138" s="2">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
@@ -5350,7 +5252,7 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="139" s="2">
+    <row customHeight="1" ht="17.65" r="139" s="2">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
@@ -5386,7 +5288,7 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="140" s="2">
+    <row customHeight="1" ht="17.65" r="140" s="2">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
@@ -5418,7 +5320,7 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="141" s="2">
+    <row customHeight="1" ht="17.65" r="141" s="2">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
@@ -5454,7 +5356,7 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="142" s="2">
+    <row customHeight="1" ht="17.65" r="142" s="2">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
@@ -5490,7 +5392,7 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="143" s="2">
+    <row customHeight="1" ht="17.65" r="143" s="2">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
@@ -5518,7 +5420,7 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="144" s="2">
+    <row customHeight="1" ht="17.65" r="144" s="2">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
@@ -5558,7 +5460,7 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="145" s="2">
+    <row customHeight="1" ht="17.65" r="145" s="2">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
@@ -5594,7 +5496,7 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="146" s="2">
+    <row customHeight="1" ht="17.65" r="146" s="2">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
@@ -5626,7 +5528,7 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="147" s="2">
+    <row customHeight="1" ht="17.65" r="147" s="2">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
@@ -5654,7 +5556,7 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="148" s="2">
+    <row customHeight="1" ht="17.65" r="148" s="2">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
@@ -5690,7 +5592,7 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="149" s="2">
+    <row customHeight="1" ht="17.65" r="149" s="2">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
@@ -5734,7 +5636,7 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="150" s="2">
+    <row customHeight="1" ht="17.65" r="150" s="2">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
@@ -5778,7 +5680,7 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="151" s="2">
+    <row customHeight="1" ht="17.65" r="151" s="2">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
@@ -5822,7 +5724,7 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="152" s="2">
+    <row customHeight="1" ht="17.65" r="152" s="2">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
@@ -5850,7 +5752,7 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="153" s="2">
+    <row customHeight="1" ht="17.65" r="153" s="2">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
@@ -5886,7 +5788,7 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="154" s="2">
+    <row customHeight="1" ht="17.65" r="154" s="2">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
@@ -5922,7 +5824,7 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="155" s="2">
+    <row customHeight="1" ht="17.65" r="155" s="2">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
@@ -5958,7 +5860,7 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="156" s="2">
+    <row customHeight="1" ht="17.65" r="156" s="2">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
@@ -5986,7 +5888,7 @@
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="157" s="2">
+    <row customHeight="1" ht="17.65" r="157" s="2">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
@@ -6010,7 +5912,7 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="158" s="2">
+    <row customHeight="1" ht="17.65" r="158" s="2">
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
@@ -6034,19 +5936,19 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="159" s="2">
+    <row customHeight="1" ht="17.65" r="159" s="2">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" s="14" t="inlineStr">
+      <c r="F159" s="13" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" s="13" t="inlineStr">
+      <c r="H159" s="12" t="inlineStr">
         <is>
           <t>SECTION B</t>
         </is>
@@ -6066,7 +5968,7 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="160" s="2">
+    <row customHeight="1" ht="12.75" r="160" s="2">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
@@ -6106,7 +6008,7 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="161" s="2">
+    <row customHeight="1" ht="12.75" r="161" s="2">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
@@ -6142,7 +6044,7 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="162" s="2">
+    <row customHeight="1" ht="12.75" r="162" s="2">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
@@ -6166,10 +6068,10 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="163" s="2">
-      <c r="A163" s="13" t="inlineStr"/>
-      <c r="B163" s="13" t="inlineStr"/>
-      <c r="C163" s="15" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="163" s="2">
+      <c r="A163" s="12" t="inlineStr"/>
+      <c r="B163" s="12" t="inlineStr"/>
+      <c r="C163" s="14" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -6202,10 +6104,10 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="164" s="2">
-      <c r="A164" s="13" t="inlineStr"/>
-      <c r="B164" s="13" t="inlineStr"/>
-      <c r="C164" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="164" s="2">
+      <c r="A164" s="12" t="inlineStr"/>
+      <c r="B164" s="12" t="inlineStr"/>
+      <c r="C164" s="14" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
@@ -6242,7 +6144,7 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="165" s="2">
+    <row customHeight="1" ht="12.75" r="165" s="2">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
@@ -6278,10 +6180,10 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="166" s="2">
-      <c r="A166" s="13" t="inlineStr"/>
-      <c r="B166" s="16" t="inlineStr"/>
-      <c r="C166" s="17" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="166" s="2">
+      <c r="A166" s="12" t="inlineStr"/>
+      <c r="B166" s="15" t="inlineStr"/>
+      <c r="C166" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -6310,10 +6212,10 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.7" r="167" s="13">
-      <c r="A167" s="13" t="inlineStr"/>
-      <c r="B167" s="16" t="inlineStr"/>
-      <c r="C167" s="17" t="inlineStr"/>
+    <row customFormat="1" customHeight="1" ht="17.65" r="167" s="12">
+      <c r="A167" s="12" t="inlineStr"/>
+      <c r="B167" s="15" t="inlineStr"/>
+      <c r="C167" s="16" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
@@ -6346,7 +6248,7 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="168" s="2">
+    <row customHeight="1" ht="12.75" r="168" s="2">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
@@ -6382,10 +6284,10 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="169" s="2">
-      <c r="A169" s="13" t="inlineStr"/>
-      <c r="B169" s="16" t="inlineStr"/>
-      <c r="C169" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="169" s="2">
+      <c r="A169" s="12" t="inlineStr"/>
+      <c r="B169" s="15" t="inlineStr"/>
+      <c r="C169" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -6410,10 +6312,10 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="170" s="2">
-      <c r="A170" s="13" t="inlineStr"/>
-      <c r="B170" s="13" t="inlineStr"/>
-      <c r="C170" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="170" s="2">
+      <c r="A170" s="12" t="inlineStr"/>
+      <c r="B170" s="12" t="inlineStr"/>
+      <c r="C170" s="14" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
@@ -6450,7 +6352,7 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="171" s="2">
+    <row customHeight="1" ht="17.65" r="171" s="2">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
@@ -6486,10 +6388,10 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="172" s="2">
-      <c r="A172" s="13" t="inlineStr"/>
-      <c r="B172" s="16" t="inlineStr"/>
-      <c r="C172" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="172" s="2">
+      <c r="A172" s="12" t="inlineStr"/>
+      <c r="B172" s="15" t="inlineStr"/>
+      <c r="C172" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -6518,10 +6420,10 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="173" s="2">
-      <c r="A173" s="13" t="inlineStr"/>
-      <c r="B173" s="16" t="inlineStr"/>
-      <c r="C173" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="173" s="2">
+      <c r="A173" s="12" t="inlineStr"/>
+      <c r="B173" s="15" t="inlineStr"/>
+      <c r="C173" s="16" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
@@ -6554,7 +6456,7 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="174" s="2">
+    <row customHeight="1" ht="17.65" r="174" s="2">
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
@@ -6590,10 +6492,10 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="175" s="2">
-      <c r="A175" s="13" t="inlineStr"/>
-      <c r="B175" s="16" t="inlineStr"/>
-      <c r="C175" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="175" s="2">
+      <c r="A175" s="12" t="inlineStr"/>
+      <c r="B175" s="15" t="inlineStr"/>
+      <c r="C175" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -6618,10 +6520,10 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="176" s="2">
-      <c r="A176" s="13" t="inlineStr"/>
-      <c r="B176" s="13" t="inlineStr"/>
-      <c r="C176" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="176" s="2">
+      <c r="A176" s="12" t="inlineStr"/>
+      <c r="B176" s="12" t="inlineStr"/>
+      <c r="C176" s="14" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
@@ -6658,7 +6560,7 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="177" s="2">
+    <row customHeight="1" ht="17.65" r="177" s="2">
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
@@ -6694,10 +6596,10 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="178" s="2">
-      <c r="A178" s="13" t="inlineStr"/>
-      <c r="B178" s="16" t="inlineStr"/>
-      <c r="C178" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="178" s="2">
+      <c r="A178" s="12" t="inlineStr"/>
+      <c r="B178" s="15" t="inlineStr"/>
+      <c r="C178" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -6726,10 +6628,10 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="179" s="2">
-      <c r="A179" s="13" t="inlineStr"/>
-      <c r="B179" s="16" t="inlineStr"/>
-      <c r="C179" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="179" s="2">
+      <c r="A179" s="12" t="inlineStr"/>
+      <c r="B179" s="15" t="inlineStr"/>
+      <c r="C179" s="16" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
@@ -6762,7 +6664,7 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="180" s="2">
+    <row customHeight="1" ht="17.65" r="180" s="2">
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
@@ -6798,10 +6700,10 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="181" s="2">
-      <c r="A181" s="13" t="inlineStr"/>
-      <c r="B181" s="16" t="inlineStr"/>
-      <c r="C181" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="181" s="2">
+      <c r="A181" s="12" t="inlineStr"/>
+      <c r="B181" s="15" t="inlineStr"/>
+      <c r="C181" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -6826,10 +6728,10 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="182" s="2">
-      <c r="A182" s="13" t="inlineStr"/>
-      <c r="B182" s="13" t="inlineStr"/>
-      <c r="C182" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="182" s="2">
+      <c r="A182" s="12" t="inlineStr"/>
+      <c r="B182" s="12" t="inlineStr"/>
+      <c r="C182" s="14" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
@@ -6866,7 +6768,7 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="183" s="2">
+    <row customHeight="1" ht="17.65" r="183" s="2">
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
@@ -6902,10 +6804,10 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="184" s="2">
-      <c r="A184" s="13" t="inlineStr"/>
-      <c r="B184" s="16" t="inlineStr"/>
-      <c r="C184" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="184" s="2">
+      <c r="A184" s="12" t="inlineStr"/>
+      <c r="B184" s="15" t="inlineStr"/>
+      <c r="C184" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -6934,10 +6836,10 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="185" s="2">
-      <c r="A185" s="13" t="inlineStr"/>
-      <c r="B185" s="16" t="inlineStr"/>
-      <c r="C185" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="185" s="2">
+      <c r="A185" s="12" t="inlineStr"/>
+      <c r="B185" s="15" t="inlineStr"/>
+      <c r="C185" s="16" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
@@ -6974,7 +6876,7 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="186" s="2">
+    <row customHeight="1" ht="17.65" r="186" s="2">
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
@@ -7010,10 +6912,10 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="187" s="2">
-      <c r="A187" s="13" t="inlineStr"/>
-      <c r="B187" s="16" t="inlineStr"/>
-      <c r="C187" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="187" s="2">
+      <c r="A187" s="12" t="inlineStr"/>
+      <c r="B187" s="15" t="inlineStr"/>
+      <c r="C187" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -7042,10 +6944,10 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="188" s="2">
-      <c r="A188" s="13" t="inlineStr"/>
-      <c r="B188" s="16" t="inlineStr"/>
-      <c r="C188" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="188" s="2">
+      <c r="A188" s="12" t="inlineStr"/>
+      <c r="B188" s="15" t="inlineStr"/>
+      <c r="C188" s="17" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
@@ -7078,7 +6980,7 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="189" s="2">
+    <row customHeight="1" ht="17.65" r="189" s="2">
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
@@ -7114,10 +7016,10 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="190" s="2">
-      <c r="A190" s="13" t="inlineStr"/>
-      <c r="B190" s="16" t="inlineStr"/>
-      <c r="C190" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="190" s="2">
+      <c r="A190" s="12" t="inlineStr"/>
+      <c r="B190" s="15" t="inlineStr"/>
+      <c r="C190" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -7142,10 +7044,10 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="191" s="2">
-      <c r="A191" s="13" t="inlineStr"/>
-      <c r="B191" s="16" t="inlineStr"/>
-      <c r="C191" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="191" s="2">
+      <c r="A191" s="12" t="inlineStr"/>
+      <c r="B191" s="15" t="inlineStr"/>
+      <c r="C191" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -7170,10 +7072,10 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="192" s="2">
-      <c r="A192" s="13" t="inlineStr"/>
-      <c r="B192" s="13" t="inlineStr"/>
-      <c r="C192" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="192" s="2">
+      <c r="A192" s="12" t="inlineStr"/>
+      <c r="B192" s="12" t="inlineStr"/>
+      <c r="C192" s="14" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
@@ -7210,7 +7112,7 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="193" s="2">
+    <row customHeight="1" ht="17.65" r="193" s="2">
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
@@ -7246,10 +7148,10 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="194" s="2">
-      <c r="A194" s="13" t="inlineStr"/>
-      <c r="B194" s="16" t="inlineStr"/>
-      <c r="C194" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="194" s="2">
+      <c r="A194" s="12" t="inlineStr"/>
+      <c r="B194" s="15" t="inlineStr"/>
+      <c r="C194" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -7278,10 +7180,10 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="195" s="2">
-      <c r="A195" s="13" t="inlineStr"/>
-      <c r="B195" s="16" t="inlineStr"/>
-      <c r="C195" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="195" s="2">
+      <c r="A195" s="12" t="inlineStr"/>
+      <c r="B195" s="15" t="inlineStr"/>
+      <c r="C195" s="16" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
@@ -7318,7 +7220,7 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="196" s="2">
+    <row customHeight="1" ht="17.65" r="196" s="2">
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
@@ -7354,10 +7256,10 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="197" s="2">
-      <c r="A197" s="13" t="inlineStr"/>
-      <c r="B197" s="16" t="inlineStr"/>
-      <c r="C197" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="197" s="2">
+      <c r="A197" s="12" t="inlineStr"/>
+      <c r="B197" s="15" t="inlineStr"/>
+      <c r="C197" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -7386,10 +7288,10 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="198" s="2">
-      <c r="A198" s="13" t="inlineStr"/>
-      <c r="B198" s="16" t="inlineStr"/>
-      <c r="C198" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="198" s="2">
+      <c r="A198" s="12" t="inlineStr"/>
+      <c r="B198" s="15" t="inlineStr"/>
+      <c r="C198" s="17" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
@@ -7422,7 +7324,7 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="199" s="2">
+    <row customHeight="1" ht="17.65" r="199" s="2">
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
@@ -7458,10 +7360,10 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="200" s="2">
-      <c r="A200" s="13" t="inlineStr"/>
-      <c r="B200" s="16" t="inlineStr"/>
-      <c r="C200" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="200" s="2">
+      <c r="A200" s="12" t="inlineStr"/>
+      <c r="B200" s="15" t="inlineStr"/>
+      <c r="C200" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -7486,10 +7388,10 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="201" s="2">
-      <c r="A201" s="13" t="inlineStr"/>
-      <c r="B201" s="16" t="inlineStr"/>
-      <c r="C201" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="201" s="2">
+      <c r="A201" s="12" t="inlineStr"/>
+      <c r="B201" s="15" t="inlineStr"/>
+      <c r="C201" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -7514,10 +7416,10 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="202" s="2">
-      <c r="A202" s="13" t="inlineStr"/>
-      <c r="B202" s="13" t="inlineStr"/>
-      <c r="C202" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="202" s="2">
+      <c r="A202" s="12" t="inlineStr"/>
+      <c r="B202" s="12" t="inlineStr"/>
+      <c r="C202" s="14" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
@@ -7554,7 +7456,7 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="203" s="2">
+    <row customHeight="1" ht="17.65" r="203" s="2">
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
@@ -7590,10 +7492,10 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="204" s="2">
-      <c r="A204" s="13" t="inlineStr"/>
-      <c r="B204" s="13" t="inlineStr"/>
-      <c r="C204" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="204" s="2">
+      <c r="A204" s="12" t="inlineStr"/>
+      <c r="B204" s="12" t="inlineStr"/>
+      <c r="C204" s="14" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
@@ -7630,7 +7532,7 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="205" s="2">
+    <row customHeight="1" ht="17.65" r="205" s="2">
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
@@ -7666,10 +7568,10 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="206" s="2">
-      <c r="A206" s="13" t="inlineStr"/>
-      <c r="B206" s="16" t="inlineStr"/>
-      <c r="C206" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="206" s="2">
+      <c r="A206" s="12" t="inlineStr"/>
+      <c r="B206" s="15" t="inlineStr"/>
+      <c r="C206" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -7698,10 +7600,10 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="207" s="2">
-      <c r="A207" s="13" t="inlineStr"/>
-      <c r="B207" s="16" t="inlineStr"/>
-      <c r="C207" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="207" s="2">
+      <c r="A207" s="12" t="inlineStr"/>
+      <c r="B207" s="15" t="inlineStr"/>
+      <c r="C207" s="16" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
@@ -7738,7 +7640,7 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="208" s="2">
+    <row customHeight="1" ht="17.65" r="208" s="2">
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
@@ -7774,10 +7676,10 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="209" s="2">
-      <c r="A209" s="13" t="inlineStr"/>
-      <c r="B209" s="16" t="inlineStr"/>
-      <c r="C209" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="209" s="2">
+      <c r="A209" s="12" t="inlineStr"/>
+      <c r="B209" s="15" t="inlineStr"/>
+      <c r="C209" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -7806,10 +7708,10 @@
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="210" s="2">
-      <c r="A210" s="13" t="inlineStr"/>
-      <c r="B210" s="16" t="inlineStr"/>
-      <c r="C210" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="210" s="2">
+      <c r="A210" s="12" t="inlineStr"/>
+      <c r="B210" s="15" t="inlineStr"/>
+      <c r="C210" s="17" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
@@ -7842,7 +7744,7 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="211" s="2">
+    <row customHeight="1" ht="17.65" r="211" s="2">
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
@@ -7878,10 +7780,10 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="212" s="2">
-      <c r="A212" s="13" t="inlineStr"/>
-      <c r="B212" s="16" t="inlineStr"/>
-      <c r="C212" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="212" s="2">
+      <c r="A212" s="12" t="inlineStr"/>
+      <c r="B212" s="15" t="inlineStr"/>
+      <c r="C212" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -7906,10 +7808,10 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="213" s="2">
-      <c r="A213" s="13" t="inlineStr"/>
-      <c r="B213" s="16" t="inlineStr"/>
-      <c r="C213" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="213" s="2">
+      <c r="A213" s="12" t="inlineStr"/>
+      <c r="B213" s="15" t="inlineStr"/>
+      <c r="C213" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -7934,10 +7836,10 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="214" s="2">
-      <c r="A214" s="13" t="inlineStr"/>
-      <c r="B214" s="13" t="inlineStr"/>
-      <c r="C214" s="15" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="214" s="2">
+      <c r="A214" s="12" t="inlineStr"/>
+      <c r="B214" s="12" t="inlineStr"/>
+      <c r="C214" s="14" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
@@ -7974,7 +7876,7 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="215" s="2">
+    <row customHeight="1" ht="17.65" r="215" s="2">
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
@@ -8010,10 +7912,10 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="216" s="2">
-      <c r="A216" s="13" t="inlineStr"/>
-      <c r="B216" s="16" t="inlineStr"/>
-      <c r="C216" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="216" s="2">
+      <c r="A216" s="12" t="inlineStr"/>
+      <c r="B216" s="15" t="inlineStr"/>
+      <c r="C216" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -8042,10 +7944,10 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="217" s="2">
-      <c r="A217" s="13" t="inlineStr"/>
-      <c r="B217" s="16" t="inlineStr"/>
-      <c r="C217" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="217" s="2">
+      <c r="A217" s="12" t="inlineStr"/>
+      <c r="B217" s="15" t="inlineStr"/>
+      <c r="C217" s="16" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
@@ -8082,7 +7984,7 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="218" s="2">
+    <row customHeight="1" ht="17.65" r="218" s="2">
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
@@ -8118,10 +8020,10 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="219" s="2">
-      <c r="A219" s="13" t="inlineStr"/>
-      <c r="B219" s="16" t="inlineStr"/>
-      <c r="C219" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="219" s="2">
+      <c r="A219" s="12" t="inlineStr"/>
+      <c r="B219" s="15" t="inlineStr"/>
+      <c r="C219" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -8150,10 +8052,10 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="220" s="2">
-      <c r="A220" s="13" t="inlineStr"/>
-      <c r="B220" s="16" t="inlineStr"/>
-      <c r="C220" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="220" s="2">
+      <c r="A220" s="12" t="inlineStr"/>
+      <c r="B220" s="15" t="inlineStr"/>
+      <c r="C220" s="17" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
@@ -8186,7 +8088,7 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="221" s="2">
+    <row customHeight="1" ht="17.65" r="221" s="2">
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
@@ -8222,10 +8124,10 @@
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="222" s="2">
-      <c r="A222" s="13" t="inlineStr"/>
-      <c r="B222" s="16" t="inlineStr"/>
-      <c r="C222" s="18" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="222" s="2">
+      <c r="A222" s="12" t="inlineStr"/>
+      <c r="B222" s="15" t="inlineStr"/>
+      <c r="C222" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -8250,10 +8152,10 @@
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="223" s="2">
-      <c r="A223" s="13" t="inlineStr"/>
-      <c r="B223" s="16" t="inlineStr"/>
-      <c r="C223" s="17" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="223" s="2">
+      <c r="A223" s="12" t="inlineStr"/>
+      <c r="B223" s="15" t="inlineStr"/>
+      <c r="C223" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -8278,10 +8180,10 @@
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="224" s="2">
-      <c r="A224" s="13" t="inlineStr"/>
-      <c r="B224" s="13" t="inlineStr"/>
-      <c r="C224" s="15" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="224" s="2">
+      <c r="A224" s="12" t="inlineStr"/>
+      <c r="B224" s="12" t="inlineStr"/>
+      <c r="C224" s="14" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -8306,7 +8208,7 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="225" s="2">
+    <row customHeight="1" ht="17.65" r="225" s="2">
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr"/>
@@ -8330,7 +8232,7 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="226" s="2">
+    <row customHeight="1" ht="17.65" r="226" s="2">
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
@@ -8354,7 +8256,7 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="227" s="2">
+    <row customHeight="1" ht="17.65" r="227" s="2">
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
@@ -8378,7 +8280,7 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="228" s="2">
+    <row customHeight="1" ht="17.65" r="228" s="2">
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
@@ -8402,7 +8304,7 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="229" s="2">
+    <row customHeight="1" ht="17.65" r="229" s="2">
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr"/>
@@ -8442,7 +8344,7 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="230" s="2">
+    <row customHeight="1" ht="17.65" r="230" s="2">
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
@@ -8478,7 +8380,7 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="231" s="2">
+    <row customHeight="1" ht="17.65" r="231" s="2">
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
@@ -8502,7 +8404,7 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="232" s="2">
+    <row customHeight="1" ht="12.75" r="232" s="2">
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
@@ -8526,19 +8428,19 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="233" s="2">
+    <row customHeight="1" ht="12.75" r="233" s="2">
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
-      <c r="F233" s="14" t="inlineStr">
+      <c r="F233" s="13" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" s="13" t="inlineStr">
+      <c r="H233" s="12" t="inlineStr">
         <is>
           <t>SECTION C</t>
         </is>
@@ -8558,7 +8460,7 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="234" s="2">
+    <row customHeight="1" ht="12.75" r="234" s="2">
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr"/>
@@ -8582,7 +8484,7 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="235" s="2">
+    <row customHeight="1" ht="17.65" r="235" s="2">
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
@@ -8622,7 +8524,7 @@
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="236" s="2">
+    <row customHeight="1" ht="12.75" r="236" s="2">
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
@@ -8658,7 +8560,7 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="237" s="2">
+    <row customHeight="1" ht="12.75" r="237" s="2">
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
@@ -8682,10 +8584,10 @@
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="238" s="2">
-      <c r="A238" s="19" t="inlineStr"/>
-      <c r="B238" s="19" t="inlineStr"/>
-      <c r="C238" s="19" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="238" s="2">
+      <c r="A238" s="18" t="inlineStr"/>
+      <c r="B238" s="18" t="inlineStr"/>
+      <c r="C238" s="18" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -8714,10 +8616,10 @@
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="239" s="2">
-      <c r="A239" s="19" t="inlineStr"/>
-      <c r="B239" s="19" t="inlineStr"/>
-      <c r="C239" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="239" s="2">
+      <c r="A239" s="18" t="inlineStr"/>
+      <c r="B239" s="18" t="inlineStr"/>
+      <c r="C239" s="18" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
@@ -8754,7 +8656,7 @@
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="240" s="2">
+    <row customHeight="1" ht="17.65" r="240" s="2">
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
@@ -8790,10 +8692,10 @@
       <c r="U240" t="inlineStr"/>
       <c r="V240" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="241" s="2">
-      <c r="A241" s="19" t="inlineStr"/>
-      <c r="B241" s="19" t="inlineStr"/>
-      <c r="C241" s="20" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="241" s="2">
+      <c r="A241" s="18" t="inlineStr"/>
+      <c r="B241" s="18" t="inlineStr"/>
+      <c r="C241" s="19" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -8822,10 +8724,10 @@
       <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="242" s="2">
-      <c r="A242" s="19" t="inlineStr"/>
-      <c r="B242" s="19" t="inlineStr"/>
-      <c r="C242" s="20" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="242" s="2">
+      <c r="A242" s="18" t="inlineStr"/>
+      <c r="B242" s="18" t="inlineStr"/>
+      <c r="C242" s="19" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
@@ -8858,7 +8760,7 @@
       <c r="U242" t="inlineStr"/>
       <c r="V242" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="243" s="2">
+    <row customHeight="1" ht="17.65" r="243" s="2">
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr"/>
@@ -8894,10 +8796,10 @@
       <c r="U243" t="inlineStr"/>
       <c r="V243" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="244" s="2">
-      <c r="A244" s="19" t="inlineStr"/>
-      <c r="B244" s="19" t="inlineStr"/>
-      <c r="C244" s="20" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="244" s="2">
+      <c r="A244" s="18" t="inlineStr"/>
+      <c r="B244" s="18" t="inlineStr"/>
+      <c r="C244" s="19" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -8922,10 +8824,10 @@
       <c r="U244" t="inlineStr"/>
       <c r="V244" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="245" s="2">
-      <c r="A245" s="19" t="inlineStr"/>
-      <c r="B245" s="19" t="inlineStr"/>
-      <c r="C245" s="21" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="245" s="2">
+      <c r="A245" s="18" t="inlineStr"/>
+      <c r="B245" s="18" t="inlineStr"/>
+      <c r="C245" s="20" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -8954,10 +8856,10 @@
       <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="246" s="2">
-      <c r="A246" s="19" t="inlineStr"/>
-      <c r="B246" s="19" t="inlineStr"/>
-      <c r="C246" s="21" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="246" s="2">
+      <c r="A246" s="18" t="inlineStr"/>
+      <c r="B246" s="18" t="inlineStr"/>
+      <c r="C246" s="20" t="inlineStr"/>
       <c r="D246" s="5" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
@@ -8990,7 +8892,7 @@
       <c r="U246" t="inlineStr"/>
       <c r="V246" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="247" s="2">
+    <row customHeight="1" ht="17.65" r="247" s="2">
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr"/>
@@ -9026,10 +8928,10 @@
       <c r="U247" t="inlineStr"/>
       <c r="V247" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="248" s="2">
-      <c r="A248" s="19" t="inlineStr"/>
-      <c r="B248" s="19" t="inlineStr"/>
-      <c r="C248" s="21" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="248" s="2">
+      <c r="A248" s="18" t="inlineStr"/>
+      <c r="B248" s="18" t="inlineStr"/>
+      <c r="C248" s="20" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -9054,10 +8956,10 @@
       <c r="U248" t="inlineStr"/>
       <c r="V248" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="249" s="2">
-      <c r="A249" s="19" t="inlineStr"/>
-      <c r="B249" s="19" t="inlineStr"/>
-      <c r="C249" s="20" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="249" s="2">
+      <c r="A249" s="18" t="inlineStr"/>
+      <c r="B249" s="18" t="inlineStr"/>
+      <c r="C249" s="19" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -9086,10 +8988,10 @@
       <c r="U249" t="inlineStr"/>
       <c r="V249" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="250" s="2">
-      <c r="A250" s="19" t="inlineStr"/>
-      <c r="B250" s="19" t="inlineStr"/>
-      <c r="C250" s="20" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="250" s="2">
+      <c r="A250" s="18" t="inlineStr"/>
+      <c r="B250" s="18" t="inlineStr"/>
+      <c r="C250" s="19" t="inlineStr"/>
       <c r="D250" s="5" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
@@ -9122,7 +9024,7 @@
       <c r="U250" t="inlineStr"/>
       <c r="V250" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="251" s="2">
+    <row customHeight="1" ht="17.65" r="251" s="2">
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
@@ -9158,10 +9060,10 @@
       <c r="U251" t="inlineStr"/>
       <c r="V251" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="252" s="2">
-      <c r="A252" s="19" t="inlineStr"/>
-      <c r="B252" s="19" t="inlineStr"/>
-      <c r="C252" s="20" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="252" s="2">
+      <c r="A252" s="18" t="inlineStr"/>
+      <c r="B252" s="18" t="inlineStr"/>
+      <c r="C252" s="19" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -9186,10 +9088,10 @@
       <c r="U252" t="inlineStr"/>
       <c r="V252" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="253" s="2">
-      <c r="A253" s="19" t="inlineStr"/>
-      <c r="B253" s="19" t="inlineStr"/>
-      <c r="C253" s="21" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="253" s="2">
+      <c r="A253" s="18" t="inlineStr"/>
+      <c r="B253" s="18" t="inlineStr"/>
+      <c r="C253" s="20" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -9218,10 +9120,10 @@
       <c r="U253" t="inlineStr"/>
       <c r="V253" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="254" s="2">
-      <c r="A254" s="19" t="inlineStr"/>
-      <c r="B254" s="19" t="inlineStr"/>
-      <c r="C254" s="21" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="254" s="2">
+      <c r="A254" s="18" t="inlineStr"/>
+      <c r="B254" s="18" t="inlineStr"/>
+      <c r="C254" s="20" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
@@ -9254,7 +9156,7 @@
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="255" s="2">
+    <row customHeight="1" ht="17.65" r="255" s="2">
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr"/>
@@ -9290,10 +9192,10 @@
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="256" s="2">
-      <c r="A256" s="19" t="inlineStr"/>
-      <c r="B256" s="19" t="inlineStr"/>
-      <c r="C256" s="21" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="256" s="2">
+      <c r="A256" s="18" t="inlineStr"/>
+      <c r="B256" s="18" t="inlineStr"/>
+      <c r="C256" s="20" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -9318,10 +9220,10 @@
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="257" s="2">
-      <c r="A257" s="19" t="inlineStr"/>
-      <c r="B257" s="19" t="inlineStr"/>
-      <c r="C257" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="257" s="2">
+      <c r="A257" s="18" t="inlineStr"/>
+      <c r="B257" s="18" t="inlineStr"/>
+      <c r="C257" s="18" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
@@ -9358,7 +9260,7 @@
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="258" s="2">
+    <row customHeight="1" ht="17.65" r="258" s="2">
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr"/>
@@ -9394,10 +9296,10 @@
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="259" s="2">
-      <c r="A259" s="19" t="inlineStr"/>
-      <c r="B259" s="19" t="inlineStr"/>
-      <c r="C259" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="259" s="2">
+      <c r="A259" s="18" t="inlineStr"/>
+      <c r="B259" s="18" t="inlineStr"/>
+      <c r="C259" s="18" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
@@ -9430,7 +9332,7 @@
       <c r="U259" t="inlineStr"/>
       <c r="V259" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="260" s="2">
+    <row customHeight="1" ht="17.65" r="260" s="2">
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr"/>
@@ -9466,10 +9368,10 @@
       <c r="U260" t="inlineStr"/>
       <c r="V260" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="261" s="2">
-      <c r="A261" s="19" t="inlineStr"/>
-      <c r="B261" s="19" t="inlineStr"/>
-      <c r="C261" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="261" s="2">
+      <c r="A261" s="18" t="inlineStr"/>
+      <c r="B261" s="18" t="inlineStr"/>
+      <c r="C261" s="18" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
@@ -9506,7 +9408,7 @@
       <c r="U261" t="inlineStr"/>
       <c r="V261" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="262" s="2">
+    <row customHeight="1" ht="17.65" r="262" s="2">
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
@@ -9542,10 +9444,10 @@
       <c r="U262" t="inlineStr"/>
       <c r="V262" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="263" s="2">
-      <c r="A263" s="19" t="inlineStr"/>
-      <c r="B263" s="19" t="inlineStr"/>
-      <c r="C263" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="263" s="2">
+      <c r="A263" s="18" t="inlineStr"/>
+      <c r="B263" s="18" t="inlineStr"/>
+      <c r="C263" s="18" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
@@ -9582,7 +9484,7 @@
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="264" s="2">
+    <row customHeight="1" ht="17.65" r="264" s="2">
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr"/>
@@ -9618,10 +9520,10 @@
       <c r="U264" t="inlineStr"/>
       <c r="V264" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="265" s="2">
-      <c r="A265" s="19" t="inlineStr"/>
-      <c r="B265" s="19" t="inlineStr"/>
-      <c r="C265" s="20" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="265" s="2">
+      <c r="A265" s="18" t="inlineStr"/>
+      <c r="B265" s="18" t="inlineStr"/>
+      <c r="C265" s="19" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -9650,10 +9552,10 @@
       <c r="U265" t="inlineStr"/>
       <c r="V265" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="266" s="2">
-      <c r="A266" s="19" t="inlineStr"/>
-      <c r="B266" s="19" t="inlineStr"/>
-      <c r="C266" s="20" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="266" s="2">
+      <c r="A266" s="18" t="inlineStr"/>
+      <c r="B266" s="18" t="inlineStr"/>
+      <c r="C266" s="19" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
@@ -9690,7 +9592,7 @@
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="267" s="2">
+    <row customHeight="1" ht="17.65" r="267" s="2">
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
@@ -9726,10 +9628,10 @@
       <c r="U267" t="inlineStr"/>
       <c r="V267" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="268" s="2">
-      <c r="A268" s="19" t="inlineStr"/>
-      <c r="B268" s="19" t="inlineStr"/>
-      <c r="C268" s="20" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="268" s="2">
+      <c r="A268" s="18" t="inlineStr"/>
+      <c r="B268" s="18" t="inlineStr"/>
+      <c r="C268" s="19" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -9754,10 +9656,10 @@
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="269" s="2">
-      <c r="A269" s="19" t="inlineStr"/>
-      <c r="B269" s="19" t="inlineStr"/>
-      <c r="C269" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="269" s="2">
+      <c r="A269" s="18" t="inlineStr"/>
+      <c r="B269" s="18" t="inlineStr"/>
+      <c r="C269" s="18" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
@@ -9778,10 +9680,10 @@
       <c r="U269" t="inlineStr"/>
       <c r="V269" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="270" s="2">
-      <c r="A270" s="19" t="inlineStr"/>
-      <c r="B270" s="19" t="inlineStr"/>
-      <c r="C270" s="19" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="270" s="2">
+      <c r="A270" s="18" t="inlineStr"/>
+      <c r="B270" s="18" t="inlineStr"/>
+      <c r="C270" s="18" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
       <c r="E270" s="5" t="inlineStr">
         <is>
@@ -9818,7 +9720,7 @@
       <c r="U270" t="inlineStr"/>
       <c r="V270" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="271" s="2">
+    <row customHeight="1" ht="17.65" r="271" s="2">
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
@@ -9854,10 +9756,10 @@
       <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="272" s="2">
-      <c r="A272" s="19" t="inlineStr"/>
-      <c r="B272" s="19" t="inlineStr"/>
-      <c r="C272" s="21" t="inlineStr">
+    <row customHeight="1" ht="17.65" r="272" s="2">
+      <c r="A272" s="18" t="inlineStr"/>
+      <c r="B272" s="18" t="inlineStr"/>
+      <c r="C272" s="20" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -9886,10 +9788,10 @@
       <c r="U272" t="inlineStr"/>
       <c r="V272" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="17.7" r="273" s="2">
-      <c r="A273" s="19" t="inlineStr"/>
-      <c r="B273" s="19" t="inlineStr"/>
-      <c r="C273" s="21" t="inlineStr"/>
+    <row customHeight="1" ht="17.65" r="273" s="2">
+      <c r="A273" s="18" t="inlineStr"/>
+      <c r="B273" s="18" t="inlineStr"/>
+      <c r="C273" s="20" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
@@ -9959,9 +9861,9 @@
       <c r="V274" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="275" s="2">
-      <c r="A275" s="19" t="inlineStr"/>
-      <c r="B275" s="19" t="inlineStr"/>
-      <c r="C275" s="21" t="inlineStr">
+      <c r="A275" s="18" t="inlineStr"/>
+      <c r="B275" s="18" t="inlineStr"/>
+      <c r="C275" s="20" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -9987,9 +9889,9 @@
       <c r="V275" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="276" s="2">
-      <c r="A276" s="19" t="inlineStr"/>
-      <c r="B276" s="19" t="inlineStr"/>
-      <c r="C276" s="19" t="inlineStr"/>
+      <c r="A276" s="18" t="inlineStr"/>
+      <c r="B276" s="18" t="inlineStr"/>
+      <c r="C276" s="18" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
       <c r="E276" s="5" t="inlineStr">
         <is>
@@ -10063,9 +9965,9 @@
       <c r="V277" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="278" s="2">
-      <c r="A278" s="19" t="inlineStr"/>
-      <c r="B278" s="19" t="inlineStr"/>
-      <c r="C278" s="19" t="inlineStr"/>
+      <c r="A278" s="18" t="inlineStr"/>
+      <c r="B278" s="18" t="inlineStr"/>
+      <c r="C278" s="18" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
@@ -10087,9 +9989,9 @@
       <c r="V278" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="279" s="2">
-      <c r="A279" s="19" t="inlineStr"/>
-      <c r="B279" s="13" t="inlineStr"/>
-      <c r="C279" s="13" t="inlineStr">
+      <c r="A279" s="18" t="inlineStr"/>
+      <c r="B279" s="12" t="inlineStr"/>
+      <c r="C279" s="12" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -10119,9 +10021,9 @@
       <c r="V279" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="280" s="2">
-      <c r="A280" s="19" t="inlineStr"/>
-      <c r="B280" s="13" t="inlineStr"/>
-      <c r="C280" s="13" t="inlineStr"/>
+      <c r="A280" s="18" t="inlineStr"/>
+      <c r="B280" s="12" t="inlineStr"/>
+      <c r="C280" s="12" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
       <c r="E280" s="5" t="inlineStr">
         <is>
@@ -10195,9 +10097,9 @@
       <c r="V281" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="282" s="2">
-      <c r="A282" s="19" t="inlineStr"/>
-      <c r="B282" s="13" t="inlineStr"/>
-      <c r="C282" s="17" t="inlineStr">
+      <c r="A282" s="18" t="inlineStr"/>
+      <c r="B282" s="12" t="inlineStr"/>
+      <c r="C282" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -10227,9 +10129,9 @@
       <c r="V282" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="283" s="2">
-      <c r="A283" s="19" t="inlineStr"/>
-      <c r="B283" s="13" t="inlineStr"/>
-      <c r="C283" s="17" t="inlineStr"/>
+      <c r="A283" s="18" t="inlineStr"/>
+      <c r="B283" s="12" t="inlineStr"/>
+      <c r="C283" s="16" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
       <c r="E283" s="5" t="inlineStr">
         <is>
@@ -10303,9 +10205,9 @@
       <c r="V284" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="285" s="2">
-      <c r="A285" s="19" t="inlineStr"/>
-      <c r="B285" s="13" t="inlineStr"/>
-      <c r="C285" s="17" t="inlineStr">
+      <c r="A285" s="18" t="inlineStr"/>
+      <c r="B285" s="12" t="inlineStr"/>
+      <c r="C285" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -10335,9 +10237,9 @@
       <c r="V285" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="286" s="2">
-      <c r="A286" s="19" t="inlineStr"/>
-      <c r="B286" s="13" t="inlineStr"/>
-      <c r="C286" s="17" t="inlineStr"/>
+      <c r="A286" s="18" t="inlineStr"/>
+      <c r="B286" s="12" t="inlineStr"/>
+      <c r="C286" s="16" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
@@ -10407,9 +10309,9 @@
       <c r="V287" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="288" s="2">
-      <c r="A288" s="19" t="inlineStr"/>
-      <c r="B288" s="13" t="inlineStr"/>
-      <c r="C288" s="17" t="inlineStr">
+      <c r="A288" s="18" t="inlineStr"/>
+      <c r="B288" s="12" t="inlineStr"/>
+      <c r="C288" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -10435,9 +10337,9 @@
       <c r="V288" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="289" s="2">
-      <c r="A289" s="19" t="inlineStr"/>
-      <c r="B289" s="13" t="inlineStr"/>
-      <c r="C289" s="17" t="inlineStr">
+      <c r="A289" s="18" t="inlineStr"/>
+      <c r="B289" s="12" t="inlineStr"/>
+      <c r="C289" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -10463,9 +10365,9 @@
       <c r="V289" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="290" s="2">
-      <c r="A290" s="19" t="inlineStr"/>
-      <c r="B290" s="13" t="inlineStr"/>
-      <c r="C290" s="22" t="inlineStr">
+      <c r="A290" s="18" t="inlineStr"/>
+      <c r="B290" s="12" t="inlineStr"/>
+      <c r="C290" s="21" t="inlineStr">
         <is>
           <t>begin screen</t>
         </is>
@@ -10491,9 +10393,9 @@
       <c r="V290" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="291" s="2">
-      <c r="A291" s="19" t="inlineStr"/>
-      <c r="B291" s="13" t="inlineStr"/>
-      <c r="C291" s="22" t="inlineStr"/>
+      <c r="A291" s="18" t="inlineStr"/>
+      <c r="B291" s="12" t="inlineStr"/>
+      <c r="C291" s="21" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
@@ -10535,9 +10437,9 @@
       <c r="V291" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="292" s="2">
-      <c r="A292" s="19" t="inlineStr"/>
-      <c r="B292" s="13" t="inlineStr"/>
-      <c r="C292" s="22" t="inlineStr"/>
+      <c r="A292" s="18" t="inlineStr"/>
+      <c r="B292" s="12" t="inlineStr"/>
+      <c r="C292" s="21" t="inlineStr"/>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
@@ -10579,9 +10481,9 @@
       <c r="V292" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="293" s="2">
-      <c r="A293" s="19" t="inlineStr"/>
-      <c r="B293" s="13" t="inlineStr"/>
-      <c r="C293" s="22" t="inlineStr"/>
+      <c r="A293" s="18" t="inlineStr"/>
+      <c r="B293" s="12" t="inlineStr"/>
+      <c r="C293" s="21" t="inlineStr"/>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
@@ -10623,9 +10525,9 @@
       <c r="V293" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="294" s="2">
-      <c r="A294" s="19" t="inlineStr"/>
-      <c r="B294" s="13" t="inlineStr"/>
-      <c r="C294" s="22" t="inlineStr"/>
+      <c r="A294" s="18" t="inlineStr"/>
+      <c r="B294" s="12" t="inlineStr"/>
+      <c r="C294" s="21" t="inlineStr"/>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
@@ -10667,9 +10569,9 @@
       <c r="V294" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="295" s="2">
-      <c r="A295" s="19" t="inlineStr"/>
-      <c r="B295" s="13" t="inlineStr"/>
-      <c r="C295" s="22" t="inlineStr">
+      <c r="A295" s="18" t="inlineStr"/>
+      <c r="B295" s="12" t="inlineStr"/>
+      <c r="C295" s="21" t="inlineStr">
         <is>
           <t>end screen</t>
         </is>
@@ -10839,9 +10741,9 @@
       <c r="V299" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="300" s="2">
-      <c r="A300" s="19" t="inlineStr"/>
-      <c r="B300" s="13" t="inlineStr"/>
-      <c r="C300" s="13" t="inlineStr"/>
+      <c r="A300" s="18" t="inlineStr"/>
+      <c r="B300" s="12" t="inlineStr"/>
+      <c r="C300" s="12" t="inlineStr"/>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
@@ -10919,9 +10821,9 @@
       <c r="V301" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="302" s="2">
-      <c r="A302" s="19" t="inlineStr"/>
-      <c r="B302" s="13" t="inlineStr"/>
-      <c r="C302" s="13" t="inlineStr"/>
+      <c r="A302" s="18" t="inlineStr"/>
+      <c r="B302" s="12" t="inlineStr"/>
+      <c r="C302" s="12" t="inlineStr"/>
       <c r="D302" s="5" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
@@ -10995,9 +10897,9 @@
       <c r="V303" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="304" s="2">
-      <c r="A304" s="19" t="inlineStr"/>
-      <c r="B304" s="13" t="inlineStr"/>
-      <c r="C304" s="17" t="inlineStr">
+      <c r="A304" s="18" t="inlineStr"/>
+      <c r="B304" s="12" t="inlineStr"/>
+      <c r="C304" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -11027,9 +10929,9 @@
       <c r="V304" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="305" s="2">
-      <c r="A305" s="19" t="inlineStr"/>
-      <c r="B305" s="13" t="inlineStr"/>
-      <c r="C305" s="17" t="inlineStr"/>
+      <c r="A305" s="18" t="inlineStr"/>
+      <c r="B305" s="12" t="inlineStr"/>
+      <c r="C305" s="16" t="inlineStr"/>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
@@ -11099,9 +11001,9 @@
       <c r="V306" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="307" s="2">
-      <c r="A307" s="19" t="inlineStr"/>
-      <c r="B307" s="13" t="inlineStr"/>
-      <c r="C307" s="17" t="inlineStr"/>
+      <c r="A307" s="18" t="inlineStr"/>
+      <c r="B307" s="12" t="inlineStr"/>
+      <c r="C307" s="16" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
@@ -11171,9 +11073,9 @@
       <c r="V308" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="309" s="2">
-      <c r="A309" s="19" t="inlineStr"/>
-      <c r="B309" s="13" t="inlineStr"/>
-      <c r="C309" s="17" t="inlineStr"/>
+      <c r="A309" s="18" t="inlineStr"/>
+      <c r="B309" s="12" t="inlineStr"/>
+      <c r="C309" s="16" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" s="5" t="inlineStr">
         <is>
@@ -11247,9 +11149,9 @@
       <c r="V310" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="311" s="2">
-      <c r="A311" s="19" t="inlineStr"/>
-      <c r="B311" s="13" t="inlineStr"/>
-      <c r="C311" s="17" t="inlineStr">
+      <c r="A311" s="18" t="inlineStr"/>
+      <c r="B311" s="12" t="inlineStr"/>
+      <c r="C311" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -11275,9 +11177,9 @@
       <c r="V311" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="312" s="2">
-      <c r="A312" s="19" t="inlineStr"/>
-      <c r="B312" s="13" t="inlineStr"/>
-      <c r="C312" s="13" t="inlineStr">
+      <c r="A312" s="18" t="inlineStr"/>
+      <c r="B312" s="12" t="inlineStr"/>
+      <c r="C312" s="12" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -11303,9 +11205,9 @@
       <c r="V312" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="313" s="2">
-      <c r="A313" s="19" t="inlineStr"/>
-      <c r="B313" s="19" t="inlineStr"/>
-      <c r="C313" s="19" t="inlineStr"/>
+      <c r="A313" s="18" t="inlineStr"/>
+      <c r="B313" s="18" t="inlineStr"/>
+      <c r="C313" s="18" t="inlineStr"/>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
@@ -11375,9 +11277,9 @@
       <c r="V314" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="315" s="2">
-      <c r="A315" s="19" t="inlineStr"/>
-      <c r="B315" s="19" t="inlineStr"/>
-      <c r="C315" s="19" t="inlineStr"/>
+      <c r="A315" s="18" t="inlineStr"/>
+      <c r="B315" s="18" t="inlineStr"/>
+      <c r="C315" s="18" t="inlineStr"/>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
@@ -11451,9 +11353,9 @@
       <c r="V316" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="317" s="2">
-      <c r="A317" s="19" t="inlineStr"/>
-      <c r="B317" s="19" t="inlineStr"/>
-      <c r="C317" s="19" t="inlineStr"/>
+      <c r="A317" s="18" t="inlineStr"/>
+      <c r="B317" s="18" t="inlineStr"/>
+      <c r="C317" s="18" t="inlineStr"/>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
@@ -11527,9 +11429,9 @@
       <c r="V318" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="319" s="2">
-      <c r="A319" s="19" t="inlineStr"/>
-      <c r="B319" s="23" t="inlineStr"/>
-      <c r="C319" s="23" t="inlineStr">
+      <c r="A319" s="18" t="inlineStr"/>
+      <c r="B319" s="22" t="inlineStr"/>
+      <c r="C319" s="22" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -11559,9 +11461,9 @@
       <c r="V319" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="320" s="2">
-      <c r="A320" s="19" t="inlineStr"/>
-      <c r="B320" s="23" t="inlineStr"/>
-      <c r="C320" s="23" t="inlineStr"/>
+      <c r="A320" s="18" t="inlineStr"/>
+      <c r="B320" s="22" t="inlineStr"/>
+      <c r="C320" s="22" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
       <c r="E320" s="5" t="inlineStr">
         <is>
@@ -11635,9 +11537,9 @@
       <c r="V321" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="322" s="2">
-      <c r="A322" s="19" t="inlineStr"/>
-      <c r="B322" s="23" t="inlineStr"/>
-      <c r="C322" s="24" t="inlineStr">
+      <c r="A322" s="18" t="inlineStr"/>
+      <c r="B322" s="22" t="inlineStr"/>
+      <c r="C322" s="23" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -11667,9 +11569,9 @@
       <c r="V322" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="323" s="2">
-      <c r="A323" s="19" t="inlineStr"/>
-      <c r="B323" s="23" t="inlineStr"/>
-      <c r="C323" s="24" t="inlineStr"/>
+      <c r="A323" s="18" t="inlineStr"/>
+      <c r="B323" s="22" t="inlineStr"/>
+      <c r="C323" s="23" t="inlineStr"/>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
@@ -11739,9 +11641,9 @@
       <c r="V324" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="325" s="2">
-      <c r="A325" s="19" t="inlineStr"/>
-      <c r="B325" s="23" t="inlineStr"/>
-      <c r="C325" s="24" t="inlineStr">
+      <c r="A325" s="18" t="inlineStr"/>
+      <c r="B325" s="22" t="inlineStr"/>
+      <c r="C325" s="23" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -11767,9 +11669,9 @@
       <c r="V325" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="326" s="2">
-      <c r="A326" s="19" t="inlineStr"/>
-      <c r="B326" s="23" t="inlineStr"/>
-      <c r="C326" s="23" t="inlineStr"/>
+      <c r="A326" s="18" t="inlineStr"/>
+      <c r="B326" s="22" t="inlineStr"/>
+      <c r="C326" s="22" t="inlineStr"/>
       <c r="D326" s="5" t="inlineStr"/>
       <c r="E326" s="5" t="inlineStr">
         <is>
@@ -11843,9 +11745,9 @@
       <c r="V327" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="328" s="2">
-      <c r="A328" s="19" t="inlineStr"/>
-      <c r="B328" s="23" t="inlineStr"/>
-      <c r="C328" s="23" t="inlineStr">
+      <c r="A328" s="18" t="inlineStr"/>
+      <c r="B328" s="22" t="inlineStr"/>
+      <c r="C328" s="22" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -11871,9 +11773,9 @@
       <c r="V328" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="329" s="2">
-      <c r="A329" s="19" t="inlineStr"/>
-      <c r="B329" s="19" t="inlineStr"/>
-      <c r="C329" s="19" t="inlineStr">
+      <c r="A329" s="18" t="inlineStr"/>
+      <c r="B329" s="18" t="inlineStr"/>
+      <c r="C329" s="18" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -12175,9 +12077,9 @@
       <c r="V338" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="339" s="2">
-      <c r="A339" s="13" t="inlineStr"/>
-      <c r="B339" s="13" t="inlineStr"/>
-      <c r="C339" s="13" t="inlineStr">
+      <c r="A339" s="12" t="inlineStr"/>
+      <c r="B339" s="12" t="inlineStr"/>
+      <c r="C339" s="12" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -12215,9 +12117,9 @@
       <c r="V339" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="340" s="2">
-      <c r="A340" s="13" t="inlineStr"/>
-      <c r="B340" s="13" t="inlineStr"/>
-      <c r="C340" s="13" t="inlineStr"/>
+      <c r="A340" s="12" t="inlineStr"/>
+      <c r="B340" s="12" t="inlineStr"/>
+      <c r="C340" s="12" t="inlineStr"/>
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
@@ -12239,9 +12141,9 @@
       <c r="V340" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="341" s="2">
-      <c r="A341" s="13" t="inlineStr"/>
-      <c r="B341" s="13" t="inlineStr"/>
-      <c r="C341" s="13" t="inlineStr"/>
+      <c r="A341" s="12" t="inlineStr"/>
+      <c r="B341" s="12" t="inlineStr"/>
+      <c r="C341" s="12" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
@@ -12319,9 +12221,9 @@
       <c r="V342" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="343" s="2">
-      <c r="A343" s="22" t="inlineStr"/>
-      <c r="B343" s="22" t="inlineStr"/>
-      <c r="C343" s="22" t="inlineStr">
+      <c r="A343" s="21" t="inlineStr"/>
+      <c r="B343" s="21" t="inlineStr"/>
+      <c r="C343" s="21" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -12351,9 +12253,9 @@
       <c r="V343" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="344" s="2">
-      <c r="A344" s="22" t="inlineStr"/>
-      <c r="B344" s="22" t="inlineStr"/>
-      <c r="C344" s="22" t="inlineStr"/>
+      <c r="A344" s="21" t="inlineStr"/>
+      <c r="B344" s="21" t="inlineStr"/>
+      <c r="C344" s="21" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
       <c r="E344" s="5" t="inlineStr">
         <is>
@@ -12427,9 +12329,9 @@
       <c r="V345" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="346" s="2">
-      <c r="A346" s="22" t="inlineStr"/>
-      <c r="B346" s="22" t="inlineStr"/>
-      <c r="C346" s="22" t="inlineStr"/>
+      <c r="A346" s="21" t="inlineStr"/>
+      <c r="B346" s="21" t="inlineStr"/>
+      <c r="C346" s="21" t="inlineStr"/>
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
@@ -12451,9 +12353,9 @@
       <c r="V346" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="347" s="2">
-      <c r="A347" s="22" t="inlineStr"/>
-      <c r="B347" s="17" t="inlineStr"/>
-      <c r="C347" s="17" t="inlineStr">
+      <c r="A347" s="21" t="inlineStr"/>
+      <c r="B347" s="16" t="inlineStr"/>
+      <c r="C347" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -12491,9 +12393,9 @@
       <c r="V347" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="348" s="2">
-      <c r="A348" s="22" t="inlineStr"/>
-      <c r="B348" s="17" t="inlineStr"/>
-      <c r="C348" s="17" t="inlineStr"/>
+      <c r="A348" s="21" t="inlineStr"/>
+      <c r="B348" s="16" t="inlineStr"/>
+      <c r="C348" s="16" t="inlineStr"/>
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
@@ -12523,9 +12425,9 @@
       <c r="V348" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="349" s="2">
-      <c r="A349" s="22" t="inlineStr"/>
-      <c r="B349" s="17" t="inlineStr"/>
-      <c r="C349" s="17" t="inlineStr"/>
+      <c r="A349" s="21" t="inlineStr"/>
+      <c r="B349" s="16" t="inlineStr"/>
+      <c r="C349" s="16" t="inlineStr"/>
       <c r="D349" t="inlineStr"/>
       <c r="E349" s="5" t="inlineStr">
         <is>
@@ -12598,10 +12500,10 @@
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="351" s="2">
-      <c r="A351" s="22" t="inlineStr"/>
-      <c r="B351" s="17" t="inlineStr"/>
-      <c r="C351" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="351" s="2">
+      <c r="A351" s="21" t="inlineStr"/>
+      <c r="B351" s="16" t="inlineStr"/>
+      <c r="C351" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -12630,10 +12532,10 @@
       <c r="U351" t="inlineStr"/>
       <c r="V351" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="352" s="2">
-      <c r="A352" s="22" t="inlineStr"/>
-      <c r="B352" s="17" t="inlineStr"/>
-      <c r="C352" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="352" s="2">
+      <c r="A352" s="21" t="inlineStr"/>
+      <c r="B352" s="16" t="inlineStr"/>
+      <c r="C352" s="17" t="inlineStr"/>
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
@@ -12666,7 +12568,7 @@
       <c r="U352" t="inlineStr"/>
       <c r="V352" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="353" s="2">
+    <row customHeight="1" ht="12.75" r="353" s="2">
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
@@ -12702,10 +12604,10 @@
       <c r="U353" t="inlineStr"/>
       <c r="V353" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="354" s="2">
-      <c r="A354" s="22" t="inlineStr"/>
-      <c r="B354" s="17" t="inlineStr"/>
-      <c r="C354" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="354" s="2">
+      <c r="A354" s="21" t="inlineStr"/>
+      <c r="B354" s="16" t="inlineStr"/>
+      <c r="C354" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -12730,10 +12632,10 @@
       <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="355" s="2">
-      <c r="A355" s="22" t="inlineStr"/>
-      <c r="B355" s="17" t="inlineStr"/>
-      <c r="C355" s="22" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="355" s="2">
+      <c r="A355" s="21" t="inlineStr"/>
+      <c r="B355" s="16" t="inlineStr"/>
+      <c r="C355" s="21" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -12763,9 +12665,9 @@
       <c r="V355" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="356" s="2">
-      <c r="A356" s="22" t="inlineStr"/>
-      <c r="B356" s="17" t="inlineStr"/>
-      <c r="C356" s="22" t="inlineStr"/>
+      <c r="A356" s="21" t="inlineStr"/>
+      <c r="B356" s="16" t="inlineStr"/>
+      <c r="C356" s="21" t="inlineStr"/>
       <c r="D356" s="5" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
@@ -12834,10 +12736,10 @@
       <c r="U357" t="inlineStr"/>
       <c r="V357" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="358" s="2">
-      <c r="A358" s="22" t="inlineStr"/>
-      <c r="B358" s="17" t="inlineStr"/>
-      <c r="C358" s="22" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="358" s="2">
+      <c r="A358" s="21" t="inlineStr"/>
+      <c r="B358" s="16" t="inlineStr"/>
+      <c r="C358" s="21" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -12863,9 +12765,9 @@
       <c r="V358" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="359" s="2">
-      <c r="A359" s="22" t="inlineStr"/>
-      <c r="B359" s="17" t="inlineStr"/>
-      <c r="C359" s="18" t="inlineStr">
+      <c r="A359" s="21" t="inlineStr"/>
+      <c r="B359" s="16" t="inlineStr"/>
+      <c r="C359" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -12895,9 +12797,9 @@
       <c r="V359" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="360" s="2">
-      <c r="A360" s="22" t="inlineStr"/>
-      <c r="B360" s="17" t="inlineStr"/>
-      <c r="C360" s="18" t="inlineStr"/>
+      <c r="A360" s="21" t="inlineStr"/>
+      <c r="B360" s="16" t="inlineStr"/>
+      <c r="C360" s="17" t="inlineStr"/>
       <c r="D360" s="5" t="inlineStr"/>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
@@ -12967,9 +12869,9 @@
       <c r="V361" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="362" s="2">
-      <c r="A362" s="22" t="inlineStr"/>
-      <c r="B362" s="17" t="inlineStr"/>
-      <c r="C362" s="18" t="inlineStr">
+      <c r="A362" s="21" t="inlineStr"/>
+      <c r="B362" s="16" t="inlineStr"/>
+      <c r="C362" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -12995,9 +12897,9 @@
       <c r="V362" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="363" s="2">
-      <c r="A363" s="22" t="inlineStr"/>
-      <c r="B363" s="17" t="inlineStr"/>
-      <c r="C363" s="22" t="inlineStr">
+      <c r="A363" s="21" t="inlineStr"/>
+      <c r="B363" s="16" t="inlineStr"/>
+      <c r="C363" s="21" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -13027,9 +12929,9 @@
       <c r="V363" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="364" s="2">
-      <c r="A364" s="22" t="inlineStr"/>
-      <c r="B364" s="17" t="inlineStr"/>
-      <c r="C364" s="22" t="inlineStr"/>
+      <c r="A364" s="21" t="inlineStr"/>
+      <c r="B364" s="16" t="inlineStr"/>
+      <c r="C364" s="21" t="inlineStr"/>
       <c r="D364" s="5" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
@@ -13099,9 +13001,9 @@
       <c r="V365" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="366" s="2">
-      <c r="A366" s="22" t="inlineStr"/>
-      <c r="B366" s="17" t="inlineStr"/>
-      <c r="C366" s="22" t="inlineStr">
+      <c r="A366" s="21" t="inlineStr"/>
+      <c r="B366" s="16" t="inlineStr"/>
+      <c r="C366" s="21" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -13127,9 +13029,9 @@
       <c r="V366" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="367" s="2">
-      <c r="A367" s="22" t="inlineStr"/>
-      <c r="B367" s="17" t="inlineStr"/>
-      <c r="C367" s="17" t="inlineStr"/>
+      <c r="A367" s="21" t="inlineStr"/>
+      <c r="B367" s="16" t="inlineStr"/>
+      <c r="C367" s="16" t="inlineStr"/>
       <c r="D367" t="inlineStr"/>
       <c r="E367" s="5" t="inlineStr">
         <is>
@@ -13203,9 +13105,9 @@
       <c r="V368" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="369" s="2">
-      <c r="A369" s="22" t="inlineStr"/>
-      <c r="B369" s="17" t="inlineStr"/>
-      <c r="C369" s="17" t="inlineStr"/>
+      <c r="A369" s="21" t="inlineStr"/>
+      <c r="B369" s="16" t="inlineStr"/>
+      <c r="C369" s="16" t="inlineStr"/>
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
@@ -13275,9 +13177,9 @@
       <c r="V370" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="371" s="2">
-      <c r="A371" s="22" t="inlineStr"/>
-      <c r="B371" s="17" t="inlineStr"/>
-      <c r="C371" s="17" t="inlineStr"/>
+      <c r="A371" s="21" t="inlineStr"/>
+      <c r="B371" s="16" t="inlineStr"/>
+      <c r="C371" s="16" t="inlineStr"/>
       <c r="D371" t="inlineStr"/>
       <c r="E371" s="5" t="inlineStr">
         <is>
@@ -13351,9 +13253,9 @@
       <c r="V372" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="373" s="2">
-      <c r="A373" s="22" t="inlineStr"/>
-      <c r="B373" s="17" t="inlineStr"/>
-      <c r="C373" s="17" t="inlineStr"/>
+      <c r="A373" s="21" t="inlineStr"/>
+      <c r="B373" s="16" t="inlineStr"/>
+      <c r="C373" s="16" t="inlineStr"/>
       <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr">
         <is>
@@ -13427,9 +13329,9 @@
       <c r="V374" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="375" s="2">
-      <c r="A375" s="22" t="inlineStr"/>
-      <c r="B375" s="17" t="inlineStr"/>
-      <c r="C375" s="17" t="inlineStr"/>
+      <c r="A375" s="21" t="inlineStr"/>
+      <c r="B375" s="16" t="inlineStr"/>
+      <c r="C375" s="16" t="inlineStr"/>
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
@@ -13450,10 +13352,10 @@
       <c r="U375" t="inlineStr"/>
       <c r="V375" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="376" s="2">
-      <c r="A376" s="22" t="inlineStr"/>
-      <c r="B376" s="17" t="inlineStr"/>
-      <c r="C376" s="17" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="376" s="2">
+      <c r="A376" s="21" t="inlineStr"/>
+      <c r="B376" s="16" t="inlineStr"/>
+      <c r="C376" s="16" t="inlineStr"/>
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr">
         <is>
@@ -13531,9 +13433,9 @@
       <c r="V377" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="378" s="2">
-      <c r="A378" s="22" t="inlineStr"/>
-      <c r="B378" s="17" t="inlineStr"/>
-      <c r="C378" s="18" t="inlineStr">
+      <c r="A378" s="21" t="inlineStr"/>
+      <c r="B378" s="16" t="inlineStr"/>
+      <c r="C378" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -13571,9 +13473,9 @@
       <c r="V378" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="379" s="2">
-      <c r="A379" s="22" t="inlineStr"/>
-      <c r="B379" s="17" t="inlineStr"/>
-      <c r="C379" s="18" t="inlineStr"/>
+      <c r="A379" s="21" t="inlineStr"/>
+      <c r="B379" s="16" t="inlineStr"/>
+      <c r="C379" s="17" t="inlineStr"/>
       <c r="D379" t="inlineStr"/>
       <c r="E379" s="5" t="inlineStr">
         <is>
@@ -13647,9 +13549,9 @@
       <c r="V380" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="381" s="2">
-      <c r="A381" s="22" t="inlineStr"/>
-      <c r="B381" s="17" t="inlineStr"/>
-      <c r="C381" s="18" t="inlineStr"/>
+      <c r="A381" s="21" t="inlineStr"/>
+      <c r="B381" s="16" t="inlineStr"/>
+      <c r="C381" s="17" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
@@ -13719,9 +13621,9 @@
       <c r="V382" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="383" s="2">
-      <c r="A383" s="22" t="inlineStr"/>
-      <c r="B383" s="17" t="inlineStr"/>
-      <c r="C383" s="18" t="inlineStr">
+      <c r="A383" s="21" t="inlineStr"/>
+      <c r="B383" s="16" t="inlineStr"/>
+      <c r="C383" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -13747,9 +13649,9 @@
       <c r="V383" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="384" s="2">
-      <c r="A384" s="22" t="inlineStr"/>
-      <c r="B384" s="17" t="inlineStr"/>
-      <c r="C384" s="17" t="inlineStr"/>
+      <c r="A384" s="21" t="inlineStr"/>
+      <c r="B384" s="16" t="inlineStr"/>
+      <c r="C384" s="16" t="inlineStr"/>
       <c r="D384" t="inlineStr"/>
       <c r="E384" s="5" t="inlineStr">
         <is>
@@ -13823,9 +13725,9 @@
       <c r="V385" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="386" s="2">
-      <c r="A386" s="22" t="inlineStr"/>
-      <c r="B386" s="17" t="inlineStr"/>
-      <c r="C386" s="22" t="inlineStr">
+      <c r="A386" s="21" t="inlineStr"/>
+      <c r="B386" s="16" t="inlineStr"/>
+      <c r="C386" s="21" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -13854,10 +13756,10 @@
       <c r="U386" t="inlineStr"/>
       <c r="V386" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="387" s="2">
-      <c r="A387" s="22" t="inlineStr"/>
-      <c r="B387" s="17" t="inlineStr"/>
-      <c r="C387" s="22" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="387" s="2">
+      <c r="A387" s="21" t="inlineStr"/>
+      <c r="B387" s="16" t="inlineStr"/>
+      <c r="C387" s="21" t="inlineStr"/>
       <c r="D387" t="inlineStr"/>
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
@@ -13927,9 +13829,9 @@
       <c r="V388" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="389" s="2">
-      <c r="A389" s="22" t="inlineStr"/>
-      <c r="B389" s="17" t="inlineStr"/>
-      <c r="C389" s="22" t="inlineStr">
+      <c r="A389" s="21" t="inlineStr"/>
+      <c r="B389" s="16" t="inlineStr"/>
+      <c r="C389" s="21" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -13955,9 +13857,9 @@
       <c r="V389" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="390" s="2">
-      <c r="A390" s="22" t="inlineStr"/>
-      <c r="B390" s="17" t="inlineStr"/>
-      <c r="C390" s="17" t="inlineStr"/>
+      <c r="A390" s="21" t="inlineStr"/>
+      <c r="B390" s="16" t="inlineStr"/>
+      <c r="C390" s="16" t="inlineStr"/>
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr">
         <is>
@@ -14031,9 +13933,9 @@
       <c r="V391" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="392" s="2">
-      <c r="A392" s="22" t="inlineStr"/>
-      <c r="B392" s="17" t="inlineStr"/>
-      <c r="C392" s="17" t="inlineStr"/>
+      <c r="A392" s="21" t="inlineStr"/>
+      <c r="B392" s="16" t="inlineStr"/>
+      <c r="C392" s="16" t="inlineStr"/>
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
@@ -14054,10 +13956,10 @@
       <c r="U392" t="inlineStr"/>
       <c r="V392" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="393" s="2">
-      <c r="A393" s="22" t="inlineStr"/>
-      <c r="B393" s="17" t="inlineStr"/>
-      <c r="C393" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="393" s="2">
+      <c r="A393" s="21" t="inlineStr"/>
+      <c r="B393" s="16" t="inlineStr"/>
+      <c r="C393" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -14095,9 +13997,9 @@
       <c r="V393" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="394" s="2">
-      <c r="A394" s="22" t="inlineStr"/>
-      <c r="B394" s="17" t="inlineStr"/>
-      <c r="C394" s="18" t="inlineStr"/>
+      <c r="A394" s="21" t="inlineStr"/>
+      <c r="B394" s="16" t="inlineStr"/>
+      <c r="C394" s="17" t="inlineStr"/>
       <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr">
         <is>
@@ -14171,9 +14073,9 @@
       <c r="V395" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="396" s="2">
-      <c r="A396" s="22" t="inlineStr"/>
-      <c r="B396" s="17" t="inlineStr"/>
-      <c r="C396" s="25" t="inlineStr">
+      <c r="A396" s="21" t="inlineStr"/>
+      <c r="B396" s="16" t="inlineStr"/>
+      <c r="C396" s="24" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -14203,9 +14105,9 @@
       <c r="V396" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="397" s="2">
-      <c r="A397" s="22" t="inlineStr"/>
-      <c r="B397" s="17" t="inlineStr"/>
-      <c r="C397" s="25" t="inlineStr"/>
+      <c r="A397" s="21" t="inlineStr"/>
+      <c r="B397" s="16" t="inlineStr"/>
+      <c r="C397" s="24" t="inlineStr"/>
       <c r="D397" t="inlineStr"/>
       <c r="E397" s="5" t="inlineStr">
         <is>
@@ -14279,9 +14181,9 @@
       <c r="V398" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="399" s="2">
-      <c r="A399" s="22" t="inlineStr"/>
-      <c r="B399" s="17" t="inlineStr"/>
-      <c r="C399" s="25" t="inlineStr">
+      <c r="A399" s="21" t="inlineStr"/>
+      <c r="B399" s="16" t="inlineStr"/>
+      <c r="C399" s="24" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -14310,10 +14212,10 @@
       <c r="U399" t="inlineStr"/>
       <c r="V399" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="400" s="2">
-      <c r="A400" s="22" t="inlineStr"/>
-      <c r="B400" s="17" t="inlineStr"/>
-      <c r="C400" s="25" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="400" s="2">
+      <c r="A400" s="21" t="inlineStr"/>
+      <c r="B400" s="16" t="inlineStr"/>
+      <c r="C400" s="24" t="inlineStr"/>
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
@@ -14346,7 +14248,7 @@
       <c r="U400" t="inlineStr"/>
       <c r="V400" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="401" s="2">
+    <row customHeight="1" ht="12.75" r="401" s="2">
       <c r="A401" t="inlineStr"/>
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr"/>
@@ -14383,9 +14285,9 @@
       <c r="V401" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="402" s="2">
-      <c r="A402" s="22" t="inlineStr"/>
-      <c r="B402" s="17" t="inlineStr"/>
-      <c r="C402" s="25" t="inlineStr">
+      <c r="A402" s="21" t="inlineStr"/>
+      <c r="B402" s="16" t="inlineStr"/>
+      <c r="C402" s="24" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -14411,9 +14313,9 @@
       <c r="V402" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="403" s="2">
-      <c r="A403" s="22" t="inlineStr"/>
-      <c r="B403" s="17" t="inlineStr"/>
-      <c r="C403" s="25" t="inlineStr">
+      <c r="A403" s="21" t="inlineStr"/>
+      <c r="B403" s="16" t="inlineStr"/>
+      <c r="C403" s="24" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -14439,9 +14341,9 @@
       <c r="V403" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="404" s="2">
-      <c r="A404" s="22" t="inlineStr"/>
-      <c r="B404" s="17" t="inlineStr"/>
-      <c r="C404" s="18" t="inlineStr">
+      <c r="A404" s="21" t="inlineStr"/>
+      <c r="B404" s="16" t="inlineStr"/>
+      <c r="C404" s="17" t="inlineStr">
         <is>
           <t>begin screen</t>
         </is>
@@ -14475,9 +14377,9 @@
       <c r="V404" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="405" s="2">
-      <c r="A405" s="22" t="inlineStr"/>
-      <c r="B405" s="17" t="inlineStr"/>
-      <c r="C405" s="18" t="inlineStr"/>
+      <c r="A405" s="21" t="inlineStr"/>
+      <c r="B405" s="16" t="inlineStr"/>
+      <c r="C405" s="17" t="inlineStr"/>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr">
         <is>
@@ -14518,10 +14420,10 @@
       <c r="U405" t="inlineStr"/>
       <c r="V405" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="406" s="2">
-      <c r="A406" s="22" t="inlineStr"/>
-      <c r="B406" s="17" t="inlineStr"/>
-      <c r="C406" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="406" s="2">
+      <c r="A406" s="21" t="inlineStr"/>
+      <c r="B406" s="16" t="inlineStr"/>
+      <c r="C406" s="17" t="inlineStr"/>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
@@ -14563,9 +14465,9 @@
       <c r="V406" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="407" s="2">
-      <c r="A407" s="22" t="inlineStr"/>
-      <c r="B407" s="17" t="inlineStr"/>
-      <c r="C407" s="18" t="inlineStr"/>
+      <c r="A407" s="21" t="inlineStr"/>
+      <c r="B407" s="16" t="inlineStr"/>
+      <c r="C407" s="17" t="inlineStr"/>
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr">
         <is>
@@ -14607,9 +14509,9 @@
       <c r="V407" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="408" s="2">
-      <c r="A408" s="22" t="inlineStr"/>
-      <c r="B408" s="17" t="inlineStr"/>
-      <c r="C408" s="18" t="inlineStr"/>
+      <c r="A408" s="21" t="inlineStr"/>
+      <c r="B408" s="16" t="inlineStr"/>
+      <c r="C408" s="17" t="inlineStr"/>
       <c r="D408" t="inlineStr"/>
       <c r="E408" t="inlineStr">
         <is>
@@ -14651,9 +14553,9 @@
       <c r="V408" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="409" s="2">
-      <c r="A409" s="22" t="inlineStr"/>
-      <c r="B409" s="17" t="inlineStr"/>
-      <c r="C409" s="18" t="inlineStr">
+      <c r="A409" s="21" t="inlineStr"/>
+      <c r="B409" s="16" t="inlineStr"/>
+      <c r="C409" s="17" t="inlineStr">
         <is>
           <t>end screen</t>
         </is>
@@ -14786,7 +14688,7 @@
       <c r="U412" t="inlineStr"/>
       <c r="V412" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="413" s="2">
+    <row customHeight="1" ht="12.75" r="413" s="2">
       <c r="A413" t="inlineStr"/>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr"/>
@@ -14822,10 +14724,10 @@
       <c r="U413" t="inlineStr"/>
       <c r="V413" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="414" s="2">
-      <c r="A414" s="22" t="inlineStr"/>
-      <c r="B414" s="17" t="inlineStr"/>
-      <c r="C414" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="414" s="2">
+      <c r="A414" s="21" t="inlineStr"/>
+      <c r="B414" s="16" t="inlineStr"/>
+      <c r="C414" s="17" t="inlineStr"/>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr"/>
@@ -14847,9 +14749,9 @@
       <c r="V414" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="415" s="2">
-      <c r="A415" s="22" t="inlineStr"/>
-      <c r="B415" s="17" t="inlineStr"/>
-      <c r="C415" s="18" t="inlineStr"/>
+      <c r="A415" s="21" t="inlineStr"/>
+      <c r="B415" s="16" t="inlineStr"/>
+      <c r="C415" s="17" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
@@ -14871,9 +14773,9 @@
       <c r="V415" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="416" s="2">
-      <c r="A416" s="22" t="inlineStr"/>
-      <c r="B416" s="17" t="inlineStr"/>
-      <c r="C416" s="18" t="inlineStr"/>
+      <c r="A416" s="21" t="inlineStr"/>
+      <c r="B416" s="16" t="inlineStr"/>
+      <c r="C416" s="17" t="inlineStr"/>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
@@ -14951,9 +14853,9 @@
       <c r="V417" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="418" s="2">
-      <c r="A418" s="22" t="inlineStr"/>
-      <c r="B418" s="17" t="inlineStr"/>
-      <c r="C418" s="18" t="inlineStr"/>
+      <c r="A418" s="21" t="inlineStr"/>
+      <c r="B418" s="16" t="inlineStr"/>
+      <c r="C418" s="17" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
@@ -14990,7 +14892,7 @@
       <c r="U418" t="inlineStr"/>
       <c r="V418" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="419" s="2">
+    <row customHeight="1" ht="12.75" r="419" s="2">
       <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
@@ -15026,10 +14928,10 @@
       <c r="U419" t="inlineStr"/>
       <c r="V419" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="420" s="2">
-      <c r="A420" s="22" t="inlineStr"/>
-      <c r="B420" s="17" t="inlineStr"/>
-      <c r="C420" s="25" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="420" s="2">
+      <c r="A420" s="21" t="inlineStr"/>
+      <c r="B420" s="16" t="inlineStr"/>
+      <c r="C420" s="24" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -15066,10 +14968,10 @@
       <c r="U420" t="inlineStr"/>
       <c r="V420" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="421" s="2">
-      <c r="A421" s="22" t="inlineStr"/>
-      <c r="B421" s="17" t="inlineStr"/>
-      <c r="C421" s="25" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="421" s="2">
+      <c r="A421" s="21" t="inlineStr"/>
+      <c r="B421" s="16" t="inlineStr"/>
+      <c r="C421" s="24" t="inlineStr"/>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr">
@@ -15139,9 +15041,9 @@
       <c r="V422" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="423" s="2">
-      <c r="A423" s="22" t="inlineStr"/>
-      <c r="B423" s="17" t="inlineStr"/>
-      <c r="C423" s="25" t="inlineStr"/>
+      <c r="A423" s="21" t="inlineStr"/>
+      <c r="B423" s="16" t="inlineStr"/>
+      <c r="C423" s="24" t="inlineStr"/>
       <c r="D423" t="inlineStr"/>
       <c r="E423" s="5" t="inlineStr">
         <is>
@@ -15178,7 +15080,7 @@
       <c r="U423" t="inlineStr"/>
       <c r="V423" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="424" s="2">
+    <row customHeight="1" ht="12.75" r="424" s="2">
       <c r="A424" t="inlineStr"/>
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr"/>
@@ -15215,9 +15117,9 @@
       <c r="V424" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="425" s="2">
-      <c r="A425" s="22" t="inlineStr"/>
-      <c r="B425" s="17" t="inlineStr"/>
-      <c r="C425" s="25" t="inlineStr">
+      <c r="A425" s="21" t="inlineStr"/>
+      <c r="B425" s="16" t="inlineStr"/>
+      <c r="C425" s="24" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -15243,9 +15145,9 @@
       <c r="V425" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="426" s="2">
-      <c r="A426" s="22" t="inlineStr"/>
-      <c r="B426" s="17" t="inlineStr"/>
-      <c r="C426" s="18" t="inlineStr">
+      <c r="A426" s="21" t="inlineStr"/>
+      <c r="B426" s="16" t="inlineStr"/>
+      <c r="C426" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -15271,9 +15173,9 @@
       <c r="V426" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="427" s="2">
-      <c r="A427" s="22" t="inlineStr"/>
-      <c r="B427" s="17" t="inlineStr"/>
-      <c r="C427" s="17" t="inlineStr"/>
+      <c r="A427" s="21" t="inlineStr"/>
+      <c r="B427" s="16" t="inlineStr"/>
+      <c r="C427" s="16" t="inlineStr"/>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
@@ -15343,9 +15245,9 @@
       <c r="V428" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="429" s="2">
-      <c r="A429" s="22" t="inlineStr"/>
-      <c r="B429" s="17" t="inlineStr"/>
-      <c r="C429" s="17" t="inlineStr"/>
+      <c r="A429" s="21" t="inlineStr"/>
+      <c r="B429" s="16" t="inlineStr"/>
+      <c r="C429" s="16" t="inlineStr"/>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
@@ -15419,9 +15321,9 @@
       <c r="V430" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="431" s="2">
-      <c r="A431" s="22" t="inlineStr"/>
-      <c r="B431" s="17" t="inlineStr"/>
-      <c r="C431" s="17" t="inlineStr"/>
+      <c r="A431" s="21" t="inlineStr"/>
+      <c r="B431" s="16" t="inlineStr"/>
+      <c r="C431" s="16" t="inlineStr"/>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
@@ -15495,9 +15397,9 @@
       <c r="V432" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="433" s="2">
-      <c r="A433" s="22" t="inlineStr"/>
-      <c r="B433" s="17" t="inlineStr"/>
-      <c r="C433" s="18" t="inlineStr">
+      <c r="A433" s="21" t="inlineStr"/>
+      <c r="B433" s="16" t="inlineStr"/>
+      <c r="C433" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -15527,9 +15429,9 @@
       <c r="V433" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="434" s="2">
-      <c r="A434" s="22" t="inlineStr"/>
-      <c r="B434" s="17" t="inlineStr"/>
-      <c r="C434" s="18" t="inlineStr"/>
+      <c r="A434" s="21" t="inlineStr"/>
+      <c r="B434" s="16" t="inlineStr"/>
+      <c r="C434" s="17" t="inlineStr"/>
       <c r="D434" t="inlineStr"/>
       <c r="E434" s="5" t="inlineStr">
         <is>
@@ -15566,7 +15468,7 @@
       <c r="U434" t="inlineStr"/>
       <c r="V434" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="435" s="2">
+    <row customHeight="1" ht="12.75" r="435" s="2">
       <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr"/>
@@ -15602,10 +15504,10 @@
       <c r="U435" t="inlineStr"/>
       <c r="V435" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="436" s="2">
-      <c r="A436" s="22" t="inlineStr"/>
-      <c r="B436" s="17" t="inlineStr"/>
-      <c r="C436" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="436" s="2">
+      <c r="A436" s="21" t="inlineStr"/>
+      <c r="B436" s="16" t="inlineStr"/>
+      <c r="C436" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -15634,10 +15536,10 @@
       <c r="U436" t="inlineStr"/>
       <c r="V436" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="437" s="2">
-      <c r="A437" s="22" t="inlineStr"/>
-      <c r="B437" s="17" t="inlineStr"/>
-      <c r="C437" s="18" t="inlineStr"/>
+    <row customHeight="1" ht="12.75" r="437" s="2">
+      <c r="A437" s="21" t="inlineStr"/>
+      <c r="B437" s="16" t="inlineStr"/>
+      <c r="C437" s="17" t="inlineStr"/>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr">
@@ -15707,9 +15609,9 @@
       <c r="V438" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="439" s="2">
-      <c r="A439" s="22" t="inlineStr"/>
-      <c r="B439" s="17" t="inlineStr"/>
-      <c r="C439" s="18" t="inlineStr">
+      <c r="A439" s="21" t="inlineStr"/>
+      <c r="B439" s="16" t="inlineStr"/>
+      <c r="C439" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -15735,9 +15637,9 @@
       <c r="V439" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="440" s="2">
-      <c r="A440" s="22" t="inlineStr"/>
-      <c r="B440" s="17" t="inlineStr"/>
-      <c r="C440" s="18" t="inlineStr"/>
+      <c r="A440" s="21" t="inlineStr"/>
+      <c r="B440" s="16" t="inlineStr"/>
+      <c r="C440" s="17" t="inlineStr"/>
       <c r="D440" s="5" t="inlineStr"/>
       <c r="E440" s="5" t="inlineStr">
         <is>
@@ -15811,9 +15713,9 @@
       <c r="V441" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="442" s="2">
-      <c r="A442" s="22" t="inlineStr"/>
-      <c r="B442" s="17" t="inlineStr"/>
-      <c r="C442" s="18" t="inlineStr">
+      <c r="A442" s="21" t="inlineStr"/>
+      <c r="B442" s="16" t="inlineStr"/>
+      <c r="C442" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -15839,9 +15741,9 @@
       <c r="V442" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="443" s="2">
-      <c r="A443" s="22" t="inlineStr"/>
-      <c r="B443" s="17" t="inlineStr"/>
-      <c r="C443" s="17" t="inlineStr"/>
+      <c r="A443" s="21" t="inlineStr"/>
+      <c r="B443" s="16" t="inlineStr"/>
+      <c r="C443" s="16" t="inlineStr"/>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
@@ -15863,9 +15765,9 @@
       <c r="V443" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="444" s="2">
-      <c r="A444" s="22" t="inlineStr"/>
-      <c r="B444" s="17" t="inlineStr"/>
-      <c r="C444" s="17" t="inlineStr"/>
+      <c r="A444" s="21" t="inlineStr"/>
+      <c r="B444" s="16" t="inlineStr"/>
+      <c r="C444" s="16" t="inlineStr"/>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
@@ -15895,9 +15797,9 @@
       <c r="V444" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="445" s="2">
-      <c r="A445" s="22" t="inlineStr"/>
-      <c r="B445" s="17" t="inlineStr"/>
-      <c r="C445" s="17" t="inlineStr">
+      <c r="A445" s="21" t="inlineStr"/>
+      <c r="B445" s="16" t="inlineStr"/>
+      <c r="C445" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -15923,9 +15825,9 @@
       <c r="V445" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="446" s="2">
-      <c r="A446" s="22" t="inlineStr"/>
-      <c r="B446" s="22" t="inlineStr"/>
-      <c r="C446" s="22" t="inlineStr"/>
+      <c r="A446" s="21" t="inlineStr"/>
+      <c r="B446" s="21" t="inlineStr"/>
+      <c r="C446" s="21" t="inlineStr"/>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
@@ -15947,9 +15849,9 @@
       <c r="V446" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="447" s="2">
-      <c r="A447" s="22" t="inlineStr"/>
-      <c r="B447" s="17" t="inlineStr"/>
-      <c r="C447" s="17" t="inlineStr">
+      <c r="A447" s="21" t="inlineStr"/>
+      <c r="B447" s="16" t="inlineStr"/>
+      <c r="C447" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -15987,9 +15889,9 @@
       <c r="V447" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="448" s="2">
-      <c r="A448" s="22" t="inlineStr"/>
-      <c r="B448" s="17" t="inlineStr"/>
-      <c r="C448" s="17" t="inlineStr"/>
+      <c r="A448" s="21" t="inlineStr"/>
+      <c r="B448" s="16" t="inlineStr"/>
+      <c r="C448" s="16" t="inlineStr"/>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr">
@@ -16067,9 +15969,9 @@
       <c r="V449" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="450" s="2">
-      <c r="A450" s="22" t="inlineStr"/>
-      <c r="B450" s="17" t="inlineStr"/>
-      <c r="C450" s="17" t="inlineStr"/>
+      <c r="A450" s="21" t="inlineStr"/>
+      <c r="B450" s="16" t="inlineStr"/>
+      <c r="C450" s="16" t="inlineStr"/>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
@@ -16091,9 +15993,9 @@
       <c r="V450" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="451" s="2">
-      <c r="A451" s="22" t="inlineStr"/>
-      <c r="B451" s="17" t="inlineStr"/>
-      <c r="C451" s="17" t="inlineStr"/>
+      <c r="A451" s="21" t="inlineStr"/>
+      <c r="B451" s="16" t="inlineStr"/>
+      <c r="C451" s="16" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
       <c r="E451" s="5" t="inlineStr">
         <is>
@@ -16167,9 +16069,9 @@
       <c r="V452" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="453" s="2">
-      <c r="A453" s="22" t="inlineStr"/>
-      <c r="B453" s="17" t="inlineStr"/>
-      <c r="C453" s="17" t="inlineStr">
+      <c r="A453" s="21" t="inlineStr"/>
+      <c r="B453" s="16" t="inlineStr"/>
+      <c r="C453" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -16199,9 +16101,9 @@
       <c r="V453" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="454" s="2">
-      <c r="A454" s="22" t="inlineStr"/>
-      <c r="B454" s="17" t="inlineStr"/>
-      <c r="C454" s="17" t="inlineStr"/>
+      <c r="A454" s="21" t="inlineStr"/>
+      <c r="B454" s="16" t="inlineStr"/>
+      <c r="C454" s="16" t="inlineStr"/>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr">
@@ -16270,10 +16172,10 @@
       <c r="U455" t="inlineStr"/>
       <c r="V455" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="456" s="2">
-      <c r="A456" s="22" t="inlineStr"/>
-      <c r="B456" s="17" t="inlineStr"/>
-      <c r="C456" s="17" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="456" s="2">
+      <c r="A456" s="21" t="inlineStr"/>
+      <c r="B456" s="16" t="inlineStr"/>
+      <c r="C456" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -16298,10 +16200,10 @@
       <c r="U456" t="inlineStr"/>
       <c r="V456" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="457" s="2">
-      <c r="A457" s="22" t="inlineStr"/>
-      <c r="B457" s="17" t="inlineStr"/>
-      <c r="C457" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="457" s="2">
+      <c r="A457" s="21" t="inlineStr"/>
+      <c r="B457" s="16" t="inlineStr"/>
+      <c r="C457" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -16331,9 +16233,9 @@
       <c r="V457" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="458" s="2">
-      <c r="A458" s="22" t="inlineStr"/>
-      <c r="B458" s="17" t="inlineStr"/>
-      <c r="C458" s="18" t="inlineStr"/>
+      <c r="A458" s="21" t="inlineStr"/>
+      <c r="B458" s="16" t="inlineStr"/>
+      <c r="C458" s="17" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
       <c r="E458" s="5" t="inlineStr">
         <is>
@@ -16406,10 +16308,10 @@
       <c r="U459" t="inlineStr"/>
       <c r="V459" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="460" s="2">
-      <c r="A460" s="22" t="inlineStr"/>
-      <c r="B460" s="17" t="inlineStr"/>
-      <c r="C460" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="460" s="2">
+      <c r="A460" s="21" t="inlineStr"/>
+      <c r="B460" s="16" t="inlineStr"/>
+      <c r="C460" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -16439,9 +16341,9 @@
       <c r="V460" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="461" s="2">
-      <c r="A461" s="22" t="inlineStr"/>
-      <c r="B461" s="17" t="inlineStr"/>
-      <c r="C461" s="18" t="inlineStr"/>
+      <c r="A461" s="21" t="inlineStr"/>
+      <c r="B461" s="16" t="inlineStr"/>
+      <c r="C461" s="17" t="inlineStr"/>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
@@ -16511,9 +16413,9 @@
       <c r="V462" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="463" s="2">
-      <c r="A463" s="22" t="inlineStr"/>
-      <c r="B463" s="17" t="inlineStr"/>
-      <c r="C463" s="18" t="inlineStr">
+      <c r="A463" s="21" t="inlineStr"/>
+      <c r="B463" s="16" t="inlineStr"/>
+      <c r="C463" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -16539,9 +16441,9 @@
       <c r="V463" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="464" s="2">
-      <c r="A464" s="22" t="inlineStr"/>
-      <c r="B464" s="17" t="inlineStr"/>
-      <c r="C464" s="18" t="inlineStr">
+      <c r="A464" s="21" t="inlineStr"/>
+      <c r="B464" s="16" t="inlineStr"/>
+      <c r="C464" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -16571,9 +16473,9 @@
       <c r="V464" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="465" s="2">
-      <c r="A465" s="22" t="inlineStr"/>
-      <c r="B465" s="17" t="inlineStr"/>
-      <c r="C465" s="18" t="inlineStr"/>
+      <c r="A465" s="21" t="inlineStr"/>
+      <c r="B465" s="16" t="inlineStr"/>
+      <c r="C465" s="17" t="inlineStr"/>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr">
@@ -16643,9 +16545,9 @@
       <c r="V466" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="467" s="2">
-      <c r="A467" s="22" t="inlineStr"/>
-      <c r="B467" s="17" t="inlineStr"/>
-      <c r="C467" s="18" t="inlineStr">
+      <c r="A467" s="21" t="inlineStr"/>
+      <c r="B467" s="16" t="inlineStr"/>
+      <c r="C467" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -16671,9 +16573,9 @@
       <c r="V467" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="468" s="2">
-      <c r="A468" s="22" t="inlineStr"/>
-      <c r="B468" s="17" t="inlineStr"/>
-      <c r="C468" s="18" t="inlineStr">
+      <c r="A468" s="21" t="inlineStr"/>
+      <c r="B468" s="16" t="inlineStr"/>
+      <c r="C468" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -16703,9 +16605,9 @@
       <c r="V468" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="469" s="2">
-      <c r="A469" s="22" t="inlineStr"/>
-      <c r="B469" s="17" t="inlineStr"/>
-      <c r="C469" s="18" t="inlineStr"/>
+      <c r="A469" s="21" t="inlineStr"/>
+      <c r="B469" s="16" t="inlineStr"/>
+      <c r="C469" s="17" t="inlineStr"/>
       <c r="D469" s="5" t="inlineStr"/>
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr">
@@ -16775,9 +16677,9 @@
       <c r="V470" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="471" s="2">
-      <c r="A471" s="22" t="inlineStr"/>
-      <c r="B471" s="17" t="inlineStr"/>
-      <c r="C471" s="18" t="inlineStr">
+      <c r="A471" s="21" t="inlineStr"/>
+      <c r="B471" s="16" t="inlineStr"/>
+      <c r="C471" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -16803,9 +16705,9 @@
       <c r="V471" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="472" s="2">
-      <c r="A472" s="22" t="inlineStr"/>
-      <c r="B472" s="17" t="inlineStr"/>
-      <c r="C472" s="18" t="inlineStr">
+      <c r="A472" s="21" t="inlineStr"/>
+      <c r="B472" s="16" t="inlineStr"/>
+      <c r="C472" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -16835,9 +16737,9 @@
       <c r="V472" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="473" s="7">
-      <c r="A473" s="22" t="inlineStr"/>
-      <c r="B473" s="17" t="inlineStr"/>
-      <c r="C473" s="18" t="inlineStr"/>
+      <c r="A473" s="21" t="inlineStr"/>
+      <c r="B473" s="16" t="inlineStr"/>
+      <c r="C473" s="17" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
@@ -16906,10 +16808,10 @@
       <c r="U474" t="inlineStr"/>
       <c r="V474" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="13.2" r="475" s="2">
-      <c r="A475" s="22" t="inlineStr"/>
-      <c r="B475" s="17" t="inlineStr"/>
-      <c r="C475" s="18" t="inlineStr">
+    <row customHeight="1" ht="12.75" r="475" s="2">
+      <c r="A475" s="21" t="inlineStr"/>
+      <c r="B475" s="16" t="inlineStr"/>
+      <c r="C475" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -16935,9 +16837,9 @@
       <c r="V475" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="476" s="2">
-      <c r="A476" s="22" t="inlineStr"/>
-      <c r="B476" s="17" t="inlineStr"/>
-      <c r="C476" s="18" t="inlineStr"/>
+      <c r="A476" s="21" t="inlineStr"/>
+      <c r="B476" s="16" t="inlineStr"/>
+      <c r="C476" s="17" t="inlineStr"/>
       <c r="D476" s="5" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
@@ -17011,9 +16913,9 @@
       <c r="V477" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.75" r="478" s="2">
-      <c r="A478" s="22" t="inlineStr"/>
-      <c r="B478" s="17" t="inlineStr"/>
-      <c r="C478" s="18" t="inlineStr"/>
+      <c r="A478" s="21" t="inlineStr"/>
+      <c r="B478" s="16" t="inlineStr"/>
+      <c r="C478" s="17" t="inlineStr"/>
       <c r="D478" s="5" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
@@ -17087,9 +16989,9 @@
       <c r="V479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" s="22" t="inlineStr"/>
-      <c r="B480" s="17" t="inlineStr"/>
-      <c r="C480" s="18" t="inlineStr">
+      <c r="A480" s="21" t="inlineStr"/>
+      <c r="B480" s="16" t="inlineStr"/>
+      <c r="C480" s="17" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -17115,9 +17017,9 @@
       <c r="V480" t="inlineStr"/>
     </row>
     <row r="481">
-      <c r="A481" s="22" t="inlineStr"/>
-      <c r="B481" s="17" t="inlineStr"/>
-      <c r="C481" s="17" t="inlineStr">
+      <c r="A481" s="21" t="inlineStr"/>
+      <c r="B481" s="16" t="inlineStr"/>
+      <c r="C481" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -17143,9 +17045,9 @@
       <c r="V481" t="inlineStr"/>
     </row>
     <row r="482">
-      <c r="A482" s="22" t="inlineStr"/>
-      <c r="B482" s="22" t="inlineStr"/>
-      <c r="C482" s="22" t="inlineStr">
+      <c r="A482" s="21" t="inlineStr"/>
+      <c r="B482" s="21" t="inlineStr"/>
+      <c r="C482" s="21" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -17171,9 +17073,9 @@
       <c r="V482" t="inlineStr"/>
     </row>
     <row r="483">
-      <c r="A483" s="13" t="inlineStr"/>
-      <c r="B483" s="13" t="inlineStr"/>
-      <c r="C483" s="13" t="inlineStr"/>
+      <c r="A483" s="12" t="inlineStr"/>
+      <c r="B483" s="12" t="inlineStr"/>
+      <c r="C483" s="12" t="inlineStr"/>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
@@ -17247,9 +17149,9 @@
       <c r="V484" t="inlineStr"/>
     </row>
     <row r="485">
-      <c r="A485" s="13" t="inlineStr"/>
-      <c r="B485" s="13" t="inlineStr"/>
-      <c r="C485" s="13" t="inlineStr"/>
+      <c r="A485" s="12" t="inlineStr"/>
+      <c r="B485" s="12" t="inlineStr"/>
+      <c r="C485" s="12" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
       <c r="E485" s="5" t="inlineStr">
         <is>
@@ -17323,9 +17225,9 @@
       <c r="V486" t="inlineStr"/>
     </row>
     <row r="487">
-      <c r="A487" s="13" t="inlineStr"/>
-      <c r="B487" s="17" t="inlineStr"/>
-      <c r="C487" s="17" t="inlineStr">
+      <c r="A487" s="12" t="inlineStr"/>
+      <c r="B487" s="16" t="inlineStr"/>
+      <c r="C487" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -17355,9 +17257,9 @@
       <c r="V487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="13" t="inlineStr"/>
-      <c r="B488" s="17" t="inlineStr"/>
-      <c r="C488" s="17" t="inlineStr"/>
+      <c r="A488" s="12" t="inlineStr"/>
+      <c r="B488" s="16" t="inlineStr"/>
+      <c r="C488" s="16" t="inlineStr"/>
       <c r="D488" t="inlineStr"/>
       <c r="E488" s="5" t="inlineStr">
         <is>
@@ -17431,9 +17333,9 @@
       <c r="V489" t="inlineStr"/>
     </row>
     <row r="490">
-      <c r="A490" s="13" t="inlineStr"/>
-      <c r="B490" s="17" t="inlineStr"/>
-      <c r="C490" s="17" t="inlineStr">
+      <c r="A490" s="12" t="inlineStr"/>
+      <c r="B490" s="16" t="inlineStr"/>
+      <c r="C490" s="16" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -17463,9 +17365,9 @@
       <c r="V490" t="inlineStr"/>
     </row>
     <row r="491">
-      <c r="A491" s="13" t="inlineStr"/>
-      <c r="B491" s="17" t="inlineStr"/>
-      <c r="C491" s="17" t="inlineStr"/>
+      <c r="A491" s="12" t="inlineStr"/>
+      <c r="B491" s="16" t="inlineStr"/>
+      <c r="C491" s="16" t="inlineStr"/>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr">
@@ -17535,9 +17437,9 @@
       <c r="V492" t="inlineStr"/>
     </row>
     <row r="493">
-      <c r="A493" s="13" t="inlineStr"/>
-      <c r="B493" s="17" t="inlineStr"/>
-      <c r="C493" s="17" t="inlineStr">
+      <c r="A493" s="12" t="inlineStr"/>
+      <c r="B493" s="16" t="inlineStr"/>
+      <c r="C493" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -17563,9 +17465,9 @@
       <c r="V493" t="inlineStr"/>
     </row>
     <row r="494">
-      <c r="A494" s="13" t="inlineStr"/>
-      <c r="B494" s="17" t="inlineStr"/>
-      <c r="C494" s="17" t="inlineStr"/>
+      <c r="A494" s="12" t="inlineStr"/>
+      <c r="B494" s="16" t="inlineStr"/>
+      <c r="C494" s="16" t="inlineStr"/>
       <c r="D494" s="5" t="inlineStr"/>
       <c r="E494" s="5" t="inlineStr">
         <is>
@@ -17639,9 +17541,9 @@
       <c r="V495" t="inlineStr"/>
     </row>
     <row r="496">
-      <c r="A496" s="13" t="inlineStr"/>
-      <c r="B496" s="17" t="inlineStr"/>
-      <c r="C496" s="17" t="inlineStr">
+      <c r="A496" s="12" t="inlineStr"/>
+      <c r="B496" s="16" t="inlineStr"/>
+      <c r="C496" s="16" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -17667,9 +17569,9 @@
       <c r="V496" t="inlineStr"/>
     </row>
     <row r="497">
-      <c r="A497" s="13" t="inlineStr"/>
-      <c r="B497" s="13" t="inlineStr"/>
-      <c r="C497" s="13" t="inlineStr"/>
+      <c r="A497" s="12" t="inlineStr"/>
+      <c r="B497" s="12" t="inlineStr"/>
+      <c r="C497" s="12" t="inlineStr"/>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
@@ -17691,9 +17593,9 @@
       <c r="V497" t="inlineStr"/>
     </row>
     <row r="498">
-      <c r="A498" s="13" t="inlineStr"/>
-      <c r="B498" s="13" t="inlineStr"/>
-      <c r="C498" s="13" t="inlineStr"/>
+      <c r="A498" s="12" t="inlineStr"/>
+      <c r="B498" s="12" t="inlineStr"/>
+      <c r="C498" s="12" t="inlineStr"/>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
@@ -17715,9 +17617,9 @@
       <c r="V498" t="inlineStr"/>
     </row>
     <row r="499">
-      <c r="A499" s="13" t="inlineStr"/>
-      <c r="B499" s="13" t="inlineStr"/>
-      <c r="C499" s="13" t="inlineStr">
+      <c r="A499" s="12" t="inlineStr"/>
+      <c r="B499" s="12" t="inlineStr"/>
+      <c r="C499" s="12" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -17867,7 +17769,7 @@
       <c r="B505" t="inlineStr"/>
       <c r="C505" t="inlineStr"/>
       <c r="D505" t="inlineStr"/>
-      <c r="E505" s="26" t="inlineStr">
+      <c r="E505" s="25" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
@@ -17877,17 +17779,17 @@
           <t>select_one</t>
         </is>
       </c>
-      <c r="G505" s="26" t="inlineStr">
+      <c r="G505" s="25" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="H505" s="26" t="inlineStr">
+      <c r="H505" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">159. Are you scared of getting Lassa fever? </t>
         </is>
       </c>
-      <c r="I505" s="26" t="inlineStr"/>
+      <c r="I505" s="25" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr"/>
@@ -17943,23 +17845,23 @@
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr"/>
       <c r="D507" t="inlineStr"/>
-      <c r="E507" s="26" t="inlineStr"/>
+      <c r="E507" s="25" t="inlineStr"/>
       <c r="F507" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="G507" s="26" t="inlineStr">
+      <c r="G507" s="25" t="inlineStr">
         <is>
           <t>fear_range</t>
         </is>
       </c>
-      <c r="H507" s="26" t="inlineStr">
+      <c r="H507" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">160. On a scale of 1 to 5 (1 = not scared at all and 5 = very scared) how scared are you of getting Lassa fever?  </t>
         </is>
       </c>
-      <c r="I507" s="26" t="inlineStr"/>
+      <c r="I507" s="25" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr"/>
@@ -18119,9 +18021,9 @@
       <c r="V511" t="inlineStr"/>
     </row>
     <row r="512">
-      <c r="A512" s="10" t="inlineStr"/>
-      <c r="B512" s="10" t="inlineStr"/>
-      <c r="C512" s="10" t="inlineStr">
+      <c r="A512" s="9" t="inlineStr"/>
+      <c r="B512" s="9" t="inlineStr"/>
+      <c r="C512" s="9" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -18159,9 +18061,9 @@
       <c r="V512" t="inlineStr"/>
     </row>
     <row r="513">
-      <c r="A513" s="10" t="inlineStr"/>
-      <c r="B513" s="10" t="inlineStr"/>
-      <c r="C513" s="10" t="inlineStr"/>
+      <c r="A513" s="9" t="inlineStr"/>
+      <c r="B513" s="9" t="inlineStr"/>
+      <c r="C513" s="9" t="inlineStr"/>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
@@ -18235,9 +18137,9 @@
       <c r="V514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="10" t="inlineStr"/>
-      <c r="B515" s="10" t="inlineStr"/>
-      <c r="C515" s="10" t="inlineStr"/>
+      <c r="A515" s="9" t="inlineStr"/>
+      <c r="B515" s="9" t="inlineStr"/>
+      <c r="C515" s="9" t="inlineStr"/>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
@@ -18311,9 +18213,9 @@
       <c r="V516" t="inlineStr"/>
     </row>
     <row r="517">
-      <c r="A517" s="10" t="inlineStr"/>
-      <c r="B517" s="11" t="inlineStr"/>
-      <c r="C517" s="11" t="inlineStr">
+      <c r="A517" s="9" t="inlineStr"/>
+      <c r="B517" s="10" t="inlineStr"/>
+      <c r="C517" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -18351,9 +18253,9 @@
       <c r="V517" t="inlineStr"/>
     </row>
     <row r="518">
-      <c r="A518" s="10" t="inlineStr"/>
-      <c r="B518" s="11" t="inlineStr"/>
-      <c r="C518" s="11" t="inlineStr"/>
+      <c r="A518" s="9" t="inlineStr"/>
+      <c r="B518" s="10" t="inlineStr"/>
+      <c r="C518" s="10" t="inlineStr"/>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
@@ -18427,9 +18329,9 @@
       <c r="V519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" s="10" t="inlineStr"/>
-      <c r="B520" s="11" t="inlineStr"/>
-      <c r="C520" s="27" t="inlineStr">
+      <c r="A520" s="9" t="inlineStr"/>
+      <c r="B520" s="10" t="inlineStr"/>
+      <c r="C520" s="26" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -18459,9 +18361,9 @@
       <c r="V520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" s="10" t="inlineStr"/>
-      <c r="B521" s="11" t="inlineStr"/>
-      <c r="C521" s="27" t="inlineStr"/>
+      <c r="A521" s="9" t="inlineStr"/>
+      <c r="B521" s="10" t="inlineStr"/>
+      <c r="C521" s="26" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
@@ -18531,9 +18433,9 @@
       <c r="V522" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" s="10" t="inlineStr"/>
-      <c r="B523" s="11" t="inlineStr"/>
-      <c r="C523" s="27" t="inlineStr">
+      <c r="A523" s="9" t="inlineStr"/>
+      <c r="B523" s="10" t="inlineStr"/>
+      <c r="C523" s="26" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -18559,9 +18461,9 @@
       <c r="V523" t="inlineStr"/>
     </row>
     <row r="524">
-      <c r="A524" s="10" t="inlineStr"/>
-      <c r="B524" s="11" t="inlineStr"/>
-      <c r="C524" s="10" t="inlineStr">
+      <c r="A524" s="9" t="inlineStr"/>
+      <c r="B524" s="10" t="inlineStr"/>
+      <c r="C524" s="9" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -18591,9 +18493,9 @@
       <c r="V524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" s="10" t="inlineStr"/>
-      <c r="B525" s="11" t="inlineStr"/>
-      <c r="C525" s="10" t="inlineStr"/>
+      <c r="A525" s="9" t="inlineStr"/>
+      <c r="B525" s="10" t="inlineStr"/>
+      <c r="C525" s="9" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr">
@@ -18663,9 +18565,9 @@
       <c r="V526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" s="10" t="inlineStr"/>
-      <c r="B527" s="11" t="inlineStr"/>
-      <c r="C527" s="10" t="inlineStr">
+      <c r="A527" s="9" t="inlineStr"/>
+      <c r="B527" s="10" t="inlineStr"/>
+      <c r="C527" s="9" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -18691,9 +18593,9 @@
       <c r="V527" t="inlineStr"/>
     </row>
     <row r="528">
-      <c r="A528" s="10" t="inlineStr"/>
-      <c r="B528" s="11" t="inlineStr"/>
-      <c r="C528" s="11" t="inlineStr"/>
+      <c r="A528" s="9" t="inlineStr"/>
+      <c r="B528" s="10" t="inlineStr"/>
+      <c r="C528" s="10" t="inlineStr"/>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
@@ -18767,9 +18669,9 @@
       <c r="V529" t="inlineStr"/>
     </row>
     <row r="530">
-      <c r="A530" s="10" t="inlineStr"/>
-      <c r="B530" s="11" t="inlineStr"/>
-      <c r="C530" s="27" t="inlineStr">
+      <c r="A530" s="9" t="inlineStr"/>
+      <c r="B530" s="10" t="inlineStr"/>
+      <c r="C530" s="26" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -18799,9 +18701,9 @@
       <c r="V530" t="inlineStr"/>
     </row>
     <row r="531">
-      <c r="A531" s="10" t="inlineStr"/>
-      <c r="B531" s="11" t="inlineStr"/>
-      <c r="C531" s="27" t="inlineStr"/>
+      <c r="A531" s="9" t="inlineStr"/>
+      <c r="B531" s="10" t="inlineStr"/>
+      <c r="C531" s="26" t="inlineStr"/>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
@@ -18871,9 +18773,9 @@
       <c r="V532" t="inlineStr"/>
     </row>
     <row r="533">
-      <c r="A533" s="10" t="inlineStr"/>
-      <c r="B533" s="11" t="inlineStr"/>
-      <c r="C533" s="27" t="inlineStr">
+      <c r="A533" s="9" t="inlineStr"/>
+      <c r="B533" s="10" t="inlineStr"/>
+      <c r="C533" s="26" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -18899,9 +18801,9 @@
       <c r="V533" t="inlineStr"/>
     </row>
     <row r="534">
-      <c r="A534" s="10" t="inlineStr"/>
-      <c r="B534" s="11" t="inlineStr"/>
-      <c r="C534" s="11" t="inlineStr">
+      <c r="A534" s="9" t="inlineStr"/>
+      <c r="B534" s="10" t="inlineStr"/>
+      <c r="C534" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -18927,9 +18829,9 @@
       <c r="V534" t="inlineStr"/>
     </row>
     <row r="535">
-      <c r="A535" s="10" t="inlineStr"/>
-      <c r="B535" s="10" t="inlineStr"/>
-      <c r="C535" s="10" t="inlineStr"/>
+      <c r="A535" s="9" t="inlineStr"/>
+      <c r="B535" s="9" t="inlineStr"/>
+      <c r="C535" s="9" t="inlineStr"/>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
@@ -18951,9 +18853,9 @@
       <c r="V535" t="inlineStr"/>
     </row>
     <row r="536">
-      <c r="A536" s="10" t="inlineStr"/>
-      <c r="B536" s="10" t="inlineStr"/>
-      <c r="C536" s="10" t="inlineStr"/>
+      <c r="A536" s="9" t="inlineStr"/>
+      <c r="B536" s="9" t="inlineStr"/>
+      <c r="C536" s="9" t="inlineStr"/>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
@@ -19027,9 +18929,9 @@
       <c r="V537" t="inlineStr"/>
     </row>
     <row r="538">
-      <c r="A538" s="10" t="inlineStr"/>
-      <c r="B538" s="11" t="inlineStr"/>
-      <c r="C538" s="11" t="inlineStr">
+      <c r="A538" s="9" t="inlineStr"/>
+      <c r="B538" s="10" t="inlineStr"/>
+      <c r="C538" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -19059,9 +18961,9 @@
       <c r="V538" t="inlineStr"/>
     </row>
     <row r="539">
-      <c r="A539" s="10" t="inlineStr"/>
-      <c r="B539" s="11" t="inlineStr"/>
-      <c r="C539" s="11" t="inlineStr"/>
+      <c r="A539" s="9" t="inlineStr"/>
+      <c r="B539" s="10" t="inlineStr"/>
+      <c r="C539" s="10" t="inlineStr"/>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
@@ -19135,9 +19037,9 @@
       <c r="V540" t="inlineStr"/>
     </row>
     <row r="541">
-      <c r="A541" s="10" t="inlineStr"/>
-      <c r="B541" s="11" t="inlineStr"/>
-      <c r="C541" s="11" t="inlineStr">
+      <c r="A541" s="9" t="inlineStr"/>
+      <c r="B541" s="10" t="inlineStr"/>
+      <c r="C541" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -19163,9 +19065,9 @@
       <c r="V541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="10" t="inlineStr"/>
-      <c r="B542" s="10" t="inlineStr"/>
-      <c r="C542" s="10" t="inlineStr">
+      <c r="A542" s="9" t="inlineStr"/>
+      <c r="B542" s="9" t="inlineStr"/>
+      <c r="C542" s="9" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -19776,8 +19678,8 @@
     </row>
     <row r="560">
       <c r="A560" t="inlineStr"/>
-      <c r="B560" s="13" t="inlineStr"/>
-      <c r="C560" s="13" t="inlineStr">
+      <c r="B560" s="12" t="inlineStr"/>
+      <c r="C560" s="12" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -19816,8 +19718,8 @@
     </row>
     <row r="561">
       <c r="A561" t="inlineStr"/>
-      <c r="B561" s="13" t="inlineStr"/>
-      <c r="C561" s="13" t="inlineStr"/>
+      <c r="B561" s="12" t="inlineStr"/>
+      <c r="C561" s="12" t="inlineStr"/>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
@@ -19892,8 +19794,8 @@
     </row>
     <row r="563">
       <c r="A563" t="inlineStr"/>
-      <c r="B563" s="13" t="inlineStr"/>
-      <c r="C563" s="16" t="inlineStr">
+      <c r="B563" s="12" t="inlineStr"/>
+      <c r="C563" s="15" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -19924,8 +19826,8 @@
     </row>
     <row r="564">
       <c r="A564" t="inlineStr"/>
-      <c r="B564" s="13" t="inlineStr"/>
-      <c r="C564" s="16" t="inlineStr"/>
+      <c r="B564" s="12" t="inlineStr"/>
+      <c r="C564" s="15" t="inlineStr"/>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
@@ -19996,8 +19898,8 @@
     </row>
     <row r="566">
       <c r="A566" t="inlineStr"/>
-      <c r="B566" s="13" t="inlineStr"/>
-      <c r="C566" s="16" t="inlineStr">
+      <c r="B566" s="12" t="inlineStr"/>
+      <c r="C566" s="15" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -20024,8 +19926,8 @@
     </row>
     <row r="567">
       <c r="A567" t="inlineStr"/>
-      <c r="B567" s="13" t="inlineStr"/>
-      <c r="C567" s="13" t="inlineStr"/>
+      <c r="B567" s="12" t="inlineStr"/>
+      <c r="C567" s="12" t="inlineStr"/>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
@@ -20100,8 +20002,8 @@
     </row>
     <row r="569">
       <c r="A569" t="inlineStr"/>
-      <c r="B569" s="13" t="inlineStr"/>
-      <c r="C569" s="13" t="inlineStr"/>
+      <c r="B569" s="12" t="inlineStr"/>
+      <c r="C569" s="12" t="inlineStr"/>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
@@ -20124,8 +20026,8 @@
     </row>
     <row r="570">
       <c r="A570" t="inlineStr"/>
-      <c r="B570" s="13" t="inlineStr"/>
-      <c r="C570" s="16" t="inlineStr">
+      <c r="B570" s="12" t="inlineStr"/>
+      <c r="C570" s="15" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -20156,8 +20058,8 @@
     </row>
     <row r="571">
       <c r="A571" t="inlineStr"/>
-      <c r="B571" s="13" t="inlineStr"/>
-      <c r="C571" s="16" t="inlineStr"/>
+      <c r="B571" s="12" t="inlineStr"/>
+      <c r="C571" s="15" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
@@ -20232,8 +20134,8 @@
     </row>
     <row r="573">
       <c r="A573" t="inlineStr"/>
-      <c r="B573" s="13" t="inlineStr"/>
-      <c r="C573" s="16" t="inlineStr">
+      <c r="B573" s="12" t="inlineStr"/>
+      <c r="C573" s="15" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -20260,8 +20162,8 @@
     </row>
     <row r="574">
       <c r="A574" t="inlineStr"/>
-      <c r="B574" s="13" t="inlineStr"/>
-      <c r="C574" s="13" t="inlineStr"/>
+      <c r="B574" s="12" t="inlineStr"/>
+      <c r="C574" s="12" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
@@ -20336,8 +20238,8 @@
     </row>
     <row r="576">
       <c r="A576" t="inlineStr"/>
-      <c r="B576" s="13" t="inlineStr"/>
-      <c r="C576" s="13" t="inlineStr">
+      <c r="B576" s="12" t="inlineStr"/>
+      <c r="C576" s="12" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -20388,8 +20290,8 @@
     </row>
     <row r="578">
       <c r="A578" t="inlineStr"/>
-      <c r="B578" s="10" t="inlineStr"/>
-      <c r="C578" s="10" t="inlineStr">
+      <c r="B578" s="9" t="inlineStr"/>
+      <c r="C578" s="9" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -20428,8 +20330,8 @@
     </row>
     <row r="579">
       <c r="A579" t="inlineStr"/>
-      <c r="B579" s="10" t="inlineStr"/>
-      <c r="C579" s="10" t="inlineStr"/>
+      <c r="B579" s="9" t="inlineStr"/>
+      <c r="C579" s="9" t="inlineStr"/>
       <c r="D579" s="5" t="inlineStr"/>
       <c r="E579" t="inlineStr">
         <is>
@@ -20504,8 +20406,8 @@
     </row>
     <row r="581">
       <c r="A581" t="inlineStr"/>
-      <c r="B581" s="10" t="inlineStr"/>
-      <c r="C581" s="11" t="inlineStr">
+      <c r="B581" s="9" t="inlineStr"/>
+      <c r="C581" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -20536,8 +20438,8 @@
     </row>
     <row r="582">
       <c r="A582" t="inlineStr"/>
-      <c r="B582" s="10" t="inlineStr"/>
-      <c r="C582" s="11" t="inlineStr"/>
+      <c r="B582" s="9" t="inlineStr"/>
+      <c r="C582" s="10" t="inlineStr"/>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr">
@@ -20608,8 +20510,8 @@
     </row>
     <row r="584">
       <c r="A584" t="inlineStr"/>
-      <c r="B584" s="10" t="inlineStr"/>
-      <c r="C584" s="11" t="inlineStr">
+      <c r="B584" s="9" t="inlineStr"/>
+      <c r="C584" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -20636,8 +20538,8 @@
     </row>
     <row r="585">
       <c r="A585" t="inlineStr"/>
-      <c r="B585" s="10" t="inlineStr"/>
-      <c r="C585" s="10" t="inlineStr"/>
+      <c r="B585" s="9" t="inlineStr"/>
+      <c r="C585" s="9" t="inlineStr"/>
       <c r="D585" s="5" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
@@ -20712,8 +20614,8 @@
     </row>
     <row r="587">
       <c r="A587" t="inlineStr"/>
-      <c r="B587" s="10" t="inlineStr"/>
-      <c r="C587" s="10" t="inlineStr"/>
+      <c r="B587" s="9" t="inlineStr"/>
+      <c r="C587" s="9" t="inlineStr"/>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr"/>
       <c r="F587" t="inlineStr"/>
@@ -20736,8 +20638,8 @@
     </row>
     <row r="588">
       <c r="A588" t="inlineStr"/>
-      <c r="B588" s="10" t="inlineStr"/>
-      <c r="C588" s="11" t="inlineStr">
+      <c r="B588" s="9" t="inlineStr"/>
+      <c r="C588" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -20768,8 +20670,8 @@
     </row>
     <row r="589">
       <c r="A589" t="inlineStr"/>
-      <c r="B589" s="10" t="inlineStr"/>
-      <c r="C589" s="11" t="inlineStr"/>
+      <c r="B589" s="9" t="inlineStr"/>
+      <c r="C589" s="10" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
@@ -20844,8 +20746,8 @@
     </row>
     <row r="591">
       <c r="A591" t="inlineStr"/>
-      <c r="B591" s="10" t="inlineStr"/>
-      <c r="C591" s="11" t="inlineStr">
+      <c r="B591" s="9" t="inlineStr"/>
+      <c r="C591" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -20872,8 +20774,8 @@
     </row>
     <row r="592">
       <c r="A592" t="inlineStr"/>
-      <c r="B592" s="10" t="inlineStr"/>
-      <c r="C592" s="10" t="inlineStr"/>
+      <c r="B592" s="9" t="inlineStr"/>
+      <c r="C592" s="9" t="inlineStr"/>
       <c r="D592" s="5" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
@@ -20948,8 +20850,8 @@
     </row>
     <row r="594">
       <c r="A594" t="inlineStr"/>
-      <c r="B594" s="10" t="inlineStr"/>
-      <c r="C594" s="10" t="inlineStr">
+      <c r="B594" s="9" t="inlineStr"/>
+      <c r="C594" s="9" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -21001,7 +20903,7 @@
     <row r="596">
       <c r="A596" t="inlineStr"/>
       <c r="B596" t="inlineStr"/>
-      <c r="C596" s="28" t="inlineStr"/>
+      <c r="C596" s="27" t="inlineStr"/>
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
@@ -21023,9 +20925,9 @@
       <c r="V596" t="inlineStr"/>
     </row>
     <row r="597">
-      <c r="A597" s="13" t="inlineStr"/>
-      <c r="B597" s="13" t="inlineStr"/>
-      <c r="C597" s="15" t="inlineStr">
+      <c r="A597" s="12" t="inlineStr"/>
+      <c r="B597" s="12" t="inlineStr"/>
+      <c r="C597" s="14" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -21055,9 +20957,9 @@
       <c r="V597" t="inlineStr"/>
     </row>
     <row r="598">
-      <c r="A598" s="13" t="inlineStr"/>
-      <c r="B598" s="13" t="inlineStr"/>
-      <c r="C598" s="13" t="inlineStr"/>
+      <c r="A598" s="12" t="inlineStr"/>
+      <c r="B598" s="12" t="inlineStr"/>
+      <c r="C598" s="12" t="inlineStr"/>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
@@ -21131,9 +21033,9 @@
       <c r="V599" t="inlineStr"/>
     </row>
     <row r="600">
-      <c r="A600" s="13" t="inlineStr"/>
-      <c r="B600" s="13" t="inlineStr"/>
-      <c r="C600" s="13" t="inlineStr"/>
+      <c r="A600" s="12" t="inlineStr"/>
+      <c r="B600" s="12" t="inlineStr"/>
+      <c r="C600" s="12" t="inlineStr"/>
       <c r="D600" s="5" t="inlineStr"/>
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
@@ -21155,9 +21057,9 @@
       <c r="V600" t="inlineStr"/>
     </row>
     <row r="601">
-      <c r="A601" s="13" t="inlineStr"/>
-      <c r="B601" s="13" t="inlineStr"/>
-      <c r="C601" s="13" t="inlineStr"/>
+      <c r="A601" s="12" t="inlineStr"/>
+      <c r="B601" s="12" t="inlineStr"/>
+      <c r="C601" s="12" t="inlineStr"/>
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
@@ -21179,9 +21081,9 @@
       <c r="V601" t="inlineStr"/>
     </row>
     <row r="602">
-      <c r="A602" s="13" t="inlineStr"/>
-      <c r="B602" s="16" t="inlineStr"/>
-      <c r="C602" s="16" t="inlineStr">
+      <c r="A602" s="12" t="inlineStr"/>
+      <c r="B602" s="15" t="inlineStr"/>
+      <c r="C602" s="15" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -21219,9 +21121,9 @@
       <c r="V602" t="inlineStr"/>
     </row>
     <row r="603">
-      <c r="A603" s="13" t="inlineStr"/>
-      <c r="B603" s="16" t="inlineStr"/>
-      <c r="C603" s="17" t="inlineStr"/>
+      <c r="A603" s="12" t="inlineStr"/>
+      <c r="B603" s="15" t="inlineStr"/>
+      <c r="C603" s="16" t="inlineStr"/>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
@@ -21295,9 +21197,9 @@
       <c r="V604" t="inlineStr"/>
     </row>
     <row r="605">
-      <c r="A605" s="13" t="inlineStr"/>
-      <c r="B605" s="16" t="inlineStr"/>
-      <c r="C605" s="18" t="inlineStr">
+      <c r="A605" s="12" t="inlineStr"/>
+      <c r="B605" s="15" t="inlineStr"/>
+      <c r="C605" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -21327,9 +21229,9 @@
       <c r="V605" t="inlineStr"/>
     </row>
     <row r="606">
-      <c r="A606" s="13" t="inlineStr"/>
-      <c r="B606" s="16" t="inlineStr"/>
-      <c r="C606" s="29" t="inlineStr"/>
+      <c r="A606" s="12" t="inlineStr"/>
+      <c r="B606" s="15" t="inlineStr"/>
+      <c r="C606" s="28" t="inlineStr"/>
       <c r="D606" s="5" t="inlineStr"/>
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr">
@@ -21399,9 +21301,9 @@
       <c r="V607" t="inlineStr"/>
     </row>
     <row r="608">
-      <c r="A608" s="13" t="inlineStr"/>
-      <c r="B608" s="16" t="inlineStr"/>
-      <c r="C608" s="29" t="inlineStr">
+      <c r="A608" s="12" t="inlineStr"/>
+      <c r="B608" s="15" t="inlineStr"/>
+      <c r="C608" s="28" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -21427,9 +21329,9 @@
       <c r="V608" t="inlineStr"/>
     </row>
     <row r="609">
-      <c r="A609" s="13" t="inlineStr"/>
-      <c r="B609" s="16" t="inlineStr"/>
-      <c r="C609" s="17" t="inlineStr"/>
+      <c r="A609" s="12" t="inlineStr"/>
+      <c r="B609" s="15" t="inlineStr"/>
+      <c r="C609" s="16" t="inlineStr"/>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
@@ -21503,9 +21405,9 @@
       <c r="V610" t="inlineStr"/>
     </row>
     <row r="611">
-      <c r="A611" s="13" t="inlineStr"/>
-      <c r="B611" s="16" t="inlineStr"/>
-      <c r="C611" s="18" t="inlineStr">
+      <c r="A611" s="12" t="inlineStr"/>
+      <c r="B611" s="15" t="inlineStr"/>
+      <c r="C611" s="17" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -21535,9 +21437,9 @@
       <c r="V611" t="inlineStr"/>
     </row>
     <row r="612">
-      <c r="A612" s="13" t="inlineStr"/>
-      <c r="B612" s="16" t="inlineStr"/>
-      <c r="C612" s="29" t="inlineStr"/>
+      <c r="A612" s="12" t="inlineStr"/>
+      <c r="B612" s="15" t="inlineStr"/>
+      <c r="C612" s="28" t="inlineStr"/>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
@@ -21607,9 +21509,9 @@
       <c r="V613" t="inlineStr"/>
     </row>
     <row r="614">
-      <c r="A614" s="13" t="inlineStr"/>
-      <c r="B614" s="16" t="inlineStr"/>
-      <c r="C614" s="29" t="inlineStr">
+      <c r="A614" s="12" t="inlineStr"/>
+      <c r="B614" s="15" t="inlineStr"/>
+      <c r="C614" s="28" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -21635,9 +21537,9 @@
       <c r="V614" t="inlineStr"/>
     </row>
     <row r="615">
-      <c r="A615" s="13" t="inlineStr"/>
-      <c r="B615" s="16" t="inlineStr"/>
-      <c r="C615" s="16" t="inlineStr">
+      <c r="A615" s="12" t="inlineStr"/>
+      <c r="B615" s="15" t="inlineStr"/>
+      <c r="C615" s="15" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -21663,9 +21565,9 @@
       <c r="V615" t="inlineStr"/>
     </row>
     <row r="616">
-      <c r="A616" s="13" t="inlineStr"/>
-      <c r="B616" s="13" t="inlineStr"/>
-      <c r="C616" s="13" t="inlineStr">
+      <c r="A616" s="12" t="inlineStr"/>
+      <c r="B616" s="12" t="inlineStr"/>
+      <c r="C616" s="12" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -22900,8 +22802,8 @@
     </row>
     <row r="653">
       <c r="A653" t="inlineStr"/>
-      <c r="B653" s="10" t="inlineStr"/>
-      <c r="C653" s="10" t="inlineStr">
+      <c r="B653" s="9" t="inlineStr"/>
+      <c r="C653" s="9" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -22940,8 +22842,8 @@
     </row>
     <row r="654">
       <c r="A654" t="inlineStr"/>
-      <c r="B654" s="10" t="inlineStr"/>
-      <c r="C654" s="10" t="inlineStr"/>
+      <c r="B654" s="9" t="inlineStr"/>
+      <c r="C654" s="9" t="inlineStr"/>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr">
@@ -23016,8 +22918,8 @@
     </row>
     <row r="656">
       <c r="A656" t="inlineStr"/>
-      <c r="B656" s="10" t="inlineStr"/>
-      <c r="C656" s="10" t="inlineStr"/>
+      <c r="B656" s="9" t="inlineStr"/>
+      <c r="C656" s="9" t="inlineStr"/>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
@@ -23092,8 +22994,8 @@
     </row>
     <row r="658">
       <c r="A658" t="inlineStr"/>
-      <c r="B658" s="10" t="inlineStr"/>
-      <c r="C658" s="11" t="inlineStr">
+      <c r="B658" s="9" t="inlineStr"/>
+      <c r="C658" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -23124,8 +23026,8 @@
     </row>
     <row r="659">
       <c r="A659" t="inlineStr"/>
-      <c r="B659" s="10" t="inlineStr"/>
-      <c r="C659" s="11" t="inlineStr"/>
+      <c r="B659" s="9" t="inlineStr"/>
+      <c r="C659" s="10" t="inlineStr"/>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr">
@@ -23196,8 +23098,8 @@
     </row>
     <row r="661">
       <c r="A661" t="inlineStr"/>
-      <c r="B661" s="10" t="inlineStr"/>
-      <c r="C661" s="11" t="inlineStr">
+      <c r="B661" s="9" t="inlineStr"/>
+      <c r="C661" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -23224,8 +23126,8 @@
     </row>
     <row r="662">
       <c r="A662" t="inlineStr"/>
-      <c r="B662" s="10" t="inlineStr"/>
-      <c r="C662" s="10" t="inlineStr"/>
+      <c r="B662" s="9" t="inlineStr"/>
+      <c r="C662" s="9" t="inlineStr"/>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
@@ -23300,8 +23202,8 @@
     </row>
     <row r="664">
       <c r="A664" t="inlineStr"/>
-      <c r="B664" s="10" t="inlineStr"/>
-      <c r="C664" s="11" t="inlineStr">
+      <c r="B664" s="9" t="inlineStr"/>
+      <c r="C664" s="10" t="inlineStr">
         <is>
           <t>if</t>
         </is>
@@ -23332,8 +23234,8 @@
     </row>
     <row r="665">
       <c r="A665" t="inlineStr"/>
-      <c r="B665" s="10" t="inlineStr"/>
-      <c r="C665" s="11" t="inlineStr"/>
+      <c r="B665" s="9" t="inlineStr"/>
+      <c r="C665" s="10" t="inlineStr"/>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
@@ -23404,8 +23306,8 @@
     </row>
     <row r="667">
       <c r="A667" t="inlineStr"/>
-      <c r="B667" s="10" t="inlineStr"/>
-      <c r="C667" s="11" t="inlineStr">
+      <c r="B667" s="9" t="inlineStr"/>
+      <c r="C667" s="10" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -23432,8 +23334,8 @@
     </row>
     <row r="668">
       <c r="A668" t="inlineStr"/>
-      <c r="B668" s="10" t="inlineStr"/>
-      <c r="C668" s="10" t="inlineStr"/>
+      <c r="B668" s="9" t="inlineStr"/>
+      <c r="C668" s="9" t="inlineStr"/>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
@@ -23504,8 +23406,8 @@
     </row>
     <row r="670">
       <c r="A670" t="inlineStr"/>
-      <c r="B670" s="10" t="inlineStr"/>
-      <c r="C670" s="10" t="inlineStr">
+      <c r="B670" s="9" t="inlineStr"/>
+      <c r="C670" s="9" t="inlineStr">
         <is>
           <t>end if</t>
         </is>
@@ -26166,15 +26068,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="30.88671875"/>
+    <col customWidth="1" max="1" min="1" style="2" width="30.85546875"/>
     <col customWidth="1" max="2" min="2" style="2" width="20"/>
-    <col customWidth="1" max="1025" min="3" style="2" width="11.5546875"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>setting_name</t>
         </is>
@@ -26191,7 +26093,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="29" t="inlineStr">
         <is>
           <t>form_id</t>
         </is>
@@ -26262,9 +26164,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.5546875"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -26705,12 +26607,12 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="38"/>
-    <col customWidth="1" max="2" min="2" style="2" width="32.6640625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="32.7109375"/>
     <col customWidth="1" max="3" min="3" style="2" width="33"/>
-    <col customWidth="1" max="1025" min="4" style="2" width="10.6640625"/>
+    <col customWidth="1" max="1025" min="4" style="2" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29195,35 +29097,35 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.4" r="206" s="26">
-      <c r="A206" s="26" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="15" r="206" s="25">
+      <c r="A206" s="25" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="B206" s="26" t="inlineStr">
+      <c r="B206" s="25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C206" s="26" t="inlineStr">
+      <c r="C206" s="25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.4" r="207" s="26">
-      <c r="A207" s="26" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="15" r="207" s="25">
+      <c r="A207" s="25" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="B207" s="26" t="inlineStr">
+      <c r="B207" s="25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C207" s="26" t="inlineStr">
+      <c r="C207" s="25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -32045,7 +31947,7 @@
           <t>FETHA</t>
         </is>
       </c>
-      <c r="C452" s="31" t="inlineStr">
+      <c r="C452" s="30" t="inlineStr">
         <is>
           <t>FETHA - Abakaliki</t>
         </is>
@@ -32062,7 +31964,7 @@
           <t>ISTH</t>
         </is>
       </c>
-      <c r="C453" s="31" t="inlineStr">
+      <c r="C453" s="30" t="inlineStr">
         <is>
           <t>ISTH - Irrua</t>
         </is>
@@ -32079,7 +31981,7 @@
           <t>FMC</t>
         </is>
       </c>
-      <c r="C454" s="31" t="inlineStr">
+      <c r="C454" s="30" t="inlineStr">
         <is>
           <t>FMC - Owo</t>
         </is>
@@ -33898,7 +33800,7 @@
           <t>FETHA</t>
         </is>
       </c>
-      <c r="C598" s="31" t="inlineStr">
+      <c r="C598" s="30" t="inlineStr">
         <is>
           <t>FETHA - Abakaliki</t>
         </is>
@@ -33915,7 +33817,7 @@
           <t>ISTH</t>
         </is>
       </c>
-      <c r="C599" s="31" t="inlineStr">
+      <c r="C599" s="30" t="inlineStr">
         <is>
           <t>ISTH - Irrua</t>
         </is>
@@ -33932,7 +33834,7 @@
           <t>FMC</t>
         </is>
       </c>
-      <c r="C600" s="31" t="inlineStr">
+      <c r="C600" s="30" t="inlineStr">
         <is>
           <t>FMC - Owo</t>
         </is>
@@ -33949,7 +33851,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C602" s="31" t="inlineStr">
+      <c r="C602" s="30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -33966,7 +33868,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C603" s="31" t="inlineStr">
+      <c r="C603" s="30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
